--- a/log/lqr_steering/Spielberg_errors.xlsx
+++ b/log/lqr_steering/Spielberg_errors.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>-0.001296924488157636</v>
+        <v>-0.001296924488157637</v>
       </c>
       <c r="B15">
         <v>0.003422899999999895</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>-0.001802070455694495</v>
+        <v>-0.001802070455694494</v>
       </c>
       <c r="B27">
         <v>0.002029819205030314</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>-0.0003652119434549418</v>
+        <v>-0.0003652119434549417</v>
       </c>
       <c r="B50">
         <v>0.002881277645598868</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>-0.0007879902875645453</v>
+        <v>-0.0007879902875645452</v>
       </c>
       <c r="B52">
         <v>0.001368689151933999</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>-0.001457127791222853</v>
+        <v>-0.001457127791222854</v>
       </c>
       <c r="B54">
         <v>-0.0005704018190448856</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>-0.000903316937995205</v>
+        <v>-0.0009033169379952051</v>
       </c>
       <c r="B80">
         <v>0.0002556197594230092</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>0.002660710857274973</v>
+        <v>0.002660710857274972</v>
       </c>
       <c r="B125">
         <v>0.006653793997572599</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>0.002583193475388725</v>
+        <v>0.002583193475388724</v>
       </c>
       <c r="B127">
         <v>0.005832625092603738</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>-0.0006685410285785962</v>
+        <v>-0.0006685410285785963</v>
       </c>
       <c r="B133">
         <v>-0.004219815884177081</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>-0.003409565923228018</v>
+        <v>-0.003409565923228019</v>
       </c>
       <c r="B139">
         <v>-0.009487966504359679</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>-0.002932413264711659</v>
+        <v>-0.00293241326471166</v>
       </c>
       <c r="B141">
         <v>-0.007072327346001828</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>-0.00245004110522894</v>
+        <v>-0.002450041105228939</v>
       </c>
       <c r="B142">
         <v>-0.005185983062892419</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>0.001461920782093082</v>
+        <v>0.001461920782093083</v>
       </c>
       <c r="B151">
         <v>0.007170818018274794</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>-0.0004456720364173421</v>
+        <v>-0.0004456720364173422</v>
       </c>
       <c r="B155">
         <v>0.001465579715708376</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>-0.004448151107031271</v>
+        <v>-0.004448151107031272</v>
       </c>
       <c r="B160">
         <v>-0.008707562939739066</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>-0.004747255794762693</v>
+        <v>-0.004747255794762694</v>
       </c>
       <c r="B164">
         <v>-0.007793503336280594</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>-0.003559809858537509</v>
+        <v>-0.00355980985853751</v>
       </c>
       <c r="B167">
         <v>-0.003040264361473088</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>0.00230500524154566</v>
+        <v>0.002305005241545661</v>
       </c>
       <c r="B174">
         <v>0.01290964118196447</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>0.003209817974799704</v>
+        <v>0.003209817974799703</v>
       </c>
       <c r="B177">
         <v>0.01345957419866917</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>0.003112078987131516</v>
+        <v>0.003112078987131517</v>
       </c>
       <c r="B178">
         <v>0.01236522665448847</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>0.001402216787085267</v>
+        <v>0.001402216787085268</v>
       </c>
       <c r="B183">
         <v>0.003201179259821885</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>0.00238235999729886</v>
+        <v>0.002382359997298859</v>
       </c>
       <c r="B198">
         <v>0.003568684970816971</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>-0.0008610640620481824</v>
+        <v>-0.0008610640620481825</v>
       </c>
       <c r="B217">
         <v>-0.006389504136183</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>0.002655334481794941</v>
+        <v>0.00265533448179494</v>
       </c>
       <c r="B222">
         <v>0.004360152033065834</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>0.004360757484457372</v>
+        <v>0.004360757484457373</v>
       </c>
       <c r="B226">
         <v>0.008545322470411509</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>0.002730450103640777</v>
+        <v>0.002730450103640778</v>
       </c>
       <c r="B231">
         <v>0.002598660583917223</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>-0.001031138659881891</v>
+        <v>-0.00103113865988189</v>
       </c>
       <c r="B236">
         <v>-0.007876285300031594</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>0.001770098019588201</v>
+        <v>0.0017700980195882</v>
       </c>
       <c r="B245">
         <v>0.001992817484615106</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>0.004517716364520287</v>
+        <v>0.004517716364520286</v>
       </c>
       <c r="B250">
         <v>0.008799425982754183</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>0.004534383961891117</v>
+        <v>0.004534383961891118</v>
       </c>
       <c r="B251">
         <v>0.008508209483790274</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>0.002961276014224285</v>
+        <v>0.002961276014224286</v>
       </c>
       <c r="B255">
         <v>0.002816157325395086</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>0.0005462636245475147</v>
+        <v>0.0005462636245475146</v>
       </c>
       <c r="B258">
         <v>-0.004288433172118911</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>-0.0003323668500912104</v>
+        <v>-0.0003323668500912103</v>
       </c>
       <c r="B259">
         <v>-0.006646842275642495</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>-0.0005437975498260442</v>
+        <v>-0.0005437975498260441</v>
       </c>
       <c r="B267">
         <v>-0.004624906671974127</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>0.0007510324962401818</v>
+        <v>0.0007510324962401817</v>
       </c>
       <c r="B269">
         <v>-0.0003684638808811869</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>-0.0004643362108511476</v>
+        <v>-0.0004643362108511477</v>
       </c>
       <c r="B291">
         <v>-0.00394073841861875</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>0.003931352485393258</v>
+        <v>0.003931352485393259</v>
       </c>
       <c r="B297">
         <v>0.008271786314442586</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>0.004317809228824874</v>
+        <v>0.004317809228824873</v>
       </c>
       <c r="B298">
         <v>0.009083425283395563</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>0.004116447396421426</v>
+        <v>0.004116447396421427</v>
       </c>
       <c r="B301">
         <v>0.007560008358112658</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>0.0004217270877325003</v>
+        <v>0.0004217270877325004</v>
       </c>
       <c r="B307">
         <v>-0.004236317023771807</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>0.002248567156797197</v>
+        <v>0.002248567156797196</v>
       </c>
       <c r="B329">
         <v>0.002844182327522926</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362">
-        <v>-0.001988943958596175</v>
+        <v>-0.001988943958596176</v>
       </c>
       <c r="B362">
         <v>-0.007404241650775134</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369">
-        <v>0.002573882198197905</v>
+        <v>0.002573882198197906</v>
       </c>
       <c r="B369">
         <v>0.006585143248009295</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384">
-        <v>-0.002649513945630491</v>
+        <v>-0.002649513945630492</v>
       </c>
       <c r="B384">
         <v>-0.008847944050366152</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391">
-        <v>4.721825391702283E-05</v>
+        <v>4.721825391702282E-05</v>
       </c>
       <c r="B391">
         <v>0.0007814809914115095</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405">
-        <v>-0.003243481856984655</v>
+        <v>-0.003243481856984654</v>
       </c>
       <c r="B405">
         <v>-0.01009099063922436</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>-0.008097588133940264</v>
+        <v>-0.008097588133940263</v>
       </c>
       <c r="B409">
         <v>-0.0156323116893895</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411">
-        <v>-0.009737986605256285</v>
+        <v>-0.009737986605256287</v>
       </c>
       <c r="B411">
         <v>-0.01673957021631223</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415">
-        <v>-0.009908394351357664</v>
+        <v>-0.009908394351357666</v>
       </c>
       <c r="B415">
         <v>-0.009481693146510928</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>-0.01018697939988157</v>
+        <v>-0.01018697939988158</v>
       </c>
       <c r="B418">
         <v>0.0004709040377326446</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427">
-        <v>-0.02107525064857923</v>
+        <v>-0.02107525064857922</v>
       </c>
       <c r="B427">
         <v>-0.0008906194666460365</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431">
-        <v>-0.02743194240214311</v>
+        <v>-0.02743194240214312</v>
       </c>
       <c r="B431">
         <v>0.006742994393671875</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>-0.05184474590748095</v>
+        <v>-0.05184474590748096</v>
       </c>
       <c r="B449">
         <v>0.03101562386785472</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455">
-        <v>-0.05981036917579657</v>
+        <v>-0.05981036917579656</v>
       </c>
       <c r="B455">
         <v>0.02960171301219283</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>-0.06106734772646986</v>
+        <v>-0.06106734772646985</v>
       </c>
       <c r="B456">
         <v>0.03943924543136834</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467">
-        <v>-0.07366068384650896</v>
+        <v>-0.07366068384650895</v>
       </c>
       <c r="B467">
         <v>0.06762938078263581</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471">
-        <v>-0.08088740219806716</v>
+        <v>-0.08088740219806717</v>
       </c>
       <c r="B471">
         <v>0.05877457549276777</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474">
-        <v>-0.08477355285491329</v>
+        <v>-0.08477355285491331</v>
       </c>
       <c r="B474">
         <v>0.06619608325501325</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492">
-        <v>-0.1095834897936823</v>
+        <v>-0.1095834897936824</v>
       </c>
       <c r="B492">
         <v>0.09320465725798277</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503">
-        <v>-0.1290326114906944</v>
+        <v>-0.1290326114906945</v>
       </c>
       <c r="B503">
         <v>0.0782699949707415</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539">
-        <v>-0.09668809875995996</v>
+        <v>-0.09668809875995997</v>
       </c>
       <c r="B539">
         <v>0.1053354953134407</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541">
-        <v>-0.0933195191837452</v>
+        <v>-0.09331951918374522</v>
       </c>
       <c r="B541">
         <v>0.09793766466522502</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542">
-        <v>-0.09204622108687541</v>
+        <v>-0.09204622108687539</v>
       </c>
       <c r="B542">
         <v>0.1015592744502372</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543">
-        <v>-0.08987042705444045</v>
+        <v>-0.08987042705444044</v>
       </c>
       <c r="B543">
         <v>0.1060347794596712</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548">
-        <v>-0.07811023213837645</v>
+        <v>-0.07811023213837644</v>
       </c>
       <c r="B548">
         <v>0.1009943059856901</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565">
-        <v>-0.05426103726887438</v>
+        <v>-0.05426103726887439</v>
       </c>
       <c r="B565">
         <v>0.05197323693986933</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569">
-        <v>-0.04837230593127199</v>
+        <v>-0.048372305931272</v>
       </c>
       <c r="B569">
         <v>0.04518453195760408</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576">
-        <v>-0.03683776149866912</v>
+        <v>-0.03683776149866911</v>
       </c>
       <c r="B576">
         <v>0.0489690238858036</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577">
-        <v>-0.03515138668338601</v>
+        <v>-0.03515138668338576</v>
       </c>
       <c r="B577">
         <v>0.046197928392814</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579">
-        <v>-0.03126892203079122</v>
+        <v>-0.03126892203079123</v>
       </c>
       <c r="B579">
         <v>0.04649526462817022</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587">
-        <v>-0.02468209542770722</v>
+        <v>-0.02468209542770721</v>
       </c>
       <c r="B587">
         <v>0.02870083078477359</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605">
-        <v>-0.007047727132115161</v>
+        <v>-0.007047727132115162</v>
       </c>
       <c r="B605">
         <v>0.02070212340673949</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608">
-        <v>-0.006528314132931874</v>
+        <v>-0.006528314132931873</v>
       </c>
       <c r="B608">
         <v>0.01614801924610942</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611">
-        <v>-0.007663402334497433</v>
+        <v>-0.007663402334497432</v>
       </c>
       <c r="B611">
         <v>0.008437645402090244</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631">
-        <v>-0.007202323230841055</v>
+        <v>-0.007202323230841054</v>
       </c>
       <c r="B631">
         <v>0.01342099460525059</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642">
-        <v>-0.01187352986085096</v>
+        <v>-0.01187352986085093</v>
       </c>
       <c r="B642">
         <v>0.00211469754141147</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660">
-        <v>-0.009206834816340374</v>
+        <v>-0.009206834816340373</v>
       </c>
       <c r="B660">
         <v>0.01809393379978053</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685">
-        <v>-0.007910379249066797</v>
+        <v>-0.007910379249066799</v>
       </c>
       <c r="B685">
         <v>0.01809957985599331</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688">
-        <v>-0.008683487246452407</v>
+        <v>-0.008683487246452406</v>
       </c>
       <c r="B688">
         <v>0.01444799501877281</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689">
-        <v>-0.009179673485906249</v>
+        <v>-0.00917967348590625</v>
       </c>
       <c r="B689">
         <v>0.0113326858390419</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711">
-        <v>-0.008231894066528488</v>
+        <v>-0.008231894066528489</v>
       </c>
       <c r="B711">
         <v>0.01813410307790875</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716">
-        <v>-0.008297249661562058</v>
+        <v>-0.00829724966156206</v>
       </c>
       <c r="B716">
         <v>0.01557613574548711</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750">
-        <v>-0.005385287785897856</v>
+        <v>-0.005385287785897857</v>
       </c>
       <c r="B750">
         <v>0.003545862401918232</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="777" spans="1:2">
       <c r="A777">
-        <v>-0.003383394640030264</v>
+        <v>-0.003383394640030263</v>
       </c>
       <c r="B777">
         <v>0.01230456807026314</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="795" spans="1:2">
       <c r="A795">
-        <v>-0.006396250843001591</v>
+        <v>-0.006396250843001592</v>
       </c>
       <c r="B795">
         <v>0.005398186915597236</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="824" spans="1:2">
       <c r="A824">
-        <v>-0.0004266654597994614</v>
+        <v>-0.0004266654597994615</v>
       </c>
       <c r="B824">
         <v>0.008921984515228409</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="848" spans="1:2">
       <c r="A848">
-        <v>0.002951879425600968</v>
+        <v>0.002951879425600967</v>
       </c>
       <c r="B848">
         <v>0.01182819265233492</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="876" spans="1:2">
       <c r="A876">
-        <v>0.001884203421779074</v>
+        <v>0.001884203421779075</v>
       </c>
       <c r="B876">
         <v>0.01036075365890321</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="921" spans="1:2">
       <c r="A921">
-        <v>0.0006855452769363017</v>
+        <v>0.0006855452769363018</v>
       </c>
       <c r="B921">
         <v>-0.007376640100364096</v>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="927" spans="1:2">
       <c r="A927">
-        <v>0.005143808817860125</v>
+        <v>0.005143808817860124</v>
       </c>
       <c r="B927">
         <v>0.006304266134638858</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="934" spans="1:2">
       <c r="A934">
-        <v>0.003515023329815154</v>
+        <v>0.003515023329815155</v>
       </c>
       <c r="B934">
         <v>0.0005911480718379103</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="947" spans="1:2">
       <c r="A947">
-        <v>0.001318607810367551</v>
+        <v>0.00131860781036755</v>
       </c>
       <c r="B947">
         <v>-0.003475300512269186</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="993" spans="1:2">
       <c r="A993">
-        <v>0.009887614360124062</v>
+        <v>0.00988761436012406</v>
       </c>
       <c r="B993">
         <v>-0.001361603028338099</v>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010">
-        <v>0.0105930084890469</v>
+        <v>0.01059300848904691</v>
       </c>
       <c r="B1010">
         <v>-0.002619715364941655</v>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012">
-        <v>0.01047925558270092</v>
+        <v>0.01047925558270091</v>
       </c>
       <c r="B1012">
         <v>-0.002577685387135542</v>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015">
-        <v>0.009538192082961087</v>
+        <v>0.009538192082961089</v>
       </c>
       <c r="B1015">
         <v>-0.005453308716311778</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019">
-        <v>0.006953604562579815</v>
+        <v>0.006953604562579816</v>
       </c>
       <c r="B1019">
         <v>-0.01101457716378285</v>
@@ -8535,7 +8535,7 @@
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023">
-        <v>0.00472291325623355</v>
+        <v>0.004722913256233551</v>
       </c>
       <c r="B1023">
         <v>-0.01613596641841619</v>
@@ -8567,7 +8567,7 @@
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027">
-        <v>0.006140154649422547</v>
+        <v>0.006140154649422548</v>
       </c>
       <c r="B1027">
         <v>-0.00940328298692128</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028">
-        <v>0.006971174176137974</v>
+        <v>0.006971174176137973</v>
       </c>
       <c r="B1028">
         <v>-0.007466030492148779</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034">
-        <v>0.01172594301355016</v>
+        <v>0.01172594301355015</v>
       </c>
       <c r="B1034">
         <v>0.00637679175283834</v>
@@ -8767,7 +8767,7 @@
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052">
-        <v>0.007195708241305304</v>
+        <v>0.007195708241305303</v>
       </c>
       <c r="B1052">
         <v>-0.01776026661300056</v>
@@ -8791,7 +8791,7 @@
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055">
-        <v>0.007802880917509136</v>
+        <v>0.007802880917509135</v>
       </c>
       <c r="B1055">
         <v>-0.01609595212709758</v>
@@ -9327,7 +9327,7 @@
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122">
-        <v>0.009451335662636357</v>
+        <v>0.009451335662636355</v>
       </c>
       <c r="B1122">
         <v>-0.0182143131230581</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140">
-        <v>0.008561048813818729</v>
+        <v>0.008561048813818731</v>
       </c>
       <c r="B1140">
         <v>-0.01672561573590725</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141">
-        <v>0.00788300403315292</v>
+        <v>0.007883004033152922</v>
       </c>
       <c r="B1141">
         <v>-0.01917413284043423</v>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143">
-        <v>0.006669741670543346</v>
+        <v>0.006669741670543347</v>
       </c>
       <c r="B1143">
         <v>-0.02076804548098732</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159">
-        <v>0.01437602737644865</v>
+        <v>0.01437602737644864</v>
       </c>
       <c r="B1159">
         <v>0.003607794640452244</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173">
-        <v>0.01537997828899898</v>
+        <v>0.01537997828899899</v>
       </c>
       <c r="B1173">
         <v>-0.01394684953948788</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="1192" spans="1:2">
       <c r="A1192">
-        <v>0.01608130619226689</v>
+        <v>0.01608130619226688</v>
       </c>
       <c r="B1192">
         <v>-0.009279885492809559</v>
@@ -10231,7 +10231,7 @@
     </row>
     <row r="1235" spans="1:2">
       <c r="A1235">
-        <v>0.01359077085895902</v>
+        <v>0.01359077085895903</v>
       </c>
       <c r="B1235">
         <v>-0.01130875236010187</v>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240">
-        <v>0.009300343781045696</v>
+        <v>0.009300343781045694</v>
       </c>
       <c r="B1240">
         <v>-0.01962456140497526</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241">
-        <v>0.00808880802449782</v>
+        <v>0.008088808024497822</v>
       </c>
       <c r="B1241">
         <v>-0.02253026843600248</v>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="1245" spans="1:2">
       <c r="A1245">
-        <v>0.00582051779652616</v>
+        <v>0.005820517796526159</v>
       </c>
       <c r="B1245">
         <v>-0.02280755594695849</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="1246" spans="1:2">
       <c r="A1246">
-        <v>0.005668461042111585</v>
+        <v>0.005668461042111586</v>
       </c>
       <c r="B1246">
         <v>-0.02241101466091866</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252">
-        <v>0.008503783714927764</v>
+        <v>0.008503783714927762</v>
       </c>
       <c r="B1252">
         <v>-0.005792741304618154</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259">
-        <v>0.008502010105715704</v>
+        <v>0.008502010105715706</v>
       </c>
       <c r="B1259">
         <v>-0.0005654661058356325</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264">
-        <v>0.005016737341024934</v>
+        <v>0.005016737341024935</v>
       </c>
       <c r="B1264">
         <v>-0.008125078489368942</v>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="1267" spans="1:2">
       <c r="A1267">
-        <v>0.002177319672222005</v>
+        <v>0.002177319672222006</v>
       </c>
       <c r="B1267">
         <v>-0.01434216594561821</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="1283" spans="1:2">
       <c r="A1283">
-        <v>0.008174392192161654</v>
+        <v>0.008174392192161652</v>
       </c>
       <c r="B1283">
         <v>0.008135708565500721</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296">
-        <v>0.0009728041734514616</v>
+        <v>0.0009728041734514615</v>
       </c>
       <c r="B1296">
         <v>-0.0155933752604307</v>
@@ -10935,7 +10935,7 @@
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323">
-        <v>-0.0007180869027948278</v>
+        <v>-0.0007180869027948277</v>
       </c>
       <c r="B1323">
         <v>-0.0117472331599946</v>
@@ -11071,7 +11071,7 @@
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340">
-        <v>0.002077944439046201</v>
+        <v>0.002077944439046202</v>
       </c>
       <c r="B1340">
         <v>0.0112248950124294</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345">
-        <v>0.0009442689021707529</v>
+        <v>0.0009442689021707528</v>
       </c>
       <c r="B1345">
         <v>0.009027361891322805</v>
@@ -11167,7 +11167,7 @@
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352">
-        <v>-0.006865462817512555</v>
+        <v>-0.006865462817512554</v>
       </c>
       <c r="B1352">
         <v>-0.01204478522142116</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361">
-        <v>-0.01636125422748789</v>
+        <v>-0.01636125422748788</v>
       </c>
       <c r="B1361">
         <v>-0.02042488976183465</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363">
-        <v>-0.01749780298633363</v>
+        <v>-0.01749780298633362</v>
       </c>
       <c r="B1363">
         <v>-0.01976435870470539</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385">
-        <v>-0.03058051029585737</v>
+        <v>-0.03058051029585738</v>
       </c>
       <c r="B1385">
         <v>0.02862160939385472</v>
@@ -11471,7 +11471,7 @@
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390">
-        <v>-0.04347318859104414</v>
+        <v>-0.04347318859104415</v>
       </c>
       <c r="B1390">
         <v>0.03917735120059884</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441">
-        <v>-0.09653976187811647</v>
+        <v>-0.09653976187811646</v>
       </c>
       <c r="B1441">
         <v>0.09308149380861686</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460">
-        <v>-0.08354950546893328</v>
+        <v>-0.08354950546893326</v>
       </c>
       <c r="B1460">
         <v>0.1286360845616503</v>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462">
-        <v>-0.08191728429003955</v>
+        <v>-0.08191728429003954</v>
       </c>
       <c r="B1462">
         <v>0.0957396914765889</v>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467">
-        <v>-0.07690165765086884</v>
+        <v>-0.07690165765086886</v>
       </c>
       <c r="B1467">
         <v>0.1106323008943835</v>
@@ -12127,7 +12127,7 @@
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472">
-        <v>-0.07527573908683516</v>
+        <v>-0.07527573908683514</v>
       </c>
       <c r="B1472">
         <v>0.1075615197249231</v>
@@ -12175,7 +12175,7 @@
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478">
-        <v>-0.07390797109511568</v>
+        <v>-0.07390797109511567</v>
       </c>
       <c r="B1478">
         <v>0.06024772914356236</v>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482">
-        <v>-0.06822405555190525</v>
+        <v>-0.06822405555190526</v>
       </c>
       <c r="B1482">
         <v>0.05957132893639461</v>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491">
-        <v>-0.0518800176415008</v>
+        <v>-0.05188001764150079</v>
       </c>
       <c r="B1491">
         <v>0.07333013936459087</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493">
-        <v>-0.04902152061509053</v>
+        <v>-0.04902152061509054</v>
       </c>
       <c r="B1493">
         <v>0.04833245796291585</v>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495">
-        <v>-0.04771208905421168</v>
+        <v>-0.04771208905421169</v>
       </c>
       <c r="B1495">
         <v>0.06436959299583478</v>
@@ -12439,7 +12439,7 @@
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511">
-        <v>-0.03244157506480501</v>
+        <v>-0.032441575064805</v>
       </c>
       <c r="B1511">
         <v>0.03775278397136894</v>
@@ -12455,7 +12455,7 @@
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513">
-        <v>-0.02985635625616898</v>
+        <v>-0.02985635625616899</v>
       </c>
       <c r="B1513">
         <v>0.021895211908177</v>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516">
-        <v>-0.02751693168061235</v>
+        <v>-0.02751693168061236</v>
       </c>
       <c r="B1516">
         <v>0.04014475089584613</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532">
-        <v>-0.02200815872365285</v>
+        <v>-0.02200815872365286</v>
       </c>
       <c r="B1532">
         <v>0.01456554157176493</v>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536">
-        <v>-0.02010473420929025</v>
+        <v>-0.02010473420929024</v>
       </c>
       <c r="B1536">
         <v>0.01510550770774222</v>
@@ -12655,7 +12655,7 @@
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538">
-        <v>-0.0189449556525094</v>
+        <v>-0.01894495565250939</v>
       </c>
       <c r="B1538">
         <v>0.0106306938681433</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553">
-        <v>-0.0126375915336506</v>
+        <v>-0.01263759153365059</v>
       </c>
       <c r="B1553">
         <v>0.01697177865407662</v>
@@ -12831,7 +12831,7 @@
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560">
-        <v>-0.008476671924110266</v>
+        <v>-0.008476671924110267</v>
       </c>
       <c r="B1560">
         <v>0.01555765929266073</v>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563">
-        <v>-0.006537696325533523</v>
+        <v>-0.006537696325533522</v>
       </c>
       <c r="B1563">
         <v>0.01428677166478209</v>
@@ -13023,7 +13023,7 @@
     </row>
     <row r="1584" spans="1:2">
       <c r="A1584">
-        <v>0.0006349621731477578</v>
+        <v>0.0006349621731477577</v>
       </c>
       <c r="B1584">
         <v>0.009348083103891902</v>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="1592" spans="1:2">
       <c r="A1592">
-        <v>0.0009973470491731438</v>
+        <v>0.0009973470491731441</v>
       </c>
       <c r="B1592">
         <v>0.001419612923128089</v>
@@ -13119,7 +13119,7 @@
     </row>
     <row r="1596" spans="1:2">
       <c r="A1596">
-        <v>0.001116835485519393</v>
+        <v>0.001116835485519392</v>
       </c>
       <c r="B1596">
         <v>0.0008383416413395572</v>
@@ -13167,7 +13167,7 @@
     </row>
     <row r="1602" spans="1:2">
       <c r="A1602">
-        <v>0.002359627305952265</v>
+        <v>0.002359627305952264</v>
       </c>
       <c r="B1602">
         <v>0.005028891944213854</v>
@@ -13247,7 +13247,7 @@
     </row>
     <row r="1612" spans="1:2">
       <c r="A1612">
-        <v>-0.003717417306786493</v>
+        <v>-0.003717417306786494</v>
       </c>
       <c r="B1612">
         <v>-0.00721893119709538</v>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="1614" spans="1:2">
       <c r="A1614">
-        <v>-0.00422938083777979</v>
+        <v>-0.004229380837779791</v>
       </c>
       <c r="B1614">
         <v>-0.007839134965111683</v>
@@ -13311,7 +13311,7 @@
     </row>
     <row r="1620" spans="1:2">
       <c r="A1620">
-        <v>-0.004887038395629643</v>
+        <v>-0.004887038395629642</v>
       </c>
       <c r="B1620">
         <v>-0.003639659536590401</v>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="1623" spans="1:2">
       <c r="A1623">
-        <v>-0.005005682220766936</v>
+        <v>-0.005005682220766937</v>
       </c>
       <c r="B1623">
         <v>-0.001173765323883913</v>
@@ -13455,7 +13455,7 @@
     </row>
     <row r="1638" spans="1:2">
       <c r="A1638">
-        <v>-0.002329902815101454</v>
+        <v>-0.002329902815101453</v>
       </c>
       <c r="B1638">
         <v>0.01274363633398057</v>
@@ -13463,7 +13463,7 @@
     </row>
     <row r="1639" spans="1:2">
       <c r="A1639">
-        <v>-0.002630435538749526</v>
+        <v>-0.002630435538749527</v>
       </c>
       <c r="B1639">
         <v>0.009663755015585807</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="1641" spans="1:2">
       <c r="A1641">
-        <v>-0.003810670637102804</v>
+        <v>-0.003810670637102805</v>
       </c>
       <c r="B1641">
         <v>0.007936180543139493</v>
@@ -13567,7 +13567,7 @@
     </row>
     <row r="1652" spans="1:2">
       <c r="A1652">
-        <v>-0.007849117236034684</v>
+        <v>-0.007849117236034686</v>
       </c>
       <c r="B1652">
         <v>-0.0007858172717076783</v>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="1657" spans="1:2">
       <c r="A1657">
-        <v>-0.007333666211859389</v>
+        <v>-0.007333666211859388</v>
       </c>
       <c r="B1657">
         <v>0.002712506432025918</v>
@@ -13647,7 +13647,7 @@
     </row>
     <row r="1662" spans="1:2">
       <c r="A1662">
-        <v>-0.005979608454537236</v>
+        <v>-0.005979608454537235</v>
       </c>
       <c r="B1662">
         <v>0.007371822828678987</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="1663" spans="1:2">
       <c r="A1663">
-        <v>-0.005761519143539312</v>
+        <v>-0.005761519143539311</v>
       </c>
       <c r="B1663">
         <v>0.009268912687775632</v>
@@ -13679,7 +13679,7 @@
     </row>
     <row r="1666" spans="1:2">
       <c r="A1666">
-        <v>-0.004480181408005307</v>
+        <v>-0.004480181408005308</v>
       </c>
       <c r="B1666">
         <v>0.01265730345967864</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="1669" spans="1:2">
       <c r="A1669">
-        <v>-0.004394512569060705</v>
+        <v>-0.004394512569060704</v>
       </c>
       <c r="B1669">
         <v>0.01225017867447864</v>
@@ -13727,7 +13727,7 @@
     </row>
     <row r="1672" spans="1:2">
       <c r="A1672">
-        <v>-0.006483049227684809</v>
+        <v>-0.00648304922768481</v>
       </c>
       <c r="B1672">
         <v>0.006261212689731899</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="1688" spans="1:2">
       <c r="A1688">
-        <v>-0.00955965693226764</v>
+        <v>-0.009559656932267641</v>
       </c>
       <c r="B1688">
         <v>0.005107550692535767</v>
@@ -13879,7 +13879,7 @@
     </row>
     <row r="1691" spans="1:2">
       <c r="A1691">
-        <v>-0.008581645768000894</v>
+        <v>-0.008581645768000893</v>
       </c>
       <c r="B1691">
         <v>0.009467699198117963</v>
@@ -13903,7 +13903,7 @@
     </row>
     <row r="1694" spans="1:2">
       <c r="A1694">
-        <v>-0.007355817338349422</v>
+        <v>-0.007355817338349421</v>
       </c>
       <c r="B1694">
         <v>0.01359798439140647</v>
@@ -13983,7 +13983,7 @@
     </row>
     <row r="1704" spans="1:2">
       <c r="A1704">
-        <v>-0.007018701672889315</v>
+        <v>-0.007018701672889316</v>
       </c>
       <c r="B1704">
         <v>0.009208049156844922</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="1722" spans="1:2">
       <c r="A1722">
-        <v>-0.007578303714862518</v>
+        <v>-0.007578303714862517</v>
       </c>
       <c r="B1722">
         <v>0.01052656885566439</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="1729" spans="1:2">
       <c r="A1729">
-        <v>-0.007895036754274859</v>
+        <v>-0.007895036754274857</v>
       </c>
       <c r="B1729">
         <v>0.008543848586989533</v>
@@ -14191,7 +14191,7 @@
     </row>
     <row r="1730" spans="1:2">
       <c r="A1730">
-        <v>-0.008662441928606348</v>
+        <v>-0.00866244192860635</v>
       </c>
       <c r="B1730">
         <v>0.007343986366069366</v>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="1733" spans="1:2">
       <c r="A1733">
-        <v>-0.009444536215796672</v>
+        <v>-0.009444536215796674</v>
       </c>
       <c r="B1733">
         <v>0.00532129524757341</v>
@@ -14247,7 +14247,7 @@
     </row>
     <row r="1737" spans="1:2">
       <c r="A1737">
-        <v>-0.008722026008806899</v>
+        <v>-0.008722026008806897</v>
       </c>
       <c r="B1737">
         <v>0.006047736947285109</v>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="1747" spans="1:2">
       <c r="A1747">
-        <v>-0.007133170886528259</v>
+        <v>-0.00713317088652826</v>
       </c>
       <c r="B1747">
         <v>0.007426202206680443</v>
@@ -14351,7 +14351,7 @@
     </row>
     <row r="1750" spans="1:2">
       <c r="A1750">
-        <v>-0.008350490740336773</v>
+        <v>-0.008350490740336771</v>
       </c>
       <c r="B1750">
         <v>0.003915005253038117</v>
@@ -14375,7 +14375,7 @@
     </row>
     <row r="1753" spans="1:2">
       <c r="A1753">
-        <v>-0.007987948404951199</v>
+        <v>-0.007987948404951197</v>
       </c>
       <c r="B1753">
         <v>0.004699453709223533</v>
@@ -14423,7 +14423,7 @@
     </row>
     <row r="1759" spans="1:2">
       <c r="A1759">
-        <v>-0.004620312303888941</v>
+        <v>-0.004620312303888942</v>
       </c>
       <c r="B1759">
         <v>0.01274188179388247</v>
@@ -14479,7 +14479,7 @@
     </row>
     <row r="1766" spans="1:2">
       <c r="A1766">
-        <v>-0.004116736152104815</v>
+        <v>-0.004116736152104814</v>
       </c>
       <c r="B1766">
         <v>0.009806324574267222</v>
@@ -14639,7 +14639,7 @@
     </row>
     <row r="1786" spans="1:2">
       <c r="A1786">
-        <v>-0.008061448613322648</v>
+        <v>-0.008061448613322647</v>
       </c>
       <c r="B1786">
         <v>0.008793896576260174</v>
@@ -14679,7 +14679,7 @@
     </row>
     <row r="1791" spans="1:2">
       <c r="A1791">
-        <v>-0.005465728487030267</v>
+        <v>-0.005465728487030268</v>
       </c>
       <c r="B1791">
         <v>0.01656637140964357</v>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="1792" spans="1:2">
       <c r="A1792">
-        <v>-0.005602603376360698</v>
+        <v>-0.005602603376360699</v>
       </c>
       <c r="B1792">
         <v>0.0152078045596129</v>
@@ -14703,7 +14703,7 @@
     </row>
     <row r="1794" spans="1:2">
       <c r="A1794">
-        <v>-0.006320882821664366</v>
+        <v>-0.006320882821664367</v>
       </c>
       <c r="B1794">
         <v>0.01376162922810398</v>
@@ -14823,7 +14823,7 @@
     </row>
     <row r="1809" spans="1:2">
       <c r="A1809">
-        <v>-0.009047107098097609</v>
+        <v>-0.00904710709809761</v>
       </c>
       <c r="B1809">
         <v>0.005379244342583966</v>
@@ -14839,7 +14839,7 @@
     </row>
     <row r="1811" spans="1:2">
       <c r="A1811">
-        <v>-0.007492683366612815</v>
+        <v>-0.007492683366612816</v>
       </c>
       <c r="B1811">
         <v>0.009166844934284768</v>
@@ -14855,7 +14855,7 @@
     </row>
     <row r="1813" spans="1:2">
       <c r="A1813">
-        <v>-0.005576181838918319</v>
+        <v>-0.00557618183891832</v>
       </c>
       <c r="B1813">
         <v>0.01341395019905445</v>
@@ -14959,7 +14959,7 @@
     </row>
     <row r="1826" spans="1:2">
       <c r="A1826">
-        <v>-0.004703075551945419</v>
+        <v>-0.004703075551945418</v>
       </c>
       <c r="B1826">
         <v>0.002350807058790316</v>
@@ -14999,7 +14999,7 @@
     </row>
     <row r="1831" spans="1:2">
       <c r="A1831">
-        <v>-0.008437222512468893</v>
+        <v>-0.008437222512468895</v>
       </c>
       <c r="B1831">
         <v>-0.009862791545709015</v>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="1832" spans="1:2">
       <c r="A1832">
-        <v>-0.008565722993683572</v>
+        <v>-0.008565722993683571</v>
       </c>
       <c r="B1832">
         <v>-0.01066798344588094</v>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="1835" spans="1:2">
       <c r="A1835">
-        <v>-0.008474218453148934</v>
+        <v>-0.008474218453148932</v>
       </c>
       <c r="B1835">
         <v>-0.009283076330215856</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="1854" spans="1:2">
       <c r="A1854">
-        <v>-0.003528562464429815</v>
+        <v>-0.003528562464429814</v>
       </c>
       <c r="B1854">
         <v>0.004694782442926204</v>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="1857" spans="1:2">
       <c r="A1857">
-        <v>-0.006048830739707832</v>
+        <v>-0.006048830739707833</v>
       </c>
       <c r="B1857">
         <v>-0.003423221607184779</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="1863" spans="1:2">
       <c r="A1863">
-        <v>-0.00625607674114854</v>
+        <v>-0.006256076741148539</v>
       </c>
       <c r="B1863">
         <v>-0.003935686208607514</v>
@@ -15271,7 +15271,7 @@
     </row>
     <row r="1865" spans="1:2">
       <c r="A1865">
-        <v>-0.00516860509819534</v>
+        <v>-0.005168605098195339</v>
       </c>
       <c r="B1865">
         <v>-0.0008740577947223827</v>
@@ -15311,7 +15311,7 @@
     </row>
     <row r="1870" spans="1:2">
       <c r="A1870">
-        <v>-0.0005765476294554358</v>
+        <v>-0.0005765476294554359</v>
       </c>
       <c r="B1870">
         <v>0.01074954921215987</v>
@@ -15471,7 +15471,7 @@
     </row>
     <row r="1890" spans="1:2">
       <c r="A1890">
-        <v>-0.002626362167285528</v>
+        <v>-0.002626362167285527</v>
       </c>
       <c r="B1890">
         <v>-0.0080666176660662</v>
@@ -15607,7 +15607,7 @@
     </row>
     <row r="1907" spans="1:2">
       <c r="A1907">
-        <v>0.0007871227149534871</v>
+        <v>0.0007871227149534869</v>
       </c>
       <c r="B1907">
         <v>-0.001679348867123842</v>
@@ -15663,7 +15663,7 @@
     </row>
     <row r="1914" spans="1:2">
       <c r="A1914">
-        <v>-0.0009832983171870473</v>
+        <v>-0.0009832983171870475</v>
       </c>
       <c r="B1914">
         <v>-0.006370466886751913</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="1916" spans="1:2">
       <c r="A1916">
-        <v>9.677871965406383E-05</v>
+        <v>9.677871965406384E-05</v>
       </c>
       <c r="B1916">
         <v>-0.003104806174561325</v>
@@ -15711,7 +15711,7 @@
     </row>
     <row r="1920" spans="1:2">
       <c r="A1920">
-        <v>0.003268964622064802</v>
+        <v>0.003268964622064801</v>
       </c>
       <c r="B1920">
         <v>0.005469662072705717</v>
@@ -15743,7 +15743,7 @@
     </row>
     <row r="1924" spans="1:2">
       <c r="A1924">
-        <v>0.003919010059349866</v>
+        <v>0.003919010059349867</v>
       </c>
       <c r="B1924">
         <v>0.005930140668574779</v>
@@ -15791,7 +15791,7 @@
     </row>
     <row r="1930" spans="1:2">
       <c r="A1930">
-        <v>0.0009476939361622775</v>
+        <v>0.0009476939361622776</v>
       </c>
       <c r="B1930">
         <v>-0.003643759311660943</v>
@@ -15807,7 +15807,7 @@
     </row>
     <row r="1932" spans="1:2">
       <c r="A1932">
-        <v>-0.0007565508365031197</v>
+        <v>-0.0007565508365031198</v>
       </c>
       <c r="B1932">
         <v>-0.008103624860337</v>
@@ -15847,7 +15847,7 @@
     </row>
     <row r="1937" spans="1:2">
       <c r="A1937">
-        <v>-0.000794645137481807</v>
+        <v>-0.0007946451374818069</v>
       </c>
       <c r="B1937">
         <v>-0.007348104627600271</v>
@@ -15903,7 +15903,7 @@
     </row>
     <row r="1944" spans="1:2">
       <c r="A1944">
-        <v>0.005171151032068095</v>
+        <v>0.005171151032068094</v>
       </c>
       <c r="B1944">
         <v>0.008203155287275443</v>
@@ -15927,7 +15927,7 @@
     </row>
     <row r="1947" spans="1:2">
       <c r="A1947">
-        <v>0.006815949706402845</v>
+        <v>0.006815949706402844</v>
       </c>
       <c r="B1947">
         <v>0.01155464559389952</v>
@@ -15943,7 +15943,7 @@
     </row>
     <row r="1949" spans="1:2">
       <c r="A1949">
-        <v>0.007170604752326042</v>
+        <v>0.007170604752326041</v>
       </c>
       <c r="B1949">
         <v>0.01023662838124739</v>
@@ -15951,7 +15951,7 @@
     </row>
     <row r="1950" spans="1:2">
       <c r="A1950">
-        <v>0.007239844020821448</v>
+        <v>0.007239844020821447</v>
       </c>
       <c r="B1950">
         <v>0.009899207524311393</v>
@@ -15975,7 +15975,7 @@
     </row>
     <row r="1953" spans="1:2">
       <c r="A1953">
-        <v>0.006597310642365182</v>
+        <v>0.006597310642365181</v>
       </c>
       <c r="B1953">
         <v>0.004935162163877571</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="1955" spans="1:2">
       <c r="A1955">
-        <v>0.005799026452616219</v>
+        <v>0.00579902645261622</v>
       </c>
       <c r="B1955">
         <v>0.0009819571388467452</v>
@@ -16015,7 +16015,7 @@
     </row>
     <row r="1958" spans="1:2">
       <c r="A1958">
-        <v>0.004110330256353378</v>
+        <v>0.004110330256353379</v>
       </c>
       <c r="B1958">
         <v>-0.006088149827570888</v>
@@ -16047,7 +16047,7 @@
     </row>
     <row r="1962" spans="1:2">
       <c r="A1962">
-        <v>0.0006497353356894928</v>
+        <v>0.0006497353356894927</v>
       </c>
       <c r="B1962">
         <v>-0.01578853684452763</v>
@@ -16159,7 +16159,7 @@
     </row>
     <row r="1976" spans="1:2">
       <c r="A1976">
-        <v>0.005999909095870208</v>
+        <v>0.005999909095870209</v>
       </c>
       <c r="B1976">
         <v>0.005037328601860125</v>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="1977" spans="1:2">
       <c r="A1977">
-        <v>0.006105997848350109</v>
+        <v>0.006105997848350108</v>
       </c>
       <c r="B1977">
         <v>0.006132134245227405</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="1989" spans="1:2">
       <c r="A1989">
-        <v>0.0004102622410334579</v>
+        <v>0.0004102622410334578</v>
       </c>
       <c r="B1989">
         <v>-0.01213719904615917</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="1997" spans="1:2">
       <c r="A1997">
-        <v>0.0005591321267339936</v>
+        <v>0.0005591321267339935</v>
       </c>
       <c r="B1997">
         <v>-0.007339269092895506</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="2001" spans="1:2">
       <c r="A2001">
-        <v>0.004481411290071463</v>
+        <v>0.004481411290071464</v>
       </c>
       <c r="B2001">
         <v>0.003187592889023705</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="2009" spans="1:2">
       <c r="A2009">
-        <v>0.008301410881619065</v>
+        <v>0.008301410881619063</v>
       </c>
       <c r="B2009">
         <v>0.008035586092656644</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="2019" spans="1:2">
       <c r="A2019">
-        <v>0.00526985641505159</v>
+        <v>0.005269856415051589</v>
       </c>
       <c r="B2019">
         <v>-0.01094282076318631</v>
@@ -16511,7 +16511,7 @@
     </row>
     <row r="2020" spans="1:2">
       <c r="A2020">
-        <v>0.004690780607308258</v>
+        <v>0.004690780607308259</v>
       </c>
       <c r="B2020">
         <v>-0.01209493742638479</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="2021" spans="1:2">
       <c r="A2021">
-        <v>0.003897078375964199</v>
+        <v>0.003897078375964198</v>
       </c>
       <c r="B2021">
         <v>-0.01521729311175068</v>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="2025" spans="1:2">
       <c r="A2025">
-        <v>0.003047746337573277</v>
+        <v>0.003047746337573278</v>
       </c>
       <c r="B2025">
         <v>-0.01681024530570241</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="2030" spans="1:2">
       <c r="A2030">
-        <v>0.006154894551310215</v>
+        <v>0.006154894551310214</v>
       </c>
       <c r="B2030">
         <v>-0.007017939155324449</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="2044" spans="1:2">
       <c r="A2044">
-        <v>0.008390327734243171</v>
+        <v>0.008390327734243173</v>
       </c>
       <c r="B2044">
         <v>-0.005927990475331768</v>
@@ -16743,7 +16743,7 @@
     </row>
     <row r="2049" spans="1:2">
       <c r="A2049">
-        <v>0.005069274307468505</v>
+        <v>0.005069274307468506</v>
       </c>
       <c r="B2049">
         <v>-0.01579006991987697</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="2054" spans="1:2">
       <c r="A2054">
-        <v>0.004414737500674141</v>
+        <v>0.00441473750067414</v>
       </c>
       <c r="B2054">
         <v>-0.01604407959562515</v>
@@ -16831,7 +16831,7 @@
     </row>
     <row r="2060" spans="1:2">
       <c r="A2060">
-        <v>0.009785497134208737</v>
+        <v>0.009785497134208735</v>
       </c>
       <c r="B2060">
         <v>0.0009721678417271562</v>
@@ -17015,7 +17015,7 @@
     </row>
     <row r="2083" spans="1:2">
       <c r="A2083">
-        <v>0.007113891001006834</v>
+        <v>0.007113891001006833</v>
       </c>
       <c r="B2083">
         <v>-0.02042340267445386</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="2100" spans="1:2">
       <c r="A2100">
-        <v>0.01142572317319604</v>
+        <v>0.01142572317319605</v>
       </c>
       <c r="B2100">
         <v>-0.005758213214940078</v>
@@ -17431,7 +17431,7 @@
     </row>
     <row r="2135" spans="1:2">
       <c r="A2135">
-        <v>0.009987586660756184</v>
+        <v>0.009987586660756186</v>
       </c>
       <c r="B2135">
         <v>-0.01418635105276334</v>
@@ -17479,7 +17479,7 @@
     </row>
     <row r="2141" spans="1:2">
       <c r="A2141">
-        <v>0.006399572947930881</v>
+        <v>0.00639957294793088</v>
       </c>
       <c r="B2141">
         <v>-0.02169937131904565</v>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="2154" spans="1:2">
       <c r="A2154">
-        <v>0.01183864500928481</v>
+        <v>0.01183864500928482</v>
       </c>
       <c r="B2154">
         <v>0.00314562941995522</v>
@@ -17623,7 +17623,7 @@
     </row>
     <row r="2159" spans="1:2">
       <c r="A2159">
-        <v>0.009509861836186502</v>
+        <v>0.0095098618361865</v>
       </c>
       <c r="B2159">
         <v>-0.002326859003738413</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="2162" spans="1:2">
       <c r="A2162">
-        <v>0.007038516583974065</v>
+        <v>0.007038516583974064</v>
       </c>
       <c r="B2162">
         <v>-0.00776310801080804</v>
@@ -17703,7 +17703,7 @@
     </row>
     <row r="2169" spans="1:2">
       <c r="A2169">
-        <v>0.0006131060559456869</v>
+        <v>0.000613106055945687</v>
       </c>
       <c r="B2169">
         <v>-0.01954666315279585</v>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="2175" spans="1:2">
       <c r="A2175">
-        <v>0.0008414799441467173</v>
+        <v>0.0008414799441467174</v>
       </c>
       <c r="B2175">
         <v>-0.009850090328026972</v>
@@ -17855,7 +17855,7 @@
     </row>
     <row r="2188" spans="1:2">
       <c r="A2188">
-        <v>0.0007869226915076515</v>
+        <v>0.0007869226915076516</v>
       </c>
       <c r="B2188">
         <v>0.0005596235762492796</v>
@@ -17959,7 +17959,7 @@
     </row>
     <row r="2201" spans="1:2">
       <c r="A2201">
-        <v>-0.004888803431097087</v>
+        <v>-0.004888803431097088</v>
       </c>
       <c r="B2201">
         <v>-0.003845498891149823</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="2206" spans="1:2">
       <c r="A2206">
-        <v>-0.00197383929521219</v>
+        <v>-0.001973839295212189</v>
       </c>
       <c r="B2206">
         <v>0.007689028727123848</v>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="2211" spans="1:2">
       <c r="A2211">
-        <v>0.0003845767926828875</v>
+        <v>0.0003845767926828874</v>
       </c>
       <c r="B2211">
         <v>0.01411989849535544</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="2219" spans="1:2">
       <c r="A2219">
-        <v>-0.004726691457892195</v>
+        <v>-0.004726691457892196</v>
       </c>
       <c r="B2219">
         <v>-0.00197927196715586</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="2220" spans="1:2">
       <c r="A2220">
-        <v>-0.005793379901008674</v>
+        <v>-0.005793379901008673</v>
       </c>
       <c r="B2220">
         <v>-0.00547520419554548</v>
@@ -18135,7 +18135,7 @@
     </row>
     <row r="2223" spans="1:2">
       <c r="A2223">
-        <v>-0.007407398430665037</v>
+        <v>-0.007407398430665038</v>
       </c>
       <c r="B2223">
         <v>-0.008890340619455372</v>
@@ -18167,7 +18167,7 @@
     </row>
     <row r="2227" spans="1:2">
       <c r="A2227">
-        <v>-0.007825963134025372</v>
+        <v>-0.007825963134025371</v>
       </c>
       <c r="B2227">
         <v>-0.008848559017166302</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="2234" spans="1:2">
       <c r="A2234">
-        <v>-0.007746820943632595</v>
+        <v>-0.007746820943632594</v>
       </c>
       <c r="B2234">
         <v>0.0006335999076538812</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="2235" spans="1:2">
       <c r="A2235">
-        <v>-0.00782397742786398</v>
+        <v>-0.007823977427863981</v>
       </c>
       <c r="B2235">
         <v>-0.002039377297482048</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="2240" spans="1:2">
       <c r="A2240">
-        <v>-0.009990233184568646</v>
+        <v>-0.009990233184568644</v>
       </c>
       <c r="B2240">
         <v>-0.002121379111063249</v>
@@ -18447,7 +18447,7 @@
     </row>
     <row r="2262" spans="1:2">
       <c r="A2262">
-        <v>-0.03479918857335377</v>
+        <v>-0.03479918857335378</v>
       </c>
       <c r="B2262">
         <v>0.02481865201267475</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="2265" spans="1:2">
       <c r="A2265">
-        <v>-0.03774249111943954</v>
+        <v>-0.03774249111943955</v>
       </c>
       <c r="B2265">
         <v>0.03556410453170411</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="2267" spans="1:2">
       <c r="A2267">
-        <v>-0.03968475582610419</v>
+        <v>-0.0396847558261042</v>
       </c>
       <c r="B2267">
         <v>0.03525501696526501</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="2296" spans="1:2">
       <c r="A2296">
-        <v>-0.07648875966815655</v>
+        <v>-0.07648875966815653</v>
       </c>
       <c r="B2296">
         <v>0.07595273908777678</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="2303" spans="1:2">
       <c r="A2303">
-        <v>-0.08404965215947802</v>
+        <v>-0.084049652159478</v>
       </c>
       <c r="B2303">
         <v>0.09090675245902258</v>
@@ -18783,7 +18783,7 @@
     </row>
     <row r="2304" spans="1:2">
       <c r="A2304">
-        <v>-0.08550276493480258</v>
+        <v>-0.08550276493480256</v>
       </c>
       <c r="B2304">
         <v>0.06206481365900185</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="2309" spans="1:2">
       <c r="A2309">
-        <v>-0.09239203962463982</v>
+        <v>-0.09239203962463984</v>
       </c>
       <c r="B2309">
         <v>0.08559686621974105</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="2312" spans="1:2">
       <c r="A2312">
-        <v>-0.09733675847971682</v>
+        <v>-0.09733675847971683</v>
       </c>
       <c r="B2312">
         <v>0.08094101936361309</v>
@@ -19479,7 +19479,7 @@
     </row>
     <row r="2391" spans="1:2">
       <c r="A2391">
-        <v>-0.06011203817366799</v>
+        <v>-0.060112038173668</v>
       </c>
       <c r="B2391">
         <v>0.07056727498289295</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="2400" spans="1:2">
       <c r="A2400">
-        <v>-0.05602340439858483</v>
+        <v>-0.05602340439858484</v>
       </c>
       <c r="B2400">
         <v>0.05825668850509391</v>
@@ -19607,7 +19607,7 @@
     </row>
     <row r="2407" spans="1:2">
       <c r="A2407">
-        <v>-0.05102011389972619</v>
+        <v>-0.0510201138997262</v>
       </c>
       <c r="B2407">
         <v>0.04934318754105771</v>
@@ -19695,7 +19695,7 @@
     </row>
     <row r="2418" spans="1:2">
       <c r="A2418">
-        <v>-0.04048667232262509</v>
+        <v>-0.0404866723226251</v>
       </c>
       <c r="B2418">
         <v>0.05458281785504226</v>
@@ -19743,7 +19743,7 @@
     </row>
     <row r="2424" spans="1:2">
       <c r="A2424">
-        <v>-0.03412327131771084</v>
+        <v>-0.03412327131771085</v>
       </c>
       <c r="B2424">
         <v>0.04873389899495795</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="2433" spans="1:2">
       <c r="A2433">
-        <v>-0.03427858640624561</v>
+        <v>-0.0342785864062456</v>
       </c>
       <c r="B2433">
         <v>0.01492395673323799</v>
@@ -19911,7 +19911,7 @@
     </row>
     <row r="2445" spans="1:2">
       <c r="A2445">
-        <v>-0.03297100541396562</v>
+        <v>-0.03297100541396563</v>
       </c>
       <c r="B2445">
         <v>0.01446610063194509</v>
@@ -19967,7 +19967,7 @@
     </row>
     <row r="2452" spans="1:2">
       <c r="A2452">
-        <v>-0.02640245631459587</v>
+        <v>-0.02640245631459588</v>
       </c>
       <c r="B2452">
         <v>0.0252288150084321</v>
@@ -20111,7 +20111,7 @@
     </row>
     <row r="2470" spans="1:2">
       <c r="A2470">
-        <v>-0.01711571677724554</v>
+        <v>-0.01711571677724555</v>
       </c>
       <c r="B2470">
         <v>0.01566807821161786</v>
@@ -20367,7 +20367,7 @@
     </row>
     <row r="2502" spans="1:2">
       <c r="A2502">
-        <v>-0.02051803066354684</v>
+        <v>-0.02051803066354685</v>
       </c>
       <c r="B2502">
         <v>0.01300848268813404</v>
@@ -20399,7 +20399,7 @@
     </row>
     <row r="2506" spans="1:2">
       <c r="A2506">
-        <v>-0.02257202539934519</v>
+        <v>-0.0225720253993452</v>
       </c>
       <c r="B2506">
         <v>0.01229070384494779</v>
@@ -20407,7 +20407,7 @@
     </row>
     <row r="2507" spans="1:2">
       <c r="A2507">
-        <v>-0.02244898098874801</v>
+        <v>-0.022448980988748</v>
       </c>
       <c r="B2507">
         <v>0.01733816442168568</v>
@@ -20455,7 +20455,7 @@
     </row>
     <row r="2513" spans="1:2">
       <c r="A2513">
-        <v>-0.02327791238459998</v>
+        <v>-0.02327791238459999</v>
       </c>
       <c r="B2513">
         <v>0.01404527061161343</v>
@@ -20495,7 +20495,7 @@
     </row>
     <row r="2518" spans="1:2">
       <c r="A2518">
-        <v>-0.02450061209157849</v>
+        <v>-0.0245006120915785</v>
       </c>
       <c r="B2518">
         <v>0.004108878481973832</v>
@@ -20511,7 +20511,7 @@
     </row>
     <row r="2520" spans="1:2">
       <c r="A2520">
-        <v>-0.0246935100819797</v>
+        <v>-0.02469351008197971</v>
       </c>
       <c r="B2520">
         <v>0.0144336597656185</v>
@@ -20535,7 +20535,7 @@
     </row>
     <row r="2523" spans="1:2">
       <c r="A2523">
-        <v>-0.02373471070511247</v>
+        <v>-0.02373471070511248</v>
       </c>
       <c r="B2523">
         <v>0.01627018591731533</v>
@@ -20591,7 +20591,7 @@
     </row>
     <row r="2530" spans="1:2">
       <c r="A2530">
-        <v>-0.02484200992632864</v>
+        <v>-0.02484200992632863</v>
       </c>
       <c r="B2530">
         <v>0.01605252677516233</v>
@@ -20791,7 +20791,7 @@
     </row>
     <row r="2555" spans="1:2">
       <c r="A2555">
-        <v>-0.02481111078295062</v>
+        <v>-0.02481111078295061</v>
       </c>
       <c r="B2555">
         <v>0.01322835176030157</v>
@@ -20823,7 +20823,7 @@
     </row>
     <row r="2559" spans="1:2">
       <c r="A2559">
-        <v>-0.02593037145428229</v>
+        <v>-0.0259303714542823</v>
       </c>
       <c r="B2559">
         <v>0.01347094219047884</v>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="2561" spans="1:2">
       <c r="A2561">
-        <v>-0.02598713752760751</v>
+        <v>-0.02598713752760752</v>
       </c>
       <c r="B2561">
         <v>0.02061467586848265</v>
@@ -20903,7 +20903,7 @@
     </row>
     <row r="2569" spans="1:2">
       <c r="A2569">
-        <v>-0.02760355477863679</v>
+        <v>-0.02760355477863678</v>
       </c>
       <c r="B2569">
         <v>0.01181533786369293</v>
@@ -20943,7 +20943,7 @@
     </row>
     <row r="2574" spans="1:2">
       <c r="A2574">
-        <v>-0.02779510964600357</v>
+        <v>-0.02779510964600356</v>
       </c>
       <c r="B2574">
         <v>0.01929776243784032</v>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="2583" spans="1:2">
       <c r="A2583">
-        <v>-0.02650262150910929</v>
+        <v>-0.02650262150910928</v>
       </c>
       <c r="B2583">
         <v>0.02303481524077178</v>
@@ -21303,7 +21303,7 @@
     </row>
     <row r="2619" spans="1:2">
       <c r="A2619">
-        <v>-0.02456567229126945</v>
+        <v>-0.02456567229126946</v>
       </c>
       <c r="B2619">
         <v>0.01707945292521629</v>
@@ -21415,7 +21415,7 @@
     </row>
     <row r="2633" spans="1:2">
       <c r="A2633">
-        <v>-0.02513379847004808</v>
+        <v>-0.02513379847004809</v>
       </c>
       <c r="B2633">
         <v>0.01146403885219272</v>
@@ -21423,7 +21423,7 @@
     </row>
     <row r="2634" spans="1:2">
       <c r="A2634">
-        <v>-0.02487388745056679</v>
+        <v>-0.02487388745056678</v>
       </c>
       <c r="B2634">
         <v>0.01514489992050372</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="2636" spans="1:2">
       <c r="A2636">
-        <v>-0.02423316803930739</v>
+        <v>-0.0242331680393074</v>
       </c>
       <c r="B2636">
         <v>0.01406378223442228</v>
@@ -21567,7 +21567,7 @@
     </row>
     <row r="2652" spans="1:2">
       <c r="A2652">
-        <v>-0.0259642895736199</v>
+        <v>-0.02596428957361989</v>
       </c>
       <c r="B2652">
         <v>0.0146371240605867</v>
@@ -21591,7 +21591,7 @@
     </row>
     <row r="2655" spans="1:2">
       <c r="A2655">
-        <v>-0.02511280012214693</v>
+        <v>-0.02511280012214694</v>
       </c>
       <c r="B2655">
         <v>0.01752809896570362</v>
@@ -21607,7 +21607,7 @@
     </row>
     <row r="2657" spans="1:2">
       <c r="A2657">
-        <v>-0.02492213548890274</v>
+        <v>-0.02492213548890275</v>
       </c>
       <c r="B2657">
         <v>0.01620800523481769</v>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="2663" spans="1:2">
       <c r="A2663">
-        <v>-0.02491187436054549</v>
+        <v>-0.02491187436054548</v>
       </c>
       <c r="B2663">
         <v>0.01697804687440829</v>
@@ -21719,7 +21719,7 @@
     </row>
     <row r="2671" spans="1:2">
       <c r="A2671">
-        <v>-0.02508604693709297</v>
+        <v>-0.02508604693709296</v>
       </c>
       <c r="B2671">
         <v>0.01460889030641432</v>
@@ -21751,7 +21751,7 @@
     </row>
     <row r="2675" spans="1:2">
       <c r="A2675">
-        <v>-0.02502768555457489</v>
+        <v>-0.0250276855545749</v>
       </c>
       <c r="B2675">
         <v>0.01667869477520689</v>
@@ -21807,7 +21807,7 @@
     </row>
     <row r="2682" spans="1:2">
       <c r="A2682">
-        <v>-0.02461063201412565</v>
+        <v>-0.02461063201412566</v>
       </c>
       <c r="B2682">
         <v>0.01391244090169419</v>
@@ -21823,7 +21823,7 @@
     </row>
     <row r="2684" spans="1:2">
       <c r="A2684">
-        <v>-0.0242896094404279</v>
+        <v>-0.02428960944042791</v>
       </c>
       <c r="B2684">
         <v>0.01797310528065976</v>
@@ -21855,7 +21855,7 @@
     </row>
     <row r="2688" spans="1:2">
       <c r="A2688">
-        <v>-0.02368323650423523</v>
+        <v>-0.02368323650423524</v>
       </c>
       <c r="B2688">
         <v>0.01584209421020244</v>
@@ -21879,7 +21879,7 @@
     </row>
     <row r="2691" spans="1:2">
       <c r="A2691">
-        <v>-0.02288687670671756</v>
+        <v>-0.02288687670671757</v>
       </c>
       <c r="B2691">
         <v>0.01725840616513885</v>
@@ -21927,7 +21927,7 @@
     </row>
     <row r="2697" spans="1:2">
       <c r="A2697">
-        <v>-0.02074874751577921</v>
+        <v>-0.0207487475157792</v>
       </c>
       <c r="B2697">
         <v>0.02028258419942031</v>
@@ -22063,7 +22063,7 @@
     </row>
     <row r="2714" spans="1:2">
       <c r="A2714">
-        <v>-0.01562131258443489</v>
+        <v>-0.0156213125844349</v>
       </c>
       <c r="B2714">
         <v>0.01481898955707361</v>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="2729" spans="1:2">
       <c r="A2729">
-        <v>-0.009980223009843785</v>
+        <v>-0.009980223009843784</v>
       </c>
       <c r="B2729">
         <v>0.01229495843466166</v>
@@ -22271,7 +22271,7 @@
     </row>
     <row r="2740" spans="1:2">
       <c r="A2740">
-        <v>-0.009595956303970367</v>
+        <v>-0.009595956303970369</v>
       </c>
       <c r="B2740">
         <v>0.008184217551495898</v>
@@ -22279,7 +22279,7 @@
     </row>
     <row r="2741" spans="1:2">
       <c r="A2741">
-        <v>-0.009058235540661133</v>
+        <v>-0.009058235540661135</v>
       </c>
       <c r="B2741">
         <v>0.008122774032587543</v>
@@ -22295,7 +22295,7 @@
     </row>
     <row r="2743" spans="1:2">
       <c r="A2743">
-        <v>-0.007600737711174472</v>
+        <v>-0.007600737711174471</v>
       </c>
       <c r="B2743">
         <v>0.01259121523629103</v>
@@ -22335,7 +22335,7 @@
     </row>
     <row r="2748" spans="1:2">
       <c r="A2748">
-        <v>-0.005489320834424586</v>
+        <v>-0.005489320834424585</v>
       </c>
       <c r="B2748">
         <v>0.01491972728399649</v>
@@ -22351,7 +22351,7 @@
     </row>
     <row r="2750" spans="1:2">
       <c r="A2750">
-        <v>-0.006093594993464316</v>
+        <v>-0.006093594993464315</v>
       </c>
       <c r="B2750">
         <v>0.01164837476091973</v>
@@ -22359,7 +22359,7 @@
     </row>
     <row r="2751" spans="1:2">
       <c r="A2751">
-        <v>-0.006518739997496925</v>
+        <v>-0.006518739997496926</v>
       </c>
       <c r="B2751">
         <v>0.009159727707554133</v>
@@ -22391,7 +22391,7 @@
     </row>
     <row r="2755" spans="1:2">
       <c r="A2755">
-        <v>-0.009610136132884922</v>
+        <v>-0.009610136132884924</v>
       </c>
       <c r="B2755">
         <v>-0.0001123008246435298</v>
@@ -22439,7 +22439,7 @@
     </row>
     <row r="2761" spans="1:2">
       <c r="A2761">
-        <v>-0.009195153738212473</v>
+        <v>-0.009195153738212475</v>
       </c>
       <c r="B2761">
         <v>0.0003030643487873519</v>
@@ -22479,7 +22479,7 @@
     </row>
     <row r="2766" spans="1:2">
       <c r="A2766">
-        <v>-0.004110735141139115</v>
+        <v>-0.004110735141139114</v>
       </c>
       <c r="B2766">
         <v>0.01180762845973549</v>
@@ -22487,7 +22487,7 @@
     </row>
     <row r="2767" spans="1:2">
       <c r="A2767">
-        <v>-0.00274527586798681</v>
+        <v>-0.002745275867986811</v>
       </c>
       <c r="B2767">
         <v>0.01534105885696047</v>
@@ -22503,7 +22503,7 @@
     </row>
     <row r="2769" spans="1:2">
       <c r="A2769">
-        <v>-0.0007836469597644463</v>
+        <v>-0.0007836469597644465</v>
       </c>
       <c r="B2769">
         <v>0.01886024768334416</v>
@@ -22591,7 +22591,7 @@
     </row>
     <row r="2780" spans="1:2">
       <c r="A2780">
-        <v>0.006081385095684026</v>
+        <v>0.006081385095684027</v>
       </c>
       <c r="B2780">
         <v>0.01134484835108962</v>
@@ -22599,7 +22599,7 @@
     </row>
     <row r="2781" spans="1:2">
       <c r="A2781">
-        <v>0.006764147321953489</v>
+        <v>0.006764147321953488</v>
       </c>
       <c r="B2781">
         <v>0.008741315313010478</v>
@@ -22607,7 +22607,7 @@
     </row>
     <row r="2782" spans="1:2">
       <c r="A2782">
-        <v>0.007414082953695666</v>
+        <v>0.007414082953695665</v>
       </c>
       <c r="B2782">
         <v>0.009777497806108926</v>
@@ -22623,7 +22623,7 @@
     </row>
     <row r="2784" spans="1:2">
       <c r="A2784">
-        <v>0.008823872592976029</v>
+        <v>0.008823872592976028</v>
       </c>
       <c r="B2784">
         <v>0.008502729042275892</v>
@@ -22631,7 +22631,7 @@
     </row>
     <row r="2785" spans="1:2">
       <c r="A2785">
-        <v>0.009784463125546235</v>
+        <v>0.009784463125546233</v>
       </c>
       <c r="B2785">
         <v>0.005783122048679701</v>
@@ -22719,7 +22719,7 @@
     </row>
     <row r="2796" spans="1:2">
       <c r="A2796">
-        <v>0.02080509471398033</v>
+        <v>0.02080509471398034</v>
       </c>
       <c r="B2796">
         <v>-0.003190843959339773</v>
@@ -22735,7 +22735,7 @@
     </row>
     <row r="2798" spans="1:2">
       <c r="A2798">
-        <v>0.02337704951962315</v>
+        <v>0.02337704951962316</v>
       </c>
       <c r="B2798">
         <v>-0.002091763016659698</v>
@@ -22927,7 +22927,7 @@
     </row>
     <row r="2822" spans="1:2">
       <c r="A2822">
-        <v>0.03865636166727258</v>
+        <v>0.03865636166727259</v>
       </c>
       <c r="B2822">
         <v>-0.02015578128857376</v>
@@ -22975,7 +22975,7 @@
     </row>
     <row r="2828" spans="1:2">
       <c r="A2828">
-        <v>0.04547131798695889</v>
+        <v>0.04547131798695888</v>
       </c>
       <c r="B2828">
         <v>-0.0211187170769378</v>
@@ -22999,7 +22999,7 @@
     </row>
     <row r="2831" spans="1:2">
       <c r="A2831">
-        <v>0.04708086710813311</v>
+        <v>0.04708086710813312</v>
       </c>
       <c r="B2831">
         <v>-0.02702945146809954</v>
@@ -23023,7 +23023,7 @@
     </row>
     <row r="2834" spans="1:2">
       <c r="A2834">
-        <v>0.04790008210225171</v>
+        <v>0.04790008210225172</v>
       </c>
       <c r="B2834">
         <v>-0.03509730969031688</v>
@@ -23031,7 +23031,7 @@
     </row>
     <row r="2835" spans="1:2">
       <c r="A2835">
-        <v>0.04815375862340827</v>
+        <v>0.04815375862340826</v>
       </c>
       <c r="B2835">
         <v>-0.02953343395811903</v>
@@ -23039,7 +23039,7 @@
     </row>
     <row r="2836" spans="1:2">
       <c r="A2836">
-        <v>0.04834893509477576</v>
+        <v>0.04834893509477577</v>
       </c>
       <c r="B2836">
         <v>-0.03692768921033052</v>
@@ -23047,7 +23047,7 @@
     </row>
     <row r="2837" spans="1:2">
       <c r="A2837">
-        <v>0.0481640513882342</v>
+        <v>0.04816405138823421</v>
       </c>
       <c r="B2837">
         <v>-0.03119866271947469</v>
@@ -23055,7 +23055,7 @@
     </row>
     <row r="2838" spans="1:2">
       <c r="A2838">
-        <v>0.04849331600897567</v>
+        <v>0.04849331600897568</v>
       </c>
       <c r="B2838">
         <v>-0.03881486420898383</v>
@@ -23063,7 +23063,7 @@
     </row>
     <row r="2839" spans="1:2">
       <c r="A2839">
-        <v>0.04818916088955432</v>
+        <v>0.04818916088955431</v>
       </c>
       <c r="B2839">
         <v>-0.04685583904913893</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="2853" spans="1:2">
       <c r="A2853">
-        <v>0.05969393631381319</v>
+        <v>0.05969393631381318</v>
       </c>
       <c r="B2853">
         <v>-0.03778435640926725</v>
@@ -23231,7 +23231,7 @@
     </row>
     <row r="2860" spans="1:2">
       <c r="A2860">
-        <v>0.06241399148764961</v>
+        <v>0.06241399148764962</v>
       </c>
       <c r="B2860">
         <v>-0.04276347783893053</v>
@@ -23255,7 +23255,7 @@
     </row>
     <row r="2863" spans="1:2">
       <c r="A2863">
-        <v>0.06387854457093416</v>
+        <v>0.06387854457093417</v>
       </c>
       <c r="B2863">
         <v>-0.04988825620004267</v>
@@ -23271,7 +23271,7 @@
     </row>
     <row r="2865" spans="1:2">
       <c r="A2865">
-        <v>0.06487844045414365</v>
+        <v>0.06487844045414363</v>
       </c>
       <c r="B2865">
         <v>-0.04778826596787322</v>
@@ -23311,7 +23311,7 @@
     </row>
     <row r="2870" spans="1:2">
       <c r="A2870">
-        <v>0.06571437291738144</v>
+        <v>0.06571437291738146</v>
       </c>
       <c r="B2870">
         <v>-0.05570066054528366</v>
@@ -23359,7 +23359,7 @@
     </row>
     <row r="2876" spans="1:2">
       <c r="A2876">
-        <v>0.07600868460805352</v>
+        <v>0.07600868460805353</v>
       </c>
       <c r="B2876">
         <v>-0.05089395861254875</v>
@@ -23399,7 +23399,7 @@
     </row>
     <row r="2881" spans="1:2">
       <c r="A2881">
-        <v>0.08595765087458412</v>
+        <v>0.08595765087458411</v>
       </c>
       <c r="B2881">
         <v>-0.04093938391844532</v>
@@ -23439,7 +23439,7 @@
     </row>
     <row r="2886" spans="1:2">
       <c r="A2886">
-        <v>0.0922610801378332</v>
+        <v>0.09226108013783321</v>
       </c>
       <c r="B2886">
         <v>-0.04557683560964731</v>
@@ -23519,7 +23519,7 @@
     </row>
     <row r="2896" spans="1:2">
       <c r="A2896">
-        <v>0.08811580334270391</v>
+        <v>0.0881158033427039</v>
       </c>
       <c r="B2896">
         <v>-0.0938519411303167</v>
@@ -23527,7 +23527,7 @@
     </row>
     <row r="2897" spans="1:2">
       <c r="A2897">
-        <v>0.08783728553046155</v>
+        <v>0.08783728553046156</v>
       </c>
       <c r="B2897">
         <v>-0.1061251610459935</v>
@@ -23535,7 +23535,7 @@
     </row>
     <row r="2898" spans="1:2">
       <c r="A2898">
-        <v>0.08859419222301994</v>
+        <v>0.08859419222301992</v>
       </c>
       <c r="B2898">
         <v>-0.09149063137174984</v>
@@ -23679,7 +23679,7 @@
     </row>
     <row r="2916" spans="1:2">
       <c r="A2916">
-        <v>0.1195074377733041</v>
+        <v>0.1195074377733042</v>
       </c>
       <c r="B2916">
         <v>-0.06487735978640918</v>
@@ -23783,7 +23783,7 @@
     </row>
     <row r="2929" spans="1:2">
       <c r="A2929">
-        <v>0.1269700091885287</v>
+        <v>0.1269700091885288</v>
       </c>
       <c r="B2929">
         <v>-0.1003695996978333</v>
@@ -24047,7 +24047,7 @@
     </row>
     <row r="2962" spans="1:2">
       <c r="A2962">
-        <v>0.1315021021673878</v>
+        <v>0.1315021021673888</v>
       </c>
       <c r="B2962">
         <v>-0.1434981507788633</v>
@@ -24519,7 +24519,7 @@
     </row>
     <row r="3021" spans="1:2">
       <c r="A3021">
-        <v>0.05429095014544255</v>
+        <v>0.05429095014544256</v>
       </c>
       <c r="B3021">
         <v>-0.05600418991153866</v>
@@ -24727,7 +24727,7 @@
     </row>
     <row r="3047" spans="1:2">
       <c r="A3047">
-        <v>0.03850982832243188</v>
+        <v>0.03850982832243189</v>
       </c>
       <c r="B3047">
         <v>-0.05239941438949192</v>
@@ -25015,7 +25015,7 @@
     </row>
     <row r="3083" spans="1:2">
       <c r="A3083">
-        <v>0.02788704967092936</v>
+        <v>0.02788704967092935</v>
       </c>
       <c r="B3083">
         <v>-0.02112275107018746</v>
@@ -25095,7 +25095,7 @@
     </row>
     <row r="3093" spans="1:2">
       <c r="A3093">
-        <v>0.02757379931231402</v>
+        <v>0.02757379931231403</v>
       </c>
       <c r="B3093">
         <v>-0.01934549932893326</v>
@@ -25103,7 +25103,7 @@
     </row>
     <row r="3094" spans="1:2">
       <c r="A3094">
-        <v>0.02679895855794875</v>
+        <v>0.02679895855794874</v>
       </c>
       <c r="B3094">
         <v>-0.02324543789061728</v>
@@ -25207,7 +25207,7 @@
     </row>
     <row r="3107" spans="1:2">
       <c r="A3107">
-        <v>0.0221723265378241</v>
+        <v>0.02217232653782409</v>
       </c>
       <c r="B3107">
         <v>-0.02292109451847324</v>
@@ -25663,7 +25663,7 @@
     </row>
     <row r="3164" spans="1:2">
       <c r="A3164">
-        <v>0.03023451789108272</v>
+        <v>0.03023451789108273</v>
       </c>
       <c r="B3164">
         <v>-0.004334620376918785</v>
@@ -25703,7 +25703,7 @@
     </row>
     <row r="3169" spans="1:2">
       <c r="A3169">
-        <v>0.03520806992426662</v>
+        <v>0.03520806992426661</v>
       </c>
       <c r="B3169">
         <v>-0.002587355519597878</v>
@@ -25791,7 +25791,7 @@
     </row>
     <row r="3180" spans="1:2">
       <c r="A3180">
-        <v>0.03715386119388035</v>
+        <v>0.03715386119388036</v>
       </c>
       <c r="B3180">
         <v>-0.02984304727746778</v>
@@ -25839,7 +25839,7 @@
     </row>
     <row r="3186" spans="1:2">
       <c r="A3186">
-        <v>0.04198903447536835</v>
+        <v>0.04198903447536836</v>
       </c>
       <c r="B3186">
         <v>-0.03337699694556129</v>
@@ -25847,7 +25847,7 @@
     </row>
     <row r="3187" spans="1:2">
       <c r="A3187">
-        <v>0.04354389064120388</v>
+        <v>0.04354389064120389</v>
       </c>
       <c r="B3187">
         <v>-0.0369166384643389</v>
@@ -25887,7 +25887,7 @@
     </row>
     <row r="3192" spans="1:2">
       <c r="A3192">
-        <v>0.05004298005423055</v>
+        <v>0.05004298005423056</v>
       </c>
       <c r="B3192">
         <v>-0.02924458097883154</v>
@@ -26007,7 +26007,7 @@
     </row>
     <row r="3207" spans="1:2">
       <c r="A3207">
-        <v>0.05543550795337507</v>
+        <v>0.05543550795337508</v>
       </c>
       <c r="B3207">
         <v>-0.03989713052595967</v>
@@ -26087,7 +26087,7 @@
     </row>
     <row r="3217" spans="1:2">
       <c r="A3217">
-        <v>0.06194774011205406</v>
+        <v>0.06194774011205407</v>
       </c>
       <c r="B3217">
         <v>-0.05517635502189311</v>
@@ -26151,7 +26151,7 @@
     </row>
     <row r="3225" spans="1:2">
       <c r="A3225">
-        <v>0.06157996913122647</v>
+        <v>0.06157996913122648</v>
       </c>
       <c r="B3225">
         <v>-0.06553715994338649</v>
@@ -26263,7 +26263,7 @@
     </row>
     <row r="3239" spans="1:2">
       <c r="A3239">
-        <v>0.07193546448820923</v>
+        <v>0.07193546448820921</v>
       </c>
       <c r="B3239">
         <v>-0.05340131503975076</v>
@@ -26303,7 +26303,7 @@
     </row>
     <row r="3244" spans="1:2">
       <c r="A3244">
-        <v>0.07369348216490303</v>
+        <v>0.07369348216490301</v>
       </c>
       <c r="B3244">
         <v>-0.04994074750330668</v>
@@ -26383,7 +26383,7 @@
     </row>
     <row r="3254" spans="1:2">
       <c r="A3254">
-        <v>0.07533584635953322</v>
+        <v>0.07533584635953323</v>
       </c>
       <c r="B3254">
         <v>-0.07388488245743385</v>
@@ -26431,7 +26431,7 @@
     </row>
     <row r="3260" spans="1:2">
       <c r="A3260">
-        <v>0.07688644201102507</v>
+        <v>0.07688644201102506</v>
       </c>
       <c r="B3260">
         <v>-0.07822610328983792</v>
@@ -26439,7 +26439,7 @@
     </row>
     <row r="3261" spans="1:2">
       <c r="A3261">
-        <v>0.07755356469097474</v>
+        <v>0.07755356469097473</v>
       </c>
       <c r="B3261">
         <v>-0.05685871470237647</v>
@@ -26447,7 +26447,7 @@
     </row>
     <row r="3262" spans="1:2">
       <c r="A3262">
-        <v>0.07804067759611218</v>
+        <v>0.07804067759611219</v>
       </c>
       <c r="B3262">
         <v>-0.06813396386326964</v>
@@ -26455,7 +26455,7 @@
     </row>
     <row r="3263" spans="1:2">
       <c r="A3263">
-        <v>0.07777805349656383</v>
+        <v>0.07777805349656385</v>
       </c>
       <c r="B3263">
         <v>-0.07942360651635827</v>
@@ -26551,7 +26551,7 @@
     </row>
     <row r="3275" spans="1:2">
       <c r="A3275">
-        <v>0.08324292340944128</v>
+        <v>0.0832429234094413</v>
       </c>
       <c r="B3275">
         <v>-0.08003946065045442</v>
@@ -26559,7 +26559,7 @@
     </row>
     <row r="3276" spans="1:2">
       <c r="A3276">
-        <v>0.08384450083201919</v>
+        <v>0.08384450083201918</v>
       </c>
       <c r="B3276">
         <v>-0.05899203088462013</v>
@@ -26607,7 +26607,7 @@
     </row>
     <row r="3282" spans="1:2">
       <c r="A3282">
-        <v>0.0823358514698261</v>
+        <v>0.08233585146982611</v>
       </c>
       <c r="B3282">
         <v>-0.0692806715628933</v>
@@ -26623,7 +26623,7 @@
     </row>
     <row r="3284" spans="1:2">
       <c r="A3284">
-        <v>0.08177662455370706</v>
+        <v>0.08177662455370704</v>
       </c>
       <c r="B3284">
         <v>-0.09111612722180151</v>
@@ -26647,7 +26647,7 @@
     </row>
     <row r="3287" spans="1:2">
       <c r="A3287">
-        <v>0.0799519292810163</v>
+        <v>0.07995192928101631</v>
       </c>
       <c r="B3287">
         <v>-0.09499926381605306</v>
@@ -26663,7 +26663,7 @@
     </row>
     <row r="3289" spans="1:2">
       <c r="A3289">
-        <v>0.07891274811046435</v>
+        <v>0.07891274811046434</v>
       </c>
       <c r="B3289">
         <v>-0.08732489577350355</v>
@@ -26695,7 +26695,7 @@
     </row>
     <row r="3293" spans="1:2">
       <c r="A3293">
-        <v>0.0778060664356513</v>
+        <v>0.07780606643565131</v>
       </c>
       <c r="B3293">
         <v>-0.09275453265317068</v>
@@ -26711,7 +26711,7 @@
     </row>
     <row r="3295" spans="1:2">
       <c r="A3295">
-        <v>0.07735629577164807</v>
+        <v>0.07735629577164808</v>
       </c>
       <c r="B3295">
         <v>-0.08156968029316491</v>
@@ -26759,7 +26759,7 @@
     </row>
     <row r="3301" spans="1:2">
       <c r="A3301">
-        <v>0.0726092477845923</v>
+        <v>0.07260924778459228</v>
       </c>
       <c r="B3301">
         <v>-0.07816518314865029</v>
@@ -26895,7 +26895,7 @@
     </row>
     <row r="3318" spans="1:2">
       <c r="A3318">
-        <v>0.05695726299618651</v>
+        <v>0.05695726299618652</v>
       </c>
       <c r="B3318">
         <v>-0.06330114551088162</v>
@@ -26903,7 +26903,7 @@
     </row>
     <row r="3319" spans="1:2">
       <c r="A3319">
-        <v>0.05669274126034654</v>
+        <v>0.05669274126034653</v>
       </c>
       <c r="B3319">
         <v>-0.04669424235419184</v>
@@ -26943,7 +26943,7 @@
     </row>
     <row r="3324" spans="1:2">
       <c r="A3324">
-        <v>0.05405670709291527</v>
+        <v>0.05405670709291528</v>
       </c>
       <c r="B3324">
         <v>-0.04963033455612864</v>
@@ -27103,7 +27103,7 @@
     </row>
     <row r="3344" spans="1:2">
       <c r="A3344">
-        <v>0.03496432137520313</v>
+        <v>0.03496432137520312</v>
       </c>
       <c r="B3344">
         <v>-0.03544691786827769</v>
@@ -27127,7 +27127,7 @@
     </row>
     <row r="3347" spans="1:2">
       <c r="A3347">
-        <v>0.03318171105567305</v>
+        <v>0.03318171105567306</v>
       </c>
       <c r="B3347">
         <v>-0.04559457817443668</v>
@@ -27255,7 +27255,7 @@
     </row>
     <row r="3363" spans="1:2">
       <c r="A3363">
-        <v>0.02465961030643422</v>
+        <v>0.02465961030643423</v>
       </c>
       <c r="B3363">
         <v>-0.02994604131377354</v>
@@ -27543,7 +27543,7 @@
     </row>
     <row r="3399" spans="1:2">
       <c r="A3399">
-        <v>0.01248278098680224</v>
+        <v>0.01248278098680223</v>
       </c>
       <c r="B3399">
         <v>-0.01745876510298228</v>
@@ -27551,7 +27551,7 @@
     </row>
     <row r="3400" spans="1:2">
       <c r="A3400">
-        <v>0.01271627257835794</v>
+        <v>0.01271627257835793</v>
       </c>
       <c r="B3400">
         <v>-0.01590895772879364</v>
@@ -27607,7 +27607,7 @@
     </row>
     <row r="3407" spans="1:2">
       <c r="A3407">
-        <v>0.01149242887835475</v>
+        <v>0.01149242887835474</v>
       </c>
       <c r="B3407">
         <v>-0.009550797439673353</v>
@@ -27639,7 +27639,7 @@
     </row>
     <row r="3411" spans="1:2">
       <c r="A3411">
-        <v>0.006976893123947933</v>
+        <v>0.006976893123947934</v>
       </c>
       <c r="B3411">
         <v>-0.01595656943358925</v>
@@ -27647,7 +27647,7 @@
     </row>
     <row r="3412" spans="1:2">
       <c r="A3412">
-        <v>0.005651763135598297</v>
+        <v>0.005651763135598296</v>
       </c>
       <c r="B3412">
         <v>-0.01750684576384076</v>
@@ -27655,7 +27655,7 @@
     </row>
     <row r="3413" spans="1:2">
       <c r="A3413">
-        <v>0.004690146942026182</v>
+        <v>0.004690146942026183</v>
       </c>
       <c r="B3413">
         <v>-0.0192665595994832</v>
@@ -27975,7 +27975,7 @@
     </row>
     <row r="3453" spans="1:2">
       <c r="A3453">
-        <v>-0.02537860815782211</v>
+        <v>-0.02537860815782212</v>
       </c>
       <c r="B3453">
         <v>0.00495902964249062</v>
@@ -28071,7 +28071,7 @@
     </row>
     <row r="3465" spans="1:2">
       <c r="A3465">
-        <v>-0.03514069696507893</v>
+        <v>-0.03514069696507894</v>
       </c>
       <c r="B3465">
         <v>0.01006589158102411</v>
@@ -28143,7 +28143,7 @@
     </row>
     <row r="3474" spans="1:2">
       <c r="A3474">
-        <v>-0.03852907724108126</v>
+        <v>-0.03852907724108127</v>
       </c>
       <c r="B3474">
         <v>0.03031932297304341</v>
@@ -28183,7 +28183,7 @@
     </row>
     <row r="3479" spans="1:2">
       <c r="A3479">
-        <v>-0.0403970509688053</v>
+        <v>-0.04039705096880531</v>
       </c>
       <c r="B3479">
         <v>0.03273668530690932</v>
@@ -28231,7 +28231,7 @@
     </row>
     <row r="3485" spans="1:2">
       <c r="A3485">
-        <v>-0.04040793512341845</v>
+        <v>-0.04040793512341846</v>
       </c>
       <c r="B3485">
         <v>0.04022302063994276</v>
@@ -28239,7 +28239,7 @@
     </row>
     <row r="3486" spans="1:2">
       <c r="A3486">
-        <v>-0.04054313279469206</v>
+        <v>-0.04054313279469207</v>
       </c>
       <c r="B3486">
         <v>0.03325345609456321</v>
@@ -28247,7 +28247,7 @@
     </row>
     <row r="3487" spans="1:2">
       <c r="A3487">
-        <v>-0.0410493323705638</v>
+        <v>-0.04104933237056379</v>
       </c>
       <c r="B3487">
         <v>0.03660951085966069</v>
@@ -28271,7 +28271,7 @@
     </row>
     <row r="3490" spans="1:2">
       <c r="A3490">
-        <v>-0.04185990965729349</v>
+        <v>-0.04185990965729348</v>
       </c>
       <c r="B3490">
         <v>0.03607225495227206</v>
@@ -28335,7 +28335,7 @@
     </row>
     <row r="3498" spans="1:2">
       <c r="A3498">
-        <v>-0.04091954636583525</v>
+        <v>-0.04091954636583526</v>
       </c>
       <c r="B3498">
         <v>0.03661537752143085</v>
@@ -28399,7 +28399,7 @@
     </row>
     <row r="3506" spans="1:2">
       <c r="A3506">
-        <v>-0.03826759277781948</v>
+        <v>-0.03826759277781949</v>
       </c>
       <c r="B3506">
         <v>0.03769618356243143</v>
@@ -28407,7 +28407,7 @@
     </row>
     <row r="3507" spans="1:2">
       <c r="A3507">
-        <v>-0.03799948307641965</v>
+        <v>-0.03799948307641964</v>
       </c>
       <c r="B3507">
         <v>0.04049972690466808</v>
@@ -28647,7 +28647,7 @@
     </row>
     <row r="3537" spans="1:2">
       <c r="A3537">
-        <v>-0.0332865507501324</v>
+        <v>-0.03328655075013239</v>
       </c>
       <c r="B3537">
         <v>0.02681955774478384</v>
@@ -28671,7 +28671,7 @@
     </row>
     <row r="3540" spans="1:2">
       <c r="A3540">
-        <v>-0.03347826626660582</v>
+        <v>-0.03347826626660583</v>
       </c>
       <c r="B3540">
         <v>0.025811042873634</v>
@@ -28719,7 +28719,7 @@
     </row>
     <row r="3546" spans="1:2">
       <c r="A3546">
-        <v>-0.03401466067275659</v>
+        <v>-0.0340146606727566</v>
       </c>
       <c r="B3546">
         <v>0.02432942632215518</v>
@@ -28895,7 +28895,7 @@
     </row>
     <row r="3568" spans="1:2">
       <c r="A3568">
-        <v>-0.02924041186241052</v>
+        <v>-0.02924041186241051</v>
       </c>
       <c r="B3568">
         <v>0.02415702585465684</v>
@@ -28911,7 +28911,7 @@
     </row>
     <row r="3570" spans="1:2">
       <c r="A3570">
-        <v>-0.02874200774143607</v>
+        <v>-0.02874200774143606</v>
       </c>
       <c r="B3570">
         <v>0.02876344355448346</v>
@@ -28927,7 +28927,7 @@
     </row>
     <row r="3572" spans="1:2">
       <c r="A3572">
-        <v>-0.02842844147845866</v>
+        <v>-0.02842844147845865</v>
       </c>
       <c r="B3572">
         <v>0.02698883691749909</v>
@@ -29135,7 +29135,7 @@
     </row>
     <row r="3598" spans="1:2">
       <c r="A3598">
-        <v>-0.01812450158860469</v>
+        <v>-0.01812450158860468</v>
       </c>
       <c r="B3598">
         <v>0.02868815767160893</v>
@@ -29263,7 +29263,7 @@
     </row>
     <row r="3614" spans="1:2">
       <c r="A3614">
-        <v>-0.01768608067693313</v>
+        <v>-0.01768608067693312</v>
       </c>
       <c r="B3614">
         <v>0.009981627275485572</v>
@@ -29279,7 +29279,7 @@
     </row>
     <row r="3616" spans="1:2">
       <c r="A3616">
-        <v>-0.01723913352716724</v>
+        <v>-0.01723913352716723</v>
       </c>
       <c r="B3616">
         <v>0.01410898139771444</v>
@@ -29343,7 +29343,7 @@
     </row>
     <row r="3624" spans="1:2">
       <c r="A3624">
-        <v>-0.01417436346959275</v>
+        <v>-0.01417436346959276</v>
       </c>
       <c r="B3624">
         <v>0.02078327530844382</v>
@@ -29359,7 +29359,7 @@
     </row>
     <row r="3626" spans="1:2">
       <c r="A3626">
-        <v>-0.01315461939061493</v>
+        <v>-0.01315461939061494</v>
       </c>
       <c r="B3626">
         <v>0.02191660834340903</v>
@@ -29479,7 +29479,7 @@
     </row>
     <row r="3641" spans="1:2">
       <c r="A3641">
-        <v>-0.01774280009265861</v>
+        <v>-0.0177428000926586</v>
       </c>
       <c r="B3641">
         <v>0.006565735203814427</v>
@@ -29575,7 +29575,7 @@
     </row>
     <row r="3653" spans="1:2">
       <c r="A3653">
-        <v>-0.01248467746677485</v>
+        <v>-0.01248467746677484</v>
       </c>
       <c r="B3653">
         <v>0.0210436450811895</v>
@@ -29583,7 +29583,7 @@
     </row>
     <row r="3654" spans="1:2">
       <c r="A3654">
-        <v>-0.01154143898758262</v>
+        <v>-0.01154143898758261</v>
       </c>
       <c r="B3654">
         <v>0.02388128435671089</v>
@@ -29783,7 +29783,7 @@
     </row>
     <row r="3679" spans="1:2">
       <c r="A3679">
-        <v>-0.006830977360751252</v>
+        <v>-0.006830977360751251</v>
       </c>
       <c r="B3679">
         <v>0.01341817188578798</v>
@@ -29839,7 +29839,7 @@
     </row>
     <row r="3686" spans="1:2">
       <c r="A3686">
-        <v>-0.009006543003500456</v>
+        <v>-0.009006543003500457</v>
       </c>
       <c r="B3686">
         <v>0.002411568639975936</v>
@@ -29919,7 +29919,7 @@
     </row>
     <row r="3696" spans="1:2">
       <c r="A3696">
-        <v>-0.001750534301034502</v>
+        <v>-0.001750534301034503</v>
       </c>
       <c r="B3696">
         <v>0.01530647495665516</v>
@@ -30015,7 +30015,7 @@
     </row>
     <row r="3708" spans="1:2">
       <c r="A3708">
-        <v>-0.004273715078483391</v>
+        <v>-0.00427371507848339</v>
       </c>
       <c r="B3708">
         <v>-0.003554363675047245</v>
@@ -30119,7 +30119,7 @@
     </row>
     <row r="3721" spans="1:2">
       <c r="A3721">
-        <v>0.002466004971840486</v>
+        <v>0.002466004971840487</v>
       </c>
       <c r="B3721">
         <v>0.007593776570360422</v>
@@ -30287,7 +30287,7 @@
     </row>
     <row r="3742" spans="1:2">
       <c r="A3742">
-        <v>0.0059229039699669</v>
+        <v>0.005922903969966899</v>
       </c>
       <c r="B3742">
         <v>0.007582017548605879</v>
@@ -30319,7 +30319,7 @@
     </row>
     <row r="3746" spans="1:2">
       <c r="A3746">
-        <v>0.00634490847868261</v>
+        <v>0.006344908478682611</v>
       </c>
       <c r="B3746">
         <v>0.006021416232287802</v>
@@ -30343,7 +30343,7 @@
     </row>
     <row r="3749" spans="1:2">
       <c r="A3749">
-        <v>0.005307686362593626</v>
+        <v>0.005307686362593627</v>
       </c>
       <c r="B3749">
         <v>0.0008445195918240778</v>
@@ -30455,7 +30455,7 @@
     </row>
     <row r="3763" spans="1:2">
       <c r="A3763">
-        <v>0.004552948595598471</v>
+        <v>0.004552948595598472</v>
       </c>
       <c r="B3763">
         <v>-0.001854017255143336</v>
@@ -30463,7 +30463,7 @@
     </row>
     <row r="3764" spans="1:2">
       <c r="A3764">
-        <v>0.005375185046453142</v>
+        <v>0.005375185046453141</v>
       </c>
       <c r="B3764">
         <v>0.0002740610039508873</v>
@@ -30479,7 +30479,7 @@
     </row>
     <row r="3766" spans="1:2">
       <c r="A3766">
-        <v>0.006408346217530307</v>
+        <v>0.006408346217530306</v>
       </c>
       <c r="B3766">
         <v>0.003246363064959734</v>
@@ -30487,7 +30487,7 @@
     </row>
     <row r="3767" spans="1:2">
       <c r="A3767">
-        <v>0.006652933848494931</v>
+        <v>0.006652933848494932</v>
       </c>
       <c r="B3767">
         <v>0.003720021596952616</v>
@@ -30519,7 +30519,7 @@
     </row>
     <row r="3771" spans="1:2">
       <c r="A3771">
-        <v>0.005759117198834535</v>
+        <v>0.005759117198834534</v>
       </c>
       <c r="B3771">
         <v>0.001212629038537028</v>
@@ -30535,7 +30535,7 @@
     </row>
     <row r="3773" spans="1:2">
       <c r="A3773">
-        <v>0.004544594272787893</v>
+        <v>0.004544594272787894</v>
       </c>
       <c r="B3773">
         <v>-0.002025186223743258</v>
@@ -30615,7 +30615,7 @@
     </row>
     <row r="3783" spans="1:2">
       <c r="A3783">
-        <v>0.0002789135608689424</v>
+        <v>0.0002789135608689423</v>
       </c>
       <c r="B3783">
         <v>-0.008935794377014972</v>
@@ -30663,7 +30663,7 @@
     </row>
     <row r="3789" spans="1:2">
       <c r="A3789">
-        <v>0.004382522643991489</v>
+        <v>0.00438252264399149</v>
       </c>
       <c r="B3789">
         <v>0.004978521418264048</v>
@@ -30687,7 +30687,7 @@
     </row>
     <row r="3792" spans="1:2">
       <c r="A3792">
-        <v>0.005145245928755529</v>
+        <v>0.00514524592875553</v>
       </c>
       <c r="B3792">
         <v>0.007269445675891717</v>
@@ -30719,7 +30719,7 @@
     </row>
     <row r="3796" spans="1:2">
       <c r="A3796">
-        <v>0.003997453565192401</v>
+        <v>0.0039974535651924</v>
       </c>
       <c r="B3796">
         <v>0.003712404864744112</v>
@@ -30783,7 +30783,7 @@
     </row>
     <row r="3804" spans="1:2">
       <c r="A3804">
-        <v>-0.002614530598617628</v>
+        <v>-0.002614530598617627</v>
       </c>
       <c r="B3804">
         <v>-0.01327499196851756</v>
@@ -30831,7 +30831,7 @@
     </row>
     <row r="3810" spans="1:2">
       <c r="A3810">
-        <v>-0.002935605773278182</v>
+        <v>-0.002935605773278181</v>
       </c>
       <c r="B3810">
         <v>-0.009297094818917273</v>
@@ -30879,7 +30879,7 @@
     </row>
     <row r="3816" spans="1:2">
       <c r="A3816">
-        <v>0.0009753697447467166</v>
+        <v>0.0009753697447467165</v>
       </c>
       <c r="B3816">
         <v>0.005399538716718943</v>
@@ -31031,7 +31031,7 @@
     </row>
     <row r="3835" spans="1:2">
       <c r="A3835">
-        <v>-0.00532294523625376</v>
+        <v>-0.005322945236253761</v>
       </c>
       <c r="B3835">
         <v>-0.01184495377303385</v>
@@ -31111,7 +31111,7 @@
     </row>
     <row r="3845" spans="1:2">
       <c r="A3845">
-        <v>0.0004029665992704423</v>
+        <v>0.0004029665992704422</v>
       </c>
       <c r="B3845">
         <v>0.00864900252732248</v>
@@ -31183,7 +31183,7 @@
     </row>
     <row r="3854" spans="1:2">
       <c r="A3854">
-        <v>-0.0009119259953075757</v>
+        <v>-0.0009119259953075756</v>
       </c>
       <c r="B3854">
         <v>0.002614085761655005</v>
@@ -31391,7 +31391,7 @@
     </row>
     <row r="3880" spans="1:2">
       <c r="A3880">
-        <v>-0.002067319514503179</v>
+        <v>-0.00206731951450318</v>
       </c>
       <c r="B3880">
         <v>-0.005627661525458461</v>
@@ -31415,7 +31415,7 @@
     </row>
     <row r="3883" spans="1:2">
       <c r="A3883">
-        <v>-0.004241895317832538</v>
+        <v>-0.004241895317832539</v>
       </c>
       <c r="B3883">
         <v>-0.01092565851625338</v>
@@ -31431,7 +31431,7 @@
     </row>
     <row r="3885" spans="1:2">
       <c r="A3885">
-        <v>-0.004768864431396138</v>
+        <v>-0.004768864431396137</v>
       </c>
       <c r="B3885">
         <v>-0.01176883207801538</v>
@@ -31607,7 +31607,7 @@
     </row>
     <row r="3907" spans="1:2">
       <c r="A3907">
-        <v>-0.008906729280639347</v>
+        <v>-0.008906729280639349</v>
       </c>
       <c r="B3907">
         <v>-0.00213063058451235</v>
@@ -31655,7 +31655,7 @@
     </row>
     <row r="3913" spans="1:2">
       <c r="A3913">
-        <v>-0.01582188577270173</v>
+        <v>-0.01582188577270174</v>
       </c>
       <c r="B3913">
         <v>-0.0120896273015223</v>
@@ -31719,7 +31719,7 @@
     </row>
     <row r="3921" spans="1:2">
       <c r="A3921">
-        <v>-0.01885145144538484</v>
+        <v>-0.01885145144538483</v>
       </c>
       <c r="B3921">
         <v>0.003113044514030605</v>
@@ -31767,7 +31767,7 @@
     </row>
     <row r="3927" spans="1:2">
       <c r="A3927">
-        <v>-0.02050918111236254</v>
+        <v>-0.02050918111236255</v>
       </c>
       <c r="B3927">
         <v>0.01703019363565339</v>
@@ -31807,7 +31807,7 @@
     </row>
     <row r="3932" spans="1:2">
       <c r="A3932">
-        <v>-0.02321685662911033</v>
+        <v>-0.02321685662911032</v>
       </c>
       <c r="B3932">
         <v>0.0210287016087225</v>
@@ -31887,7 +31887,7 @@
     </row>
     <row r="3942" spans="1:2">
       <c r="A3942">
-        <v>-0.03068851302991972</v>
+        <v>-0.03068851302991973</v>
       </c>
       <c r="B3942">
         <v>0.019500862015283</v>
@@ -31967,7 +31967,7 @@
     </row>
     <row r="3952" spans="1:2">
       <c r="A3952">
-        <v>-0.03605592387037826</v>
+        <v>-0.03605592387037825</v>
       </c>
       <c r="B3952">
         <v>0.02536424036861007</v>
@@ -31975,7 +31975,7 @@
     </row>
     <row r="3953" spans="1:2">
       <c r="A3953">
-        <v>-0.03679924965463616</v>
+        <v>-0.03679924965463617</v>
       </c>
       <c r="B3953">
         <v>0.02038063524482414</v>
@@ -31991,7 +31991,7 @@
     </row>
     <row r="3955" spans="1:2">
       <c r="A3955">
-        <v>-0.03812744673060976</v>
+        <v>-0.03812744673060975</v>
       </c>
       <c r="B3955">
         <v>0.01871134882622982</v>
@@ -32055,7 +32055,7 @@
     </row>
     <row r="3963" spans="1:2">
       <c r="A3963">
-        <v>-0.04050087300224216</v>
+        <v>-0.04050087300224217</v>
       </c>
       <c r="B3963">
         <v>0.02894976656670778</v>
@@ -32063,7 +32063,7 @@
     </row>
     <row r="3964" spans="1:2">
       <c r="A3964">
-        <v>-0.04107054656224644</v>
+        <v>-0.04107054656224643</v>
       </c>
       <c r="B3964">
         <v>0.03319019274028889</v>
@@ -32111,7 +32111,7 @@
     </row>
     <row r="3970" spans="1:2">
       <c r="A3970">
-        <v>-0.04317291444167954</v>
+        <v>-0.04317291444167953</v>
       </c>
       <c r="B3970">
         <v>0.0297917500840974</v>
@@ -32135,7 +32135,7 @@
     </row>
     <row r="3973" spans="1:2">
       <c r="A3973">
-        <v>-0.04474257869873087</v>
+        <v>-0.04474257869873088</v>
       </c>
       <c r="B3973">
         <v>0.03227307848731709</v>
@@ -32143,7 +32143,7 @@
     </row>
     <row r="3974" spans="1:2">
       <c r="A3974">
-        <v>-0.04545546422819596</v>
+        <v>-0.04545546422819597</v>
       </c>
       <c r="B3974">
         <v>0.03638906982413292</v>
@@ -32167,7 +32167,7 @@
     </row>
     <row r="3977" spans="1:2">
       <c r="A3977">
-        <v>-0.04782653946402089</v>
+        <v>-0.0478265394640209</v>
       </c>
       <c r="B3977">
         <v>0.03656558585131098</v>
@@ -32191,7 +32191,7 @@
     </row>
     <row r="3980" spans="1:2">
       <c r="A3980">
-        <v>-0.04878146228015507</v>
+        <v>-0.04878146228015508</v>
       </c>
       <c r="B3980">
         <v>0.02862902302300263</v>
@@ -32279,7 +32279,7 @@
     </row>
     <row r="3991" spans="1:2">
       <c r="A3991">
-        <v>-0.05129804753837446</v>
+        <v>-0.05129804753837447</v>
       </c>
       <c r="B3991">
         <v>0.0446005136900478</v>
@@ -32335,7 +32335,7 @@
     </row>
     <row r="3998" spans="1:2">
       <c r="A3998">
-        <v>-0.05046709169198782</v>
+        <v>-0.05046709169198715</v>
       </c>
       <c r="B3998">
         <v>0.05005981100892765</v>
@@ -32351,7 +32351,7 @@
     </row>
     <row r="4000" spans="1:2">
       <c r="A4000">
-        <v>-0.05195703873419966</v>
+        <v>-0.05195703873419965</v>
       </c>
       <c r="B4000">
         <v>0.04389454302339235</v>
@@ -32423,7 +32423,7 @@
     </row>
     <row r="4009" spans="1:2">
       <c r="A4009">
-        <v>-0.06044863540278836</v>
+        <v>-0.06044863540278837</v>
       </c>
       <c r="B4009">
         <v>0.03999815412812335</v>
@@ -32447,7 +32447,7 @@
     </row>
     <row r="4012" spans="1:2">
       <c r="A4012">
-        <v>-0.06380959677738368</v>
+        <v>-0.06380959677738367</v>
       </c>
       <c r="B4012">
         <v>0.03956699128405283</v>
@@ -32479,7 +32479,7 @@
     </row>
     <row r="4016" spans="1:2">
       <c r="A4016">
-        <v>-0.06804247262789123</v>
+        <v>-0.06804247262789125</v>
       </c>
       <c r="B4016">
         <v>0.03218168729173776</v>
@@ -32623,7 +32623,7 @@
     </row>
     <row r="4034" spans="1:2">
       <c r="A4034">
-        <v>-0.07442503820687932</v>
+        <v>-0.07442503820687933</v>
       </c>
       <c r="B4034">
         <v>0.06332613579225477</v>
@@ -32695,7 +32695,7 @@
     </row>
     <row r="4043" spans="1:2">
       <c r="A4043">
-        <v>-0.08220320782019952</v>
+        <v>-0.08220320782019951</v>
       </c>
       <c r="B4043">
         <v>0.05229578018656689</v>
@@ -32711,7 +32711,7 @@
     </row>
     <row r="4045" spans="1:2">
       <c r="A4045">
-        <v>-0.08318951347585204</v>
+        <v>-0.08318951347585206</v>
       </c>
       <c r="B4045">
         <v>0.06984039035353629</v>
@@ -32727,7 +32727,7 @@
     </row>
     <row r="4047" spans="1:2">
       <c r="A4047">
-        <v>-0.08329965930515704</v>
+        <v>-0.08329965930515702</v>
       </c>
       <c r="B4047">
         <v>0.07038323474731722</v>
@@ -32743,7 +32743,7 @@
     </row>
     <row r="4049" spans="1:2">
       <c r="A4049">
-        <v>-0.0829372630236514</v>
+        <v>-0.08293726302365141</v>
       </c>
       <c r="B4049">
         <v>0.07142159612041166</v>
@@ -32767,7 +32767,7 @@
     </row>
     <row r="4052" spans="1:2">
       <c r="A4052">
-        <v>-0.08264564119992443</v>
+        <v>-0.08264564119992442</v>
       </c>
       <c r="B4052">
         <v>0.08048252859403338</v>
@@ -32791,7 +32791,7 @@
     </row>
     <row r="4055" spans="1:2">
       <c r="A4055">
-        <v>-0.08405300254966375</v>
+        <v>-0.08405300254966373</v>
       </c>
       <c r="B4055">
         <v>0.08345914423780609</v>
@@ -32807,7 +32807,7 @@
     </row>
     <row r="4057" spans="1:2">
       <c r="A4057">
-        <v>-0.08575362522926097</v>
+        <v>-0.08575362522926099</v>
       </c>
       <c r="B4057">
         <v>0.07757203730557372</v>
@@ -32831,7 +32831,7 @@
     </row>
     <row r="4060" spans="1:2">
       <c r="A4060">
-        <v>-0.08710127349837957</v>
+        <v>-0.08710127349837955</v>
       </c>
       <c r="B4060">
         <v>0.0789647863776306</v>
@@ -32919,7 +32919,7 @@
     </row>
     <row r="4071" spans="1:2">
       <c r="A4071">
-        <v>-0.08374243115687419</v>
+        <v>-0.08374243115687417</v>
       </c>
       <c r="B4071">
         <v>0.07298692364657633</v>
@@ -32999,7 +32999,7 @@
     </row>
     <row r="4081" spans="1:2">
       <c r="A4081">
-        <v>-0.08384766399033902</v>
+        <v>-0.08384766399033904</v>
       </c>
       <c r="B4081">
         <v>0.0603612758101173</v>
@@ -33031,7 +33031,7 @@
     </row>
     <row r="4085" spans="1:2">
       <c r="A4085">
-        <v>-0.08171628226517325</v>
+        <v>-0.08171628226517326</v>
       </c>
       <c r="B4085">
         <v>0.07050602409259632</v>
@@ -33063,7 +33063,7 @@
     </row>
     <row r="4089" spans="1:2">
       <c r="A4089">
-        <v>-0.07824005987160701</v>
+        <v>-0.07824005987160702</v>
       </c>
       <c r="B4089">
         <v>0.06788730836370149</v>
@@ -33103,7 +33103,7 @@
     </row>
     <row r="4094" spans="1:2">
       <c r="A4094">
-        <v>-0.0719592095311879</v>
+        <v>-0.07195920953118788</v>
       </c>
       <c r="B4094">
         <v>0.07490940324354778</v>
@@ -33239,7 +33239,7 @@
     </row>
     <row r="4111" spans="1:2">
       <c r="A4111">
-        <v>-0.06291407082706366</v>
+        <v>-0.06291407082706367</v>
       </c>
       <c r="B4111">
         <v>0.04787727281397736</v>
@@ -33263,7 +33263,7 @@
     </row>
     <row r="4114" spans="1:2">
       <c r="A4114">
-        <v>-0.06281633340651652</v>
+        <v>-0.0628163334065165</v>
       </c>
       <c r="B4114">
         <v>0.04530601091017861</v>
@@ -33327,7 +33327,7 @@
     </row>
     <row r="4122" spans="1:2">
       <c r="A4122">
-        <v>-0.05899374541874455</v>
+        <v>-0.05899374541874456</v>
       </c>
       <c r="B4122">
         <v>0.04824081950429715</v>
@@ -33463,7 +33463,7 @@
     </row>
     <row r="4139" spans="1:2">
       <c r="A4139">
-        <v>-0.05218616038805346</v>
+        <v>-0.05218616038805347</v>
       </c>
       <c r="B4139">
         <v>0.04485256702910512</v>
@@ -33487,7 +33487,7 @@
     </row>
     <row r="4142" spans="1:2">
       <c r="A4142">
-        <v>-0.05310269172848797</v>
+        <v>-0.05310269172848796</v>
       </c>
       <c r="B4142">
         <v>0.04229324803641976</v>
@@ -33583,7 +33583,7 @@
     </row>
     <row r="4154" spans="1:2">
       <c r="A4154">
-        <v>-0.05117183319581352</v>
+        <v>-0.05117183319581353</v>
       </c>
       <c r="B4154">
         <v>0.03782092026373984</v>
@@ -33807,7 +33807,7 @@
     </row>
     <row r="4182" spans="1:2">
       <c r="A4182">
-        <v>-0.05387568833503058</v>
+        <v>-0.05387568833503057</v>
       </c>
       <c r="B4182">
         <v>0.04379171889596023</v>
@@ -34439,7 +34439,7 @@
     </row>
     <row r="4261" spans="1:2">
       <c r="A4261">
-        <v>-0.1053755125398448</v>
+        <v>-0.1053755125398449</v>
       </c>
       <c r="B4261">
         <v>0.1253821465188714</v>
@@ -34575,7 +34575,7 @@
     </row>
     <row r="4278" spans="1:2">
       <c r="A4278">
-        <v>-0.1106492762079423</v>
+        <v>-0.1106492762079424</v>
       </c>
       <c r="B4278">
         <v>0.08241288028404758</v>
@@ -34647,7 +34647,7 @@
     </row>
     <row r="4287" spans="1:2">
       <c r="A4287">
-        <v>-0.09778154659817312</v>
+        <v>-0.09778154659817311</v>
       </c>
       <c r="B4287">
         <v>0.1080781448522958</v>
@@ -34655,7 +34655,7 @@
     </row>
     <row r="4288" spans="1:2">
       <c r="A4288">
-        <v>-0.09607749765697257</v>
+        <v>-0.09607749765697259</v>
       </c>
       <c r="B4288">
         <v>0.09832483639974399</v>
@@ -34663,7 +34663,7 @@
     </row>
     <row r="4289" spans="1:2">
       <c r="A4289">
-        <v>-0.09422606840155273</v>
+        <v>-0.09422606840155275</v>
       </c>
       <c r="B4289">
         <v>0.1074647343843651</v>
@@ -34703,7 +34703,7 @@
     </row>
     <row r="4294" spans="1:2">
       <c r="A4294">
-        <v>-0.08851108448928652</v>
+        <v>-0.08851108448928449</v>
       </c>
       <c r="B4294">
         <v>0.1024907915692661</v>
@@ -34887,7 +34887,7 @@
     </row>
     <row r="4317" spans="1:2">
       <c r="A4317">
-        <v>-0.06980447864066844</v>
+        <v>-0.06980447864066842</v>
       </c>
       <c r="B4317">
         <v>0.06238285334057903</v>
@@ -34895,7 +34895,7 @@
     </row>
     <row r="4318" spans="1:2">
       <c r="A4318">
-        <v>-0.06857163565648899</v>
+        <v>-0.06857163565648901</v>
       </c>
       <c r="B4318">
         <v>0.05425077399104827</v>
@@ -35023,7 +35023,7 @@
     </row>
     <row r="4334" spans="1:2">
       <c r="A4334">
-        <v>-0.05871193531283363</v>
+        <v>-0.05871193531283362</v>
       </c>
       <c r="B4334">
         <v>0.06005530963601169</v>
@@ -35047,7 +35047,7 @@
     </row>
     <row r="4337" spans="1:2">
       <c r="A4337">
-        <v>-0.05664418083695182</v>
+        <v>-0.05664418083695181</v>
       </c>
       <c r="B4337">
         <v>0.06256711298636608</v>
@@ -35063,7 +35063,7 @@
     </row>
     <row r="4339" spans="1:2">
       <c r="A4339">
-        <v>-0.05594178023140002</v>
+        <v>-0.05594178023140003</v>
       </c>
       <c r="B4339">
         <v>0.05847116902949301</v>
@@ -35079,7 +35079,7 @@
     </row>
     <row r="4341" spans="1:2">
       <c r="A4341">
-        <v>-0.05544615211318206</v>
+        <v>-0.05544615211318205</v>
       </c>
       <c r="B4341">
         <v>0.05357664904129189</v>
@@ -35143,7 +35143,7 @@
     </row>
     <row r="4349" spans="1:2">
       <c r="A4349">
-        <v>-0.05545890412473203</v>
+        <v>-0.05545890412473204</v>
       </c>
       <c r="B4349">
         <v>0.04150986108778953</v>
@@ -35151,7 +35151,7 @@
     </row>
     <row r="4350" spans="1:2">
       <c r="A4350">
-        <v>-0.0548411757277411</v>
+        <v>-0.05484117572774109</v>
       </c>
       <c r="B4350">
         <v>0.04518256009556465</v>
@@ -35303,7 +35303,7 @@
     </row>
     <row r="4369" spans="1:2">
       <c r="A4369">
-        <v>-0.04316085177772565</v>
+        <v>-0.04316085177772566</v>
       </c>
       <c r="B4369">
         <v>0.03970304181443662</v>
@@ -35391,7 +35391,7 @@
     </row>
     <row r="4380" spans="1:2">
       <c r="A4380">
-        <v>-0.03599790725090954</v>
+        <v>-0.03599790725090953</v>
       </c>
       <c r="B4380">
         <v>0.0387583762713799</v>
@@ -35423,7 +35423,7 @@
     </row>
     <row r="4384" spans="1:2">
       <c r="A4384">
-        <v>-0.03235570493002912</v>
+        <v>-0.03235570493002869</v>
       </c>
       <c r="B4384">
         <v>0.0371431458311946</v>
@@ -35671,7 +35671,7 @@
     </row>
     <row r="4415" spans="1:2">
       <c r="A4415">
-        <v>-0.01164861354464225</v>
+        <v>-0.01164861354464224</v>
       </c>
       <c r="B4415">
         <v>0.01928973856456873</v>
@@ -35871,7 +35871,7 @@
     </row>
     <row r="4440" spans="1:2">
       <c r="A4440">
-        <v>8.609503227057637E-06</v>
+        <v>8.609503227057638E-06</v>
       </c>
       <c r="B4440">
         <v>0.004230063559987229</v>
@@ -35887,7 +35887,7 @@
     </row>
     <row r="4442" spans="1:2">
       <c r="A4442">
-        <v>-0.0007095807604650928</v>
+        <v>-0.0007095807604650927</v>
       </c>
       <c r="B4442">
         <v>-0.0007167848720217584</v>
@@ -35983,7 +35983,7 @@
     </row>
     <row r="4454" spans="1:2">
       <c r="A4454">
-        <v>0.0008320076757984502</v>
+        <v>0.0008320076757984501</v>
       </c>
       <c r="B4454">
         <v>-0.002242662167732501</v>
@@ -36135,7 +36135,7 @@
     </row>
     <row r="4473" spans="1:2">
       <c r="A4473">
-        <v>-0.0008731753050794114</v>
+        <v>-0.0008731753050794113</v>
       </c>
       <c r="B4473">
         <v>-0.0090084336981473</v>
@@ -36215,7 +36215,7 @@
     </row>
     <row r="4483" spans="1:2">
       <c r="A4483">
-        <v>0.00467269580973209</v>
+        <v>0.004672695809732089</v>
       </c>
       <c r="B4483">
         <v>0.008309057609213522</v>
@@ -36247,7 +36247,7 @@
     </row>
     <row r="4487" spans="1:2">
       <c r="A4487">
-        <v>0.004017699685637014</v>
+        <v>0.004017699685637013</v>
       </c>
       <c r="B4487">
         <v>0.005726403003962321</v>
@@ -36287,7 +36287,7 @@
     </row>
     <row r="4492" spans="1:2">
       <c r="A4492">
-        <v>0.0003436285479559909</v>
+        <v>0.0003436285479559908</v>
       </c>
       <c r="B4492">
         <v>-0.004868784001720083</v>
@@ -36303,7 +36303,7 @@
     </row>
     <row r="4494" spans="1:2">
       <c r="A4494">
-        <v>-0.001028400291442441</v>
+        <v>-0.00102840029144244</v>
       </c>
       <c r="B4494">
         <v>-0.008275191590203956</v>
@@ -36367,7 +36367,7 @@
     </row>
     <row r="4502" spans="1:2">
       <c r="A4502">
-        <v>0.0007480041176692114</v>
+        <v>0.0007480041176692113</v>
       </c>
       <c r="B4502">
         <v>-0.0006234587476927622</v>
@@ -36495,7 +36495,7 @@
     </row>
     <row r="4518" spans="1:2">
       <c r="A4518">
-        <v>-0.001675889846518504</v>
+        <v>-0.001675889846518505</v>
       </c>
       <c r="B4518">
         <v>-0.008243521140081977</v>
@@ -36511,7 +36511,7 @@
     </row>
     <row r="4520" spans="1:2">
       <c r="A4520">
-        <v>-0.002125021306005895</v>
+        <v>-0.002125021306005894</v>
       </c>
       <c r="B4520">
         <v>-0.008932355447333062</v>
@@ -36519,7 +36519,7 @@
     </row>
     <row r="4521" spans="1:2">
       <c r="A4521">
-        <v>-0.002152562020485056</v>
+        <v>-0.002152562020485057</v>
       </c>
       <c r="B4521">
         <v>-0.008638975909772917</v>
@@ -36567,7 +36567,7 @@
     </row>
     <row r="4527" spans="1:2">
       <c r="A4527">
-        <v>0.0008248068029854518</v>
+        <v>0.0008248068029854519</v>
       </c>
       <c r="B4527">
         <v>0.001539757091326255</v>
@@ -36727,7 +36727,7 @@
     </row>
     <row r="4547" spans="1:2">
       <c r="A4547">
-        <v>-0.002221496919760399</v>
+        <v>-0.002221496919760398</v>
       </c>
       <c r="B4547">
         <v>-0.006416224039492935</v>
@@ -36775,7 +36775,7 @@
     </row>
     <row r="4553" spans="1:2">
       <c r="A4553">
-        <v>0.002028922886845335</v>
+        <v>0.002028922886845334</v>
       </c>
       <c r="B4553">
         <v>0.006499339265699344</v>
@@ -36799,7 +36799,7 @@
     </row>
     <row r="4556" spans="1:2">
       <c r="A4556">
-        <v>0.002812983406080378</v>
+        <v>0.002812983406080379</v>
       </c>
       <c r="B4556">
         <v>0.008339276501322157</v>
@@ -36807,7 +36807,7 @@
     </row>
     <row r="4557" spans="1:2">
       <c r="A4557">
-        <v>0.002793094183742432</v>
+        <v>0.002793094183742431</v>
       </c>
       <c r="B4557">
         <v>0.008046984283593961</v>
@@ -36839,7 +36839,7 @@
     </row>
     <row r="4561" spans="1:2">
       <c r="A4561">
-        <v>0.001072382648222909</v>
+        <v>0.001072382648222908</v>
       </c>
       <c r="B4561">
         <v>0.002338431608601255</v>
@@ -36919,7 +36919,7 @@
     </row>
     <row r="4571" spans="1:2">
       <c r="A4571">
-        <v>-0.002728014746621123</v>
+        <v>-0.002728014746621122</v>
       </c>
       <c r="B4571">
         <v>-0.006339744899455102</v>
@@ -36943,7 +36943,7 @@
     </row>
     <row r="4574" spans="1:2">
       <c r="A4574">
-        <v>-0.0009487186618992258</v>
+        <v>-0.0009487186618992257</v>
       </c>
       <c r="B4574">
         <v>-0.0005041777997782937</v>
@@ -37071,7 +37071,7 @@
     </row>
     <row r="4590" spans="1:2">
       <c r="A4590">
-        <v>-0.003138581702492665</v>
+        <v>-0.003138581702492666</v>
       </c>
       <c r="B4590">
         <v>-0.008031915908348619</v>
@@ -37119,7 +37119,7 @@
     </row>
     <row r="4596" spans="1:2">
       <c r="A4596">
-        <v>-0.002448775323007724</v>
+        <v>-0.002448775323007725</v>
       </c>
       <c r="B4596">
         <v>-0.004360565460227228</v>
@@ -37127,7 +37127,7 @@
     </row>
     <row r="4597" spans="1:2">
       <c r="A4597">
-        <v>-0.001933898021602592</v>
+        <v>-0.001933898021602591</v>
       </c>
       <c r="B4597">
         <v>-0.002638436369844843</v>
@@ -37279,7 +37279,7 @@
     </row>
     <row r="4616" spans="1:2">
       <c r="A4616">
-        <v>-0.003447613658466726</v>
+        <v>-0.003447613658466725</v>
       </c>
       <c r="B4616">
         <v>-0.008437282830668025</v>
@@ -37391,7 +37391,7 @@
     </row>
     <row r="4630" spans="1:2">
       <c r="A4630">
-        <v>0.002383389118077096</v>
+        <v>0.002383389118077097</v>
       </c>
       <c r="B4630">
         <v>0.007577502431511896</v>
@@ -37439,7 +37439,7 @@
     </row>
     <row r="4636" spans="1:2">
       <c r="A4636">
-        <v>-0.00123036605188933</v>
+        <v>-0.001230366051889329</v>
       </c>
       <c r="B4636">
         <v>-0.004069782575627734</v>
@@ -37463,7 +37463,7 @@
     </row>
     <row r="4639" spans="1:2">
       <c r="A4639">
-        <v>-0.002799345393732417</v>
+        <v>-0.002799345393732416</v>
       </c>
       <c r="B4639">
         <v>-0.008266867445337223</v>
@@ -37527,7 +37527,7 @@
     </row>
     <row r="4647" spans="1:2">
       <c r="A4647">
-        <v>0.0006497290647028574</v>
+        <v>0.0006497290647028573</v>
       </c>
       <c r="B4647">
         <v>0.002437730961972306</v>
@@ -37543,7 +37543,7 @@
     </row>
     <row r="4649" spans="1:2">
       <c r="A4649">
-        <v>0.002582074368612203</v>
+        <v>0.002582074368612202</v>
       </c>
       <c r="B4649">
         <v>0.007405059596346852</v>
@@ -37719,7 +37719,7 @@
     </row>
     <row r="4671" spans="1:2">
       <c r="A4671">
-        <v>0.0007372521088836244</v>
+        <v>0.0007372521088836243</v>
       </c>
       <c r="B4671">
         <v>0.0003373912450914673</v>
@@ -37839,7 +37839,7 @@
     </row>
     <row r="4686" spans="1:2">
       <c r="A4686">
-        <v>6.610519537996888E-05</v>
+        <v>6.610519537996887E-05</v>
       </c>
       <c r="B4686">
         <v>-0.005646583212005396</v>
@@ -37863,7 +37863,7 @@
     </row>
     <row r="4689" spans="1:2">
       <c r="A4689">
-        <v>-0.002598171826452503</v>
+        <v>-0.002598171826452502</v>
       </c>
       <c r="B4689">
         <v>-0.01226642487847096</v>
@@ -37879,7 +37879,7 @@
     </row>
     <row r="4691" spans="1:2">
       <c r="A4691">
-        <v>-0.003267650719887146</v>
+        <v>-0.003267650719887147</v>
       </c>
       <c r="B4691">
         <v>-0.01312047164977681</v>
@@ -37975,7 +37975,7 @@
     </row>
     <row r="4703" spans="1:2">
       <c r="A4703">
-        <v>0.00245838698893904</v>
+        <v>0.002458386988939039</v>
       </c>
       <c r="B4703">
         <v>0.009366717579742279</v>
@@ -38127,7 +38127,7 @@
     </row>
     <row r="4722" spans="1:2">
       <c r="A4722">
-        <v>-0.005258050546317924</v>
+        <v>-0.005258050546317925</v>
       </c>
       <c r="B4722">
         <v>-0.01006478234160735</v>
@@ -38183,7 +38183,7 @@
     </row>
     <row r="4729" spans="1:2">
       <c r="A4729">
-        <v>-0.0008646748830565728</v>
+        <v>-0.0008646748830565729</v>
       </c>
       <c r="B4729">
         <v>0.005996834258137351</v>
@@ -38191,7 +38191,7 @@
     </row>
     <row r="4730" spans="1:2">
       <c r="A4730">
-        <v>5.918682786664749E-06</v>
+        <v>5.918682786664748E-06</v>
       </c>
       <c r="B4730">
         <v>0.00848041506317232</v>
@@ -38207,7 +38207,7 @@
     </row>
     <row r="4732" spans="1:2">
       <c r="A4732">
-        <v>0.0008503802274624543</v>
+        <v>0.0008503802274624542</v>
       </c>
       <c r="B4732">
         <v>0.01078175309671359</v>
@@ -38335,7 +38335,7 @@
     </row>
     <row r="4748" spans="1:2">
       <c r="A4748">
-        <v>-0.003340526448905268</v>
+        <v>-0.003340526448905267</v>
       </c>
       <c r="B4748">
         <v>-0.003748640991120933</v>
@@ -38407,7 +38407,7 @@
     </row>
     <row r="4757" spans="1:2">
       <c r="A4757">
-        <v>0.003088890435105356</v>
+        <v>0.003088890435105355</v>
       </c>
       <c r="B4757">
         <v>0.01081500629713883</v>
@@ -38439,7 +38439,7 @@
     </row>
     <row r="4761" spans="1:2">
       <c r="A4761">
-        <v>0.00257815618091185</v>
+        <v>0.002578156180911851</v>
       </c>
       <c r="B4761">
         <v>0.006487011102688456</v>
@@ -38503,7 +38503,7 @@
     </row>
     <row r="4769" spans="1:2">
       <c r="A4769">
-        <v>-0.002955868044743321</v>
+        <v>-0.002955868044743322</v>
       </c>
       <c r="B4769">
         <v>-0.01147352407678071</v>
@@ -38687,7 +38687,7 @@
     </row>
     <row r="4792" spans="1:2">
       <c r="A4792">
-        <v>0.0009548206977831193</v>
+        <v>0.0009548206977831192</v>
       </c>
       <c r="B4792">
         <v>0.0008647039260076816</v>
@@ -38703,7 +38703,7 @@
     </row>
     <row r="4794" spans="1:2">
       <c r="A4794">
-        <v>-0.0007556345532279507</v>
+        <v>-0.0007556345532279506</v>
       </c>
       <c r="B4794">
         <v>-0.004246729091781809</v>
@@ -38831,7 +38831,7 @@
     </row>
     <row r="4810" spans="1:2">
       <c r="A4810">
-        <v>0.001838136466384829</v>
+        <v>0.00183813646638483</v>
       </c>
       <c r="B4810">
         <v>0.008885935262988198</v>
@@ -38895,7 +38895,7 @@
     </row>
     <row r="4818" spans="1:2">
       <c r="A4818">
-        <v>0.001469307391307893</v>
+        <v>0.001469307391307894</v>
       </c>
       <c r="B4818">
         <v>0.00533260233020405</v>
@@ -38919,7 +38919,7 @@
     </row>
     <row r="4821" spans="1:2">
       <c r="A4821">
-        <v>-0.0007551379750541139</v>
+        <v>-0.000755137975054114</v>
       </c>
       <c r="B4821">
         <v>-0.001801495269632358</v>
@@ -38943,7 +38943,7 @@
     </row>
     <row r="4824" spans="1:2">
       <c r="A4824">
-        <v>-0.003637440586519466</v>
+        <v>-0.003637440586519467</v>
       </c>
       <c r="B4824">
         <v>-0.009670580755804181</v>
@@ -38967,7 +38967,7 @@
     </row>
     <row r="4827" spans="1:2">
       <c r="A4827">
-        <v>-0.004809838298573635</v>
+        <v>-0.004809838298573636</v>
       </c>
       <c r="B4827">
         <v>-0.01194050635365373</v>
@@ -38999,7 +38999,7 @@
     </row>
     <row r="4831" spans="1:2">
       <c r="A4831">
-        <v>-0.004185172277765475</v>
+        <v>-0.004185172277765474</v>
       </c>
       <c r="B4831">
         <v>-0.007899889288868422</v>
@@ -39095,7 +39095,7 @@
     </row>
     <row r="4843" spans="1:2">
       <c r="A4843">
-        <v>0.001581865815268367</v>
+        <v>0.001581865815268366</v>
       </c>
       <c r="B4843">
         <v>0.009707313828899888</v>
@@ -39231,7 +39231,7 @@
     </row>
     <row r="4860" spans="1:2">
       <c r="A4860">
-        <v>0.0005891360395578363</v>
+        <v>0.0005891360395578362</v>
       </c>
       <c r="B4860">
         <v>0.003973518679611487</v>
@@ -39287,7 +39287,7 @@
     </row>
     <row r="4867" spans="1:2">
       <c r="A4867">
-        <v>0.003844623730174056</v>
+        <v>0.003844623730174057</v>
       </c>
       <c r="B4867">
         <v>0.009139940670270796</v>
@@ -39383,7 +39383,7 @@
     </row>
     <row r="4879" spans="1:2">
       <c r="A4879">
-        <v>-0.003079451505828109</v>
+        <v>-0.00307945150582811</v>
       </c>
       <c r="B4879">
         <v>-0.01278225574974501</v>
@@ -39391,7 +39391,7 @@
     </row>
     <row r="4880" spans="1:2">
       <c r="A4880">
-        <v>-0.003185056272058369</v>
+        <v>-0.00318505627205837</v>
       </c>
       <c r="B4880">
         <v>-0.012549896554924</v>
@@ -39399,7 +39399,7 @@
     </row>
     <row r="4881" spans="1:2">
       <c r="A4881">
-        <v>-0.003007595156690503</v>
+        <v>-0.003007595156690502</v>
       </c>
       <c r="B4881">
         <v>-0.01151027204524224</v>
@@ -39447,7 +39447,7 @@
     </row>
     <row r="4887" spans="1:2">
       <c r="A4887">
-        <v>-7.093805900232927E-05</v>
+        <v>-7.093805900232929E-05</v>
       </c>
       <c r="B4887">
         <v>0.0002939306105935735</v>
@@ -39455,7 +39455,7 @@
     </row>
     <row r="4888" spans="1:2">
       <c r="A4888">
-        <v>0.0006828593664010284</v>
+        <v>0.0006828593664010285</v>
       </c>
       <c r="B4888">
         <v>0.002775357536916712</v>
@@ -39703,7 +39703,7 @@
     </row>
     <row r="4919" spans="1:2">
       <c r="A4919">
-        <v>-0.0009495395245155818</v>
+        <v>-0.0009495395245155817</v>
       </c>
       <c r="B4919">
         <v>0.004565801686165383</v>
@@ -39799,7 +39799,7 @@
     </row>
     <row r="4931" spans="1:2">
       <c r="A4931">
-        <v>-0.007305091493531327</v>
+        <v>-0.007305091493531326</v>
       </c>
       <c r="B4931">
         <v>0.0008237959393833094</v>
@@ -39895,7 +39895,7 @@
     </row>
     <row r="4943" spans="1:2">
       <c r="A4943">
-        <v>-0.02946401115693532</v>
+        <v>-0.02946401115693533</v>
       </c>
       <c r="B4943">
         <v>-0.01554699998002773</v>
@@ -39927,7 +39927,7 @@
     </row>
     <row r="4947" spans="1:2">
       <c r="A4947">
-        <v>-0.03303099676781542</v>
+        <v>-0.03303099676781543</v>
       </c>
       <c r="B4947">
         <v>0.006558046499678394</v>
@@ -39959,7 +39959,7 @@
     </row>
     <row r="4951" spans="1:2">
       <c r="A4951">
-        <v>-0.0346695206598025</v>
+        <v>-0.03466952065980249</v>
       </c>
       <c r="B4951">
         <v>0.02001934264390348</v>
@@ -39999,7 +39999,7 @@
     </row>
     <row r="4956" spans="1:2">
       <c r="A4956">
-        <v>-0.04109990815734048</v>
+        <v>-0.04109990815734047</v>
       </c>
       <c r="B4956">
         <v>0.02975161570127227</v>
@@ -40039,7 +40039,7 @@
     </row>
     <row r="4961" spans="1:2">
       <c r="A4961">
-        <v>-0.05367060725096065</v>
+        <v>-0.05367060725096066</v>
       </c>
       <c r="B4961">
         <v>0.02242746028473874</v>
@@ -40095,7 +40095,7 @@
     </row>
     <row r="4968" spans="1:2">
       <c r="A4968">
-        <v>-0.06590266051954813</v>
+        <v>-0.06590266051954814</v>
       </c>
       <c r="B4968">
         <v>0.04282724852750297</v>
@@ -40135,7 +40135,7 @@
     </row>
     <row r="4973" spans="1:2">
       <c r="A4973">
-        <v>-0.07368554787056612</v>
+        <v>-0.07368554787056611</v>
       </c>
       <c r="B4973">
         <v>0.05160346611142197</v>
@@ -40151,7 +40151,7 @@
     </row>
     <row r="4975" spans="1:2">
       <c r="A4975">
-        <v>-0.07625920772761861</v>
+        <v>-0.0762592077276186</v>
       </c>
       <c r="B4975">
         <v>0.05286245037843207</v>
@@ -40167,7 +40167,7 @@
     </row>
     <row r="4977" spans="1:2">
       <c r="A4977">
-        <v>-0.07883780930327033</v>
+        <v>-0.07883780930327032</v>
       </c>
       <c r="B4977">
         <v>0.05310121098880671</v>
@@ -40239,7 +40239,7 @@
     </row>
     <row r="4986" spans="1:2">
       <c r="A4986">
-        <v>-0.09427949200172699</v>
+        <v>-0.09427949200172697</v>
       </c>
       <c r="B4986">
         <v>0.04880941020730711</v>
@@ -40463,7 +40463,7 @@
     </row>
     <row r="5014" spans="1:2">
       <c r="A5014">
-        <v>-0.1266914231336442</v>
+        <v>-0.1266914231336443</v>
       </c>
       <c r="B5014">
         <v>0.09252175057431877</v>
@@ -40775,7 +40775,7 @@
     </row>
     <row r="5053" spans="1:2">
       <c r="A5053">
-        <v>-0.09891890487177632</v>
+        <v>-0.09891890487177631</v>
       </c>
       <c r="B5053">
         <v>0.09754498742215789</v>
@@ -40783,7 +40783,7 @@
     </row>
     <row r="5054" spans="1:2">
       <c r="A5054">
-        <v>-0.09609902081275279</v>
+        <v>-0.0960990208127528</v>
       </c>
       <c r="B5054">
         <v>0.103924852561581</v>
@@ -40799,7 +40799,7 @@
     </row>
     <row r="5056" spans="1:2">
       <c r="A5056">
-        <v>-0.09056075219730153</v>
+        <v>-0.09056075219730152</v>
       </c>
       <c r="B5056">
         <v>0.1023096016736109</v>
@@ -40951,7 +40951,7 @@
     </row>
     <row r="5075" spans="1:2">
       <c r="A5075">
-        <v>-0.05844062295841622</v>
+        <v>-0.05844062295841623</v>
       </c>
       <c r="B5075">
         <v>0.0514117652867605</v>
@@ -40967,7 +40967,7 @@
     </row>
     <row r="5077" spans="1:2">
       <c r="A5077">
-        <v>-0.05442615174262226</v>
+        <v>-0.05442615174262227</v>
       </c>
       <c r="B5077">
         <v>0.05709732116842581</v>
@@ -41007,7 +41007,7 @@
     </row>
     <row r="5082" spans="1:2">
       <c r="A5082">
-        <v>-0.04491616958720289</v>
+        <v>-0.0449161695872029</v>
       </c>
       <c r="B5082">
         <v>0.05539789548314289</v>
@@ -41023,7 +41023,7 @@
     </row>
     <row r="5084" spans="1:2">
       <c r="A5084">
-        <v>-0.04103059019579532</v>
+        <v>-0.04103059019579531</v>
       </c>
       <c r="B5084">
         <v>0.05416814333821396</v>
@@ -41047,7 +41047,7 @@
     </row>
     <row r="5087" spans="1:2">
       <c r="A5087">
-        <v>-0.03456759139565897</v>
+        <v>-0.03456759139565847</v>
       </c>
       <c r="B5087">
         <v>0.05616301997941298</v>
@@ -41079,7 +41079,7 @@
     </row>
     <row r="5091" spans="1:2">
       <c r="A5091">
-        <v>-0.02601706660353897</v>
+        <v>-0.02601706660353896</v>
       </c>
       <c r="B5091">
         <v>0.05482941933927066</v>
@@ -41183,7 +41183,7 @@
     </row>
     <row r="5104" spans="1:2">
       <c r="A5104">
-        <v>-0.01600622457028014</v>
+        <v>-0.01600622457028013</v>
       </c>
       <c r="B5104">
         <v>0.01251514302849666</v>
@@ -41215,7 +41215,7 @@
     </row>
     <row r="5108" spans="1:2">
       <c r="A5108">
-        <v>-0.01373877900424917</v>
+        <v>-0.01373877900424918</v>
       </c>
       <c r="B5108">
         <v>0.003369349708749692</v>
@@ -41287,7 +41287,7 @@
     </row>
     <row r="5117" spans="1:2">
       <c r="A5117">
-        <v>-0.004732067589320771</v>
+        <v>-0.00473206758932077</v>
       </c>
       <c r="B5117">
         <v>0.0112974644694912</v>
@@ -41343,7 +41343,7 @@
     </row>
     <row r="5124" spans="1:2">
       <c r="A5124">
-        <v>-0.0008215893341391213</v>
+        <v>-0.0008215893341391212</v>
       </c>
       <c r="B5124">
         <v>0.01317332985695252</v>
@@ -41431,7 +41431,7 @@
     </row>
     <row r="5135" spans="1:2">
       <c r="A5135">
-        <v>-0.005064641816398461</v>
+        <v>-0.005064641816398462</v>
       </c>
       <c r="B5135">
         <v>-0.001235073125953168</v>
@@ -41527,7 +41527,7 @@
     </row>
     <row r="5147" spans="1:2">
       <c r="A5147">
-        <v>-0.003058828078349445</v>
+        <v>-0.003058828078349475</v>
       </c>
       <c r="B5147">
         <v>0.01235323183261361</v>
@@ -41535,7 +41535,7 @@
     </row>
     <row r="5148" spans="1:2">
       <c r="A5148">
-        <v>-0.003744690534918282</v>
+        <v>-0.003744690534918278</v>
       </c>
       <c r="B5148">
         <v>0.009589882303909114</v>
@@ -41751,7 +41751,7 @@
     </row>
     <row r="5175" spans="1:2">
       <c r="A5175">
-        <v>-0.009472884563990296</v>
+        <v>-0.009472884563990298</v>
       </c>
       <c r="B5175">
         <v>0.01676746608759805</v>
@@ -41879,7 +41879,7 @@
     </row>
     <row r="5191" spans="1:2">
       <c r="A5191">
-        <v>-0.01278492450721981</v>
+        <v>-0.01278492450721982</v>
       </c>
       <c r="B5191">
         <v>0.00930250593698867</v>
@@ -41943,7 +41943,7 @@
     </row>
     <row r="5199" spans="1:2">
       <c r="A5199">
-        <v>-0.006384822195875184</v>
+        <v>-0.006384822195875185</v>
       </c>
       <c r="B5199">
         <v>0.02288546467487995</v>
@@ -42023,7 +42023,7 @@
     </row>
     <row r="5209" spans="1:2">
       <c r="A5209">
-        <v>-0.009437519445155196</v>
+        <v>-0.009437519445155194</v>
       </c>
       <c r="B5209">
         <v>0.003698507126525197</v>
@@ -42119,7 +42119,7 @@
     </row>
     <row r="5221" spans="1:2">
       <c r="A5221">
-        <v>-0.004411582627282041</v>
+        <v>-0.004411582627288252</v>
       </c>
       <c r="B5221">
         <v>0.01153839783212041</v>
@@ -42159,7 +42159,7 @@
     </row>
     <row r="5226" spans="1:2">
       <c r="A5226">
-        <v>-0.00323532091572908</v>
+        <v>-0.003235320915729081</v>
       </c>
       <c r="B5226">
         <v>0.01206259942630128</v>
@@ -42511,7 +42511,7 @@
     </row>
     <row r="5270" spans="1:2">
       <c r="A5270">
-        <v>-0.009491672259256782</v>
+        <v>-0.009491672259256784</v>
       </c>
       <c r="B5270">
         <v>-0.003845109786725143</v>
@@ -42583,7 +42583,7 @@
     </row>
     <row r="5279" spans="1:2">
       <c r="A5279">
-        <v>-0.003195513214481338</v>
+        <v>-0.003195513214481337</v>
       </c>
       <c r="B5279">
         <v>0.01611903946944349</v>
@@ -42863,7 +42863,7 @@
     </row>
     <row r="5314" spans="1:2">
       <c r="A5314">
-        <v>-0.0004308403302648811</v>
+        <v>-0.0004308403302648812</v>
       </c>
       <c r="B5314">
         <v>0.01845778734338888</v>
@@ -42895,7 +42895,7 @@
     </row>
     <row r="5318" spans="1:2">
       <c r="A5318">
-        <v>-0.0005566580995630119</v>
+        <v>-0.0005566580995630118</v>
       </c>
       <c r="B5318">
         <v>0.01472116675660962</v>
@@ -42927,7 +42927,7 @@
     </row>
     <row r="5322" spans="1:2">
       <c r="A5322">
-        <v>-0.002598133607681526</v>
+        <v>-0.002598133607681525</v>
       </c>
       <c r="B5322">
         <v>0.005838293435505459</v>
@@ -43535,7 +43535,7 @@
     </row>
     <row r="5398" spans="1:2">
       <c r="A5398">
-        <v>0.002991964883132335</v>
+        <v>0.002991964883132336</v>
       </c>
       <c r="B5398">
         <v>0.006972739956969676</v>
@@ -43543,7 +43543,7 @@
     </row>
     <row r="5399" spans="1:2">
       <c r="A5399">
-        <v>0.002991070130990874</v>
+        <v>0.002991070130990873</v>
       </c>
       <c r="B5399">
         <v>0.00687202548215371</v>
@@ -43551,7 +43551,7 @@
     </row>
     <row r="5400" spans="1:2">
       <c r="A5400">
-        <v>0.002964587357700961</v>
+        <v>0.002964587357700962</v>
       </c>
       <c r="B5400">
         <v>0.00681115421275047</v>
@@ -43591,7 +43591,7 @@
     </row>
     <row r="5405" spans="1:2">
       <c r="A5405">
-        <v>0.0004707930099996801</v>
+        <v>0.00047079300999968</v>
       </c>
       <c r="B5405">
         <v>-0.0005672251605184364</v>
@@ -43639,7 +43639,7 @@
     </row>
     <row r="5411" spans="1:2">
       <c r="A5411">
-        <v>-0.002850510787868203</v>
+        <v>-0.00285051078786657</v>
       </c>
       <c r="B5411">
         <v>-0.008706580310858136</v>
@@ -43735,7 +43735,7 @@
     </row>
     <row r="5423" spans="1:2">
       <c r="A5423">
-        <v>0.00428252327943472</v>
+        <v>0.004282523279434719</v>
       </c>
       <c r="B5423">
         <v>0.01077781996559812</v>
@@ -43775,7 +43775,7 @@
     </row>
     <row r="5428" spans="1:2">
       <c r="A5428">
-        <v>0.003821852711772081</v>
+        <v>0.003821852711772082</v>
       </c>
       <c r="B5428">
         <v>0.005836187096931233</v>
@@ -43919,7 +43919,7 @@
     </row>
     <row r="5446" spans="1:2">
       <c r="A5446">
-        <v>0.005973213825136426</v>
+        <v>0.005973213825136427</v>
       </c>
       <c r="B5446">
         <v>0.0052570648755208</v>
@@ -44047,7 +44047,7 @@
     </row>
     <row r="5462" spans="1:2">
       <c r="A5462">
-        <v>0.000874923200533056</v>
+        <v>0.0008749232005330559</v>
       </c>
       <c r="B5462">
         <v>-0.01214823418972566</v>
@@ -44143,7 +44143,7 @@
     </row>
     <row r="5474" spans="1:2">
       <c r="A5474">
-        <v>0.005892215243777706</v>
+        <v>0.005892215243777705</v>
       </c>
       <c r="B5474">
         <v>0.002308966438982818</v>
@@ -44159,7 +44159,7 @@
     </row>
     <row r="5476" spans="1:2">
       <c r="A5476">
-        <v>0.005154804969584944</v>
+        <v>0.005154804969584943</v>
       </c>
       <c r="B5476">
         <v>-9.214436314852748E-06</v>
@@ -44175,7 +44175,7 @@
     </row>
     <row r="5478" spans="1:2">
       <c r="A5478">
-        <v>0.004056202290523425</v>
+        <v>0.004056202290523424</v>
       </c>
       <c r="B5478">
         <v>-0.003189819540168504</v>
@@ -44463,7 +44463,7 @@
     </row>
     <row r="5514" spans="1:2">
       <c r="A5514">
-        <v>0.003304159577251813</v>
+        <v>0.003304159577251814</v>
       </c>
       <c r="B5514">
         <v>-0.009511056446282584</v>
@@ -44479,7 +44479,7 @@
     </row>
     <row r="5516" spans="1:2">
       <c r="A5516">
-        <v>0.005102132380501787</v>
+        <v>0.005102132380501786</v>
       </c>
       <c r="B5516">
         <v>-0.004243287562448739</v>
@@ -44495,7 +44495,7 @@
     </row>
     <row r="5518" spans="1:2">
       <c r="A5518">
-        <v>0.007362777973223262</v>
+        <v>0.007362777973223261</v>
       </c>
       <c r="B5518">
         <v>0.001867818938860566</v>
@@ -44583,7 +44583,7 @@
     </row>
     <row r="5529" spans="1:2">
       <c r="A5529">
-        <v>0.008674451544547726</v>
+        <v>0.008674451544547728</v>
       </c>
       <c r="B5529">
         <v>-0.002323982246077883</v>
@@ -44775,7 +44775,7 @@
     </row>
     <row r="5553" spans="1:2">
       <c r="A5553">
-        <v>0.01350200539058402</v>
+        <v>0.01350200539058403</v>
       </c>
       <c r="B5553">
         <v>0.004463863871930318</v>
@@ -44919,7 +44919,7 @@
     </row>
     <row r="5571" spans="1:2">
       <c r="A5571">
-        <v>0.007015868548156542</v>
+        <v>0.007015868548156543</v>
       </c>
       <c r="B5571">
         <v>-0.02109969740019846</v>
@@ -45079,7 +45079,7 @@
     </row>
     <row r="5591" spans="1:2">
       <c r="A5591">
-        <v>0.01288354076251099</v>
+        <v>0.012883540762511</v>
       </c>
       <c r="B5591">
         <v>-0.005591626047452891</v>
@@ -45127,7 +45127,7 @@
     </row>
     <row r="5597" spans="1:2">
       <c r="A5597">
-        <v>0.009775346509722872</v>
+        <v>0.009775346509722871</v>
       </c>
       <c r="B5597">
         <v>-0.01719624885688331</v>
@@ -45143,7 +45143,7 @@
     </row>
     <row r="5599" spans="1:2">
       <c r="A5599">
-        <v>0.008355553032951733</v>
+        <v>0.008355553032951735</v>
       </c>
       <c r="B5599">
         <v>-0.02039381343191504</v>
@@ -45159,7 +45159,7 @@
     </row>
     <row r="5601" spans="1:2">
       <c r="A5601">
-        <v>0.007445600785796128</v>
+        <v>0.007445600785796129</v>
       </c>
       <c r="B5601">
         <v>-0.02164384235341199</v>
@@ -45167,7 +45167,7 @@
     </row>
     <row r="5602" spans="1:2">
       <c r="A5602">
-        <v>0.007260609275452653</v>
+        <v>0.007260609275452654</v>
       </c>
       <c r="B5602">
         <v>-0.02251792628988669</v>
@@ -45399,7 +45399,7 @@
     </row>
     <row r="5631" spans="1:2">
       <c r="A5631">
-        <v>0.005883520898825996</v>
+        <v>0.005883520898825997</v>
       </c>
       <c r="B5631">
         <v>-0.01929696950158055</v>
@@ -45647,7 +45647,7 @@
     </row>
     <row r="5662" spans="1:2">
       <c r="A5662">
-        <v>0.0068980431885232</v>
+        <v>0.006898043188523201</v>
       </c>
       <c r="B5662">
         <v>-0.0233572917749667</v>
@@ -46343,7 +46343,7 @@
     </row>
     <row r="5749" spans="1:2">
       <c r="A5749">
-        <v>0.008935648931184332</v>
+        <v>0.00893564893118433</v>
       </c>
       <c r="B5749">
         <v>-0.01225342240963556</v>
@@ -46351,7 +46351,7 @@
     </row>
     <row r="5750" spans="1:2">
       <c r="A5750">
-        <v>0.008206276398227252</v>
+        <v>0.008206276398227253</v>
       </c>
       <c r="B5750">
         <v>-0.01237775708073396</v>
@@ -46439,7 +46439,7 @@
     </row>
     <row r="5761" spans="1:2">
       <c r="A5761">
-        <v>0.009877041062865331</v>
+        <v>0.009877041062865329</v>
       </c>
       <c r="B5761">
         <v>-0.001867181141538055</v>
@@ -46567,7 +46567,7 @@
     </row>
     <row r="5777" spans="1:2">
       <c r="A5777">
-        <v>0.008819641532394378</v>
+        <v>0.008819641532394376</v>
       </c>
       <c r="B5777">
         <v>-0.01173547401253972</v>
@@ -46623,7 +46623,7 @@
     </row>
     <row r="5784" spans="1:2">
       <c r="A5784">
-        <v>0.005513582851720704</v>
+        <v>0.005513582851720705</v>
       </c>
       <c r="B5784">
         <v>-0.01809949154412527</v>
@@ -46639,7 +46639,7 @@
     </row>
     <row r="5786" spans="1:2">
       <c r="A5786">
-        <v>0.006144349987628216</v>
+        <v>0.006144349987628215</v>
       </c>
       <c r="B5786">
         <v>-0.01467011316039457</v>
@@ -46647,7 +46647,7 @@
     </row>
     <row r="5787" spans="1:2">
       <c r="A5787">
-        <v>0.006693603982070959</v>
+        <v>0.006693603982070958</v>
       </c>
       <c r="B5787">
         <v>-0.01276731205677617</v>
@@ -46759,7 +46759,7 @@
     </row>
     <row r="5801" spans="1:2">
       <c r="A5801">
-        <v>0.009645299050926894</v>
+        <v>0.009645299050926896</v>
       </c>
       <c r="B5801">
         <v>-0.001079469567827118</v>
@@ -46767,7 +46767,7 @@
     </row>
     <row r="5802" spans="1:2">
       <c r="A5802">
-        <v>0.0089944391807616</v>
+        <v>0.008994439180761598</v>
       </c>
       <c r="B5802">
         <v>-0.003121165995442432</v>
@@ -46791,7 +46791,7 @@
     </row>
     <row r="5805" spans="1:2">
       <c r="A5805">
-        <v>0.006241221186420044</v>
+        <v>0.006241221186420045</v>
       </c>
       <c r="B5805">
         <v>-0.00971918558259377</v>
@@ -46799,7 +46799,7 @@
     </row>
     <row r="5806" spans="1:2">
       <c r="A5806">
-        <v>0.005229850483504262</v>
+        <v>0.005229850483504261</v>
       </c>
       <c r="B5806">
         <v>-0.01226940703569657</v>
@@ -46855,7 +46855,7 @@
     </row>
     <row r="5813" spans="1:2">
       <c r="A5813">
-        <v>0.0006906219771911908</v>
+        <v>0.0006906219771911907</v>
       </c>
       <c r="B5813">
         <v>-0.01741712819641084</v>
@@ -46927,7 +46927,7 @@
     </row>
     <row r="5822" spans="1:2">
       <c r="A5822">
-        <v>0.004018839169966827</v>
+        <v>0.004018839169966826</v>
       </c>
       <c r="B5822">
         <v>0.003358434387132903</v>
@@ -46975,7 +46975,7 @@
     </row>
     <row r="5828" spans="1:2">
       <c r="A5828">
-        <v>0.002620961605404258</v>
+        <v>0.002620961605404257</v>
       </c>
       <c r="B5828">
         <v>0.003577796261038824</v>
@@ -47071,7 +47071,7 @@
     </row>
     <row r="5840" spans="1:2">
       <c r="A5840">
-        <v>-0.006003090699278032</v>
+        <v>-0.006003090699278031</v>
       </c>
       <c r="B5840">
         <v>-0.009981965081195199</v>
@@ -47095,7 +47095,7 @@
     </row>
     <row r="5843" spans="1:2">
       <c r="A5843">
-        <v>-0.00537113903343631</v>
+        <v>-0.005371139033436311</v>
       </c>
       <c r="B5843">
         <v>-0.00469191967101068</v>
@@ -47103,7 +47103,7 @@
     </row>
     <row r="5844" spans="1:2">
       <c r="A5844">
-        <v>-0.005062556863681351</v>
+        <v>-0.005062556863681352</v>
       </c>
       <c r="B5844">
         <v>-0.002539764938814582</v>
@@ -47111,7 +47111,7 @@
     </row>
     <row r="5845" spans="1:2">
       <c r="A5845">
-        <v>-0.004519120093153967</v>
+        <v>-0.004519120093153968</v>
       </c>
       <c r="B5845">
         <v>-0.0004315498217906111</v>
@@ -47119,7 +47119,7 @@
     </row>
     <row r="5846" spans="1:2">
       <c r="A5846">
-        <v>-0.004037675402403457</v>
+        <v>-0.004037675402403456</v>
       </c>
       <c r="B5846">
         <v>0.002046496967968547</v>
@@ -47191,7 +47191,7 @@
     </row>
     <row r="5855" spans="1:2">
       <c r="A5855">
-        <v>-0.0006957243899426706</v>
+        <v>-0.0006957243899426705</v>
       </c>
       <c r="B5855">
         <v>0.01245569456543816</v>
@@ -47271,7 +47271,7 @@
     </row>
     <row r="5865" spans="1:2">
       <c r="A5865">
-        <v>-0.009658170295561718</v>
+        <v>-0.00965817029556172</v>
       </c>
       <c r="B5865">
         <v>-0.01655116025737291</v>
@@ -47335,7 +47335,7 @@
     </row>
     <row r="5873" spans="1:2">
       <c r="A5873">
-        <v>-0.0162880489599703</v>
+        <v>-0.01628804895997031</v>
       </c>
       <c r="B5873">
         <v>-0.02473521321959993</v>
@@ -47495,7 +47495,7 @@
     </row>
     <row r="5893" spans="1:2">
       <c r="A5893">
-        <v>-0.03235523061068975</v>
+        <v>-0.03235523061068974</v>
       </c>
       <c r="B5893">
         <v>0.01125920427700988</v>
@@ -48183,7 +48183,7 @@
     </row>
     <row r="5979" spans="1:2">
       <c r="A5979">
-        <v>-0.07251673425712812</v>
+        <v>-0.07251673425712811</v>
       </c>
       <c r="B5979">
         <v>0.1098729318012981</v>
@@ -48199,7 +48199,7 @@
     </row>
     <row r="5981" spans="1:2">
       <c r="A5981">
-        <v>-0.0724385589694013</v>
+        <v>-0.07243855896940128</v>
       </c>
       <c r="B5981">
         <v>0.07728744836303569</v>
@@ -48255,7 +48255,7 @@
     </row>
     <row r="5988" spans="1:2">
       <c r="A5988">
-        <v>-0.06700329710033978</v>
+        <v>-0.06700329710033977</v>
       </c>
       <c r="B5988">
         <v>0.05622866359782019</v>
@@ -48287,7 +48287,7 @@
     </row>
     <row r="5992" spans="1:2">
       <c r="A5992">
-        <v>-0.06624367896112709</v>
+        <v>-0.06624367896112708</v>
       </c>
       <c r="B5992">
         <v>0.04585702753554965</v>
@@ -48319,7 +48319,7 @@
     </row>
     <row r="5996" spans="1:2">
       <c r="A5996">
-        <v>-0.06374024913165086</v>
+        <v>-0.06374024913165087</v>
       </c>
       <c r="B5996">
         <v>0.04001934330400925</v>
@@ -48359,7 +48359,7 @@
     </row>
     <row r="6001" spans="1:2">
       <c r="A6001">
-        <v>-0.05554996417528237</v>
+        <v>-0.05554996417528238</v>
       </c>
       <c r="B6001">
         <v>0.05674255699507658</v>
@@ -48375,7 +48375,7 @@
     </row>
     <row r="6003" spans="1:2">
       <c r="A6003">
-        <v>-0.05132292259564263</v>
+        <v>-0.05132292259564262</v>
       </c>
       <c r="B6003">
         <v>0.07967520710016096</v>
@@ -48495,7 +48495,7 @@
     </row>
     <row r="6018" spans="1:2">
       <c r="A6018">
-        <v>-0.03792894116741309</v>
+        <v>-0.03792894116741308</v>
       </c>
       <c r="B6018">
         <v>0.04139521091163934</v>
@@ -48559,7 +48559,7 @@
     </row>
     <row r="6026" spans="1:2">
       <c r="A6026">
-        <v>-0.03278852660473501</v>
+        <v>-0.03278852660473502</v>
       </c>
       <c r="B6026">
         <v>0.02869346558451324</v>
@@ -48663,7 +48663,7 @@
     </row>
     <row r="6039" spans="1:2">
       <c r="A6039">
-        <v>-0.02077020729621791</v>
+        <v>-0.0207702072962179</v>
       </c>
       <c r="B6039">
         <v>0.03311937723748715</v>
@@ -48735,7 +48735,7 @@
     </row>
     <row r="6048" spans="1:2">
       <c r="A6048">
-        <v>-0.01351141407489246</v>
+        <v>-0.01351141407489245</v>
       </c>
       <c r="B6048">
         <v>0.03241260540885271</v>
@@ -48743,7 +48743,7 @@
     </row>
     <row r="6049" spans="1:2">
       <c r="A6049">
-        <v>-0.0128898954009895</v>
+        <v>-0.01288989540098949</v>
       </c>
       <c r="B6049">
         <v>0.02384574094938019</v>
@@ -48871,7 +48871,7 @@
     </row>
     <row r="6065" spans="1:2">
       <c r="A6065">
-        <v>-0.004346500721871981</v>
+        <v>-0.00434650072187198</v>
       </c>
       <c r="B6065">
         <v>0.01020810806628347</v>
@@ -48879,7 +48879,7 @@
     </row>
     <row r="6066" spans="1:2">
       <c r="A6066">
-        <v>-0.004207276870749498</v>
+        <v>-0.004207276870749497</v>
       </c>
       <c r="B6066">
         <v>0.01060172844987228</v>
@@ -48935,7 +48935,7 @@
     </row>
     <row r="6073" spans="1:2">
       <c r="A6073">
-        <v>-0.0007483427984585874</v>
+        <v>-0.0007483427984585875</v>
       </c>
       <c r="B6073">
         <v>0.006940928204278496</v>
@@ -48943,7 +48943,7 @@
     </row>
     <row r="6074" spans="1:2">
       <c r="A6074">
-        <v>-0.0003169382980865781</v>
+        <v>-0.000316938298086578</v>
       </c>
       <c r="B6074">
         <v>0.008488392106529741</v>
@@ -48959,7 +48959,7 @@
     </row>
     <row r="6076" spans="1:2">
       <c r="A6076">
-        <v>0.0009418281073020961</v>
+        <v>0.0009418281073020959</v>
       </c>
       <c r="B6076">
         <v>0.01202839514549758</v>
@@ -49055,7 +49055,7 @@
     </row>
     <row r="6088" spans="1:2">
       <c r="A6088">
-        <v>0.001075979729745901</v>
+        <v>0.001075979729745902</v>
       </c>
       <c r="B6088">
         <v>-0.002008787556279756</v>
@@ -49111,7 +49111,7 @@
     </row>
     <row r="6095" spans="1:2">
       <c r="A6095">
-        <v>0.002409487711774788</v>
+        <v>0.002409487711774787</v>
       </c>
       <c r="B6095">
         <v>0.004535036406888793</v>
@@ -49135,7 +49135,7 @@
     </row>
     <row r="6098" spans="1:2">
       <c r="A6098">
-        <v>0.003076803505501259</v>
+        <v>0.003076803505501258</v>
       </c>
       <c r="B6098">
         <v>0.005266908448541496</v>
@@ -49231,7 +49231,7 @@
     </row>
     <row r="6110" spans="1:2">
       <c r="A6110">
-        <v>-0.0005546110396115571</v>
+        <v>-0.000554611039611557</v>
       </c>
       <c r="B6110">
         <v>-0.003275528102685055</v>
@@ -49351,7 +49351,7 @@
     </row>
     <row r="6125" spans="1:2">
       <c r="A6125">
-        <v>0.0007217614026411545</v>
+        <v>0.0007217614026411544</v>
       </c>
       <c r="B6125">
         <v>0.004525990242779443</v>
@@ -49375,7 +49375,7 @@
     </row>
     <row r="6128" spans="1:2">
       <c r="A6128">
-        <v>-0.001970038944478641</v>
+        <v>-0.001970038944478642</v>
       </c>
       <c r="B6128">
         <v>-0.002403035106874896</v>
@@ -49463,7 +49463,7 @@
     </row>
     <row r="6139" spans="1:2">
       <c r="A6139">
-        <v>-0.004879040409859046</v>
+        <v>-0.004879040409859047</v>
       </c>
       <c r="B6139">
         <v>-0.001372899255716042</v>
@@ -49479,7 +49479,7 @@
     </row>
     <row r="6141" spans="1:2">
       <c r="A6141">
-        <v>-0.004904557138000344</v>
+        <v>-0.004904557138000345</v>
       </c>
       <c r="B6141">
         <v>-0.0007793217795599716</v>
@@ -49503,7 +49503,7 @@
     </row>
     <row r="6144" spans="1:2">
       <c r="A6144">
-        <v>-0.004781297574080652</v>
+        <v>-0.004781297574080653</v>
       </c>
       <c r="B6144">
         <v>0.001773338695446824</v>
@@ -49519,7 +49519,7 @@
     </row>
     <row r="6146" spans="1:2">
       <c r="A6146">
-        <v>-0.004491213889398178</v>
+        <v>-0.004491213889398179</v>
       </c>
       <c r="B6146">
         <v>0.002562919930205965</v>
@@ -49535,7 +49535,7 @@
     </row>
     <row r="6148" spans="1:2">
       <c r="A6148">
-        <v>-0.004185723452429919</v>
+        <v>-0.00418572345242992</v>
       </c>
       <c r="B6148">
         <v>0.006495767958101695</v>
@@ -49575,7 +49575,7 @@
     </row>
     <row r="6153" spans="1:2">
       <c r="A6153">
-        <v>-0.002755233468911059</v>
+        <v>-0.002755233468911058</v>
       </c>
       <c r="B6153">
         <v>0.01001530302028275</v>
@@ -49615,7 +49615,7 @@
     </row>
     <row r="6158" spans="1:2">
       <c r="A6158">
-        <v>-0.004190376139704821</v>
+        <v>-0.00419037613970482</v>
       </c>
       <c r="B6158">
         <v>0.004505678424418846</v>
@@ -49623,7 +49623,7 @@
     </row>
     <row r="6159" spans="1:2">
       <c r="A6159">
-        <v>-0.004606589340591523</v>
+        <v>-0.004606589340591522</v>
       </c>
       <c r="B6159">
         <v>0.004495196430275961</v>
@@ -49631,7 +49631,7 @@
     </row>
     <row r="6160" spans="1:2">
       <c r="A6160">
-        <v>-0.004952552009359876</v>
+        <v>-0.004952552009359875</v>
       </c>
       <c r="B6160">
         <v>0.004527357783462804</v>
@@ -49655,7 +49655,7 @@
     </row>
     <row r="6163" spans="1:2">
       <c r="A6163">
-        <v>-0.005135167296034494</v>
+        <v>-0.005135167296034493</v>
       </c>
       <c r="B6163">
         <v>0.003975265218183921</v>
@@ -49679,7 +49679,7 @@
     </row>
     <row r="6166" spans="1:2">
       <c r="A6166">
-        <v>-0.004803224015008873</v>
+        <v>-0.004803224015008872</v>
       </c>
       <c r="B6166">
         <v>0.004950665154387579</v>
@@ -49703,7 +49703,7 @@
     </row>
     <row r="6169" spans="1:2">
       <c r="A6169">
-        <v>-0.003907365042953451</v>
+        <v>-0.003907365042953452</v>
       </c>
       <c r="B6169">
         <v>0.007334612797182061</v>
@@ -49743,7 +49743,7 @@
     </row>
     <row r="6174" spans="1:2">
       <c r="A6174">
-        <v>-0.003296826643970052</v>
+        <v>-0.003296826643970053</v>
       </c>
       <c r="B6174">
         <v>0.007668751042167798</v>
@@ -49783,7 +49783,7 @@
     </row>
     <row r="6179" spans="1:2">
       <c r="A6179">
-        <v>-0.005398281379529293</v>
+        <v>-0.005398281379529294</v>
       </c>
       <c r="B6179">
         <v>0.001650338313456956</v>
@@ -49791,7 +49791,7 @@
     </row>
     <row r="6180" spans="1:2">
       <c r="A6180">
-        <v>-0.005576670973499341</v>
+        <v>-0.005576670973499342</v>
       </c>
       <c r="B6180">
         <v>0.002379687092326499</v>
@@ -49847,7 +49847,7 @@
     </row>
     <row r="6187" spans="1:2">
       <c r="A6187">
-        <v>-0.004455844598943417</v>
+        <v>-0.004455844598943416</v>
       </c>
       <c r="B6187">
         <v>0.005357022673552869</v>
@@ -49911,7 +49911,7 @@
     </row>
     <row r="6195" spans="1:2">
       <c r="A6195">
-        <v>-0.003396561713436407</v>
+        <v>-0.003396561713436406</v>
       </c>
       <c r="B6195">
         <v>0.007705513048083645</v>
@@ -49919,7 +49919,7 @@
     </row>
     <row r="6196" spans="1:2">
       <c r="A6196">
-        <v>-0.00409056325463412</v>
+        <v>-0.004090563254634119</v>
       </c>
       <c r="B6196">
         <v>0.006944719295588264</v>
@@ -49943,7 +49943,7 @@
     </row>
     <row r="6199" spans="1:2">
       <c r="A6199">
-        <v>-0.006602975300319652</v>
+        <v>-0.006602975300319651</v>
       </c>
       <c r="B6199">
         <v>0.001004403078436411</v>
@@ -49959,7 +49959,7 @@
     </row>
     <row r="6201" spans="1:2">
       <c r="A6201">
-        <v>-0.007513824874069426</v>
+        <v>-0.007513824874069427</v>
       </c>
       <c r="B6201">
         <v>-0.001475661661382688</v>
@@ -49975,7 +49975,7 @@
     </row>
     <row r="6203" spans="1:2">
       <c r="A6203">
-        <v>-0.007945756806107386</v>
+        <v>-0.007945756806107384</v>
       </c>
       <c r="B6203">
         <v>-0.002447792094667278</v>
@@ -49991,7 +49991,7 @@
     </row>
     <row r="6205" spans="1:2">
       <c r="A6205">
-        <v>-0.008143681947515899</v>
+        <v>-0.008143681947515901</v>
       </c>
       <c r="B6205">
         <v>0.0002336034589891511</v>
@@ -50007,7 +50007,7 @@
     </row>
     <row r="6207" spans="1:2">
       <c r="A6207">
-        <v>-0.008070081413720925</v>
+        <v>-0.008070081413720927</v>
       </c>
       <c r="B6207">
         <v>0.001174175458599436</v>
@@ -50031,7 +50031,7 @@
     </row>
     <row r="6210" spans="1:2">
       <c r="A6210">
-        <v>-0.007629014969089848</v>
+        <v>-0.007629014969089849</v>
       </c>
       <c r="B6210">
         <v>0.004670558421951299</v>
@@ -50039,7 +50039,7 @@
     </row>
     <row r="6211" spans="1:2">
       <c r="A6211">
-        <v>-0.007252502147878534</v>
+        <v>-0.007252502147878533</v>
       </c>
       <c r="B6211">
         <v>0.004591776074760467</v>
@@ -50071,7 +50071,7 @@
     </row>
     <row r="6215" spans="1:2">
       <c r="A6215">
-        <v>-0.005827830636200051</v>
+        <v>-0.00582783063620005</v>
       </c>
       <c r="B6215">
         <v>0.01144788277758746</v>
@@ -50079,7 +50079,7 @@
     </row>
     <row r="6216" spans="1:2">
       <c r="A6216">
-        <v>-0.005429577917129118</v>
+        <v>-0.005429577917129119</v>
       </c>
       <c r="B6216">
         <v>0.01349284411535123</v>
@@ -50095,7 +50095,7 @@
     </row>
     <row r="6218" spans="1:2">
       <c r="A6218">
-        <v>-0.005739727019988355</v>
+        <v>-0.005739727019988356</v>
       </c>
       <c r="B6218">
         <v>0.01247115711006597</v>
@@ -50215,7 +50215,7 @@
     </row>
     <row r="6233" spans="1:2">
       <c r="A6233">
-        <v>-0.009380927028837251</v>
+        <v>-0.009380927028837249</v>
       </c>
       <c r="B6233">
         <v>0.007021566415763125</v>
@@ -50223,7 +50223,7 @@
     </row>
     <row r="6234" spans="1:2">
       <c r="A6234">
-        <v>-0.009005815160032973</v>
+        <v>-0.009005815160032975</v>
       </c>
       <c r="B6234">
         <v>0.009094163795343668</v>
@@ -50255,7 +50255,7 @@
     </row>
     <row r="6238" spans="1:2">
       <c r="A6238">
-        <v>-0.006737819658446867</v>
+        <v>-0.006737819658446868</v>
       </c>
       <c r="B6238">
         <v>0.01438589748041874</v>
@@ -50271,7 +50271,7 @@
     </row>
     <row r="6240" spans="1:2">
       <c r="A6240">
-        <v>-0.005251163842674891</v>
+        <v>-0.00525116384267489</v>
       </c>
       <c r="B6240">
         <v>0.01712374030255859</v>
@@ -50375,7 +50375,7 @@
     </row>
     <row r="6253" spans="1:2">
       <c r="A6253">
-        <v>-0.009232115552456699</v>
+        <v>-0.009232115552456698</v>
       </c>
       <c r="B6253">
         <v>0.001215020240863396</v>
@@ -50399,7 +50399,7 @@
     </row>
     <row r="6256" spans="1:2">
       <c r="A6256">
-        <v>-0.008455187150635524</v>
+        <v>-0.008455187150635523</v>
       </c>
       <c r="B6256">
         <v>0.003544329593517581</v>
@@ -50415,7 +50415,7 @@
     </row>
     <row r="6258" spans="1:2">
       <c r="A6258">
-        <v>-0.007470758461340372</v>
+        <v>-0.007470758461340373</v>
       </c>
       <c r="B6258">
         <v>0.005697189402465774</v>
@@ -50431,7 +50431,7 @@
     </row>
     <row r="6260" spans="1:2">
       <c r="A6260">
-        <v>-0.006191182423352083</v>
+        <v>-0.006191182423352082</v>
       </c>
       <c r="B6260">
         <v>0.008455920341171819</v>
@@ -50455,7 +50455,7 @@
     </row>
     <row r="6263" spans="1:2">
       <c r="A6263">
-        <v>-0.004537157839442364</v>
+        <v>-0.004537157839442365</v>
       </c>
       <c r="B6263">
         <v>0.01249958358720793</v>
@@ -50463,7 +50463,7 @@
     </row>
     <row r="6264" spans="1:2">
       <c r="A6264">
-        <v>-0.004439038325213627</v>
+        <v>-0.004439038325213628</v>
       </c>
       <c r="B6264">
         <v>0.01317626414876205</v>
@@ -50471,7 +50471,7 @@
     </row>
     <row r="6265" spans="1:2">
       <c r="A6265">
-        <v>-0.004655797269013941</v>
+        <v>-0.004655797269013942</v>
       </c>
       <c r="B6265">
         <v>0.011129114979334</v>
@@ -50495,7 +50495,7 @@
     </row>
     <row r="6268" spans="1:2">
       <c r="A6268">
-        <v>-0.006285798647321463</v>
+        <v>-0.006285798647321464</v>
       </c>
       <c r="B6268">
         <v>0.00639230403381319</v>
@@ -50543,7 +50543,7 @@
     </row>
     <row r="6274" spans="1:2">
       <c r="A6274">
-        <v>-0.009456690808083342</v>
+        <v>-0.009456690808083344</v>
       </c>
       <c r="B6274">
         <v>-0.001085606166456365</v>
@@ -50639,7 +50639,7 @@
     </row>
     <row r="6286" spans="1:2">
       <c r="A6286">
-        <v>-0.003419792211940901</v>
+        <v>-0.0034197922119409</v>
       </c>
       <c r="B6286">
         <v>0.0162166511997901</v>
@@ -50727,7 +50727,7 @@
     </row>
     <row r="6297" spans="1:2">
       <c r="A6297">
-        <v>-0.007458242492088301</v>
+        <v>-0.0074582424920883</v>
       </c>
       <c r="B6297">
         <v>4.510535092716594E-05</v>
@@ -50751,7 +50751,7 @@
     </row>
     <row r="6300" spans="1:2">
       <c r="A6300">
-        <v>-0.008018404033971778</v>
+        <v>-0.008018404033971777</v>
       </c>
       <c r="B6300">
         <v>-0.001708987855461253</v>
@@ -50807,7 +50807,7 @@
     </row>
     <row r="6307" spans="1:2">
       <c r="A6307">
-        <v>-0.004968991774244166</v>
+        <v>-0.004968991774244165</v>
       </c>
       <c r="B6307">
         <v>0.006566886588474041</v>
@@ -50823,7 +50823,7 @@
     </row>
     <row r="6309" spans="1:2">
       <c r="A6309">
-        <v>-0.003344456846241835</v>
+        <v>-0.003344456846241834</v>
       </c>
       <c r="B6309">
         <v>0.01043310950952669</v>
@@ -50895,7 +50895,7 @@
     </row>
     <row r="6318" spans="1:2">
       <c r="A6318">
-        <v>-0.004427786987460849</v>
+        <v>-0.00442778698746085</v>
       </c>
       <c r="B6318">
         <v>0.003709879378976488</v>
@@ -50903,7 +50903,7 @@
     </row>
     <row r="6319" spans="1:2">
       <c r="A6319">
-        <v>-0.005424187628760756</v>
+        <v>-0.005424187628760757</v>
       </c>
       <c r="B6319">
         <v>0.001313444542931919</v>
@@ -50927,7 +50927,7 @@
     </row>
     <row r="6322" spans="1:2">
       <c r="A6322">
-        <v>-0.007246527698428896</v>
+        <v>-0.007246527698428895</v>
       </c>
       <c r="B6322">
         <v>-0.003519264464875604</v>
@@ -50951,7 +50951,7 @@
     </row>
     <row r="6325" spans="1:2">
       <c r="A6325">
-        <v>-0.007258727122889818</v>
+        <v>-0.007258727122889819</v>
       </c>
       <c r="B6325">
         <v>-0.002942859048385316</v>
@@ -50983,7 +50983,7 @@
     </row>
     <row r="6329" spans="1:2">
       <c r="A6329">
-        <v>-0.005724838534922176</v>
+        <v>-0.005724838534922177</v>
       </c>
       <c r="B6329">
         <v>0.001892988575336929</v>
@@ -51127,7 +51127,7 @@
     </row>
     <row r="6347" spans="1:2">
       <c r="A6347">
-        <v>-0.007475777171116863</v>
+        <v>-0.007475777171116862</v>
       </c>
       <c r="B6347">
         <v>-0.006861914838527383</v>
@@ -51199,7 +51199,7 @@
     </row>
     <row r="6356" spans="1:2">
       <c r="A6356">
-        <v>-0.00646907084714411</v>
+        <v>-0.006469070847144109</v>
       </c>
       <c r="B6356">
         <v>-0.0001892888288637096</v>
@@ -51223,7 +51223,7 @@
     </row>
     <row r="6359" spans="1:2">
       <c r="A6359">
-        <v>-0.004192228171476028</v>
+        <v>-0.004192228171476027</v>
       </c>
       <c r="B6359">
         <v>0.007126434929339176</v>
@@ -51415,7 +51415,7 @@
     </row>
     <row r="6383" spans="1:2">
       <c r="A6383">
-        <v>-0.005659877623233839</v>
+        <v>-0.00565987762323384</v>
       </c>
       <c r="B6383">
         <v>-0.006177974187811408</v>
@@ -51423,7 +51423,7 @@
     </row>
     <row r="6384" spans="1:2">
       <c r="A6384">
-        <v>-0.005210739419208496</v>
+        <v>-0.005210739419208497</v>
       </c>
       <c r="B6384">
         <v>-0.004515169665092245</v>
@@ -51431,7 +51431,7 @@
     </row>
     <row r="6385" spans="1:2">
       <c r="A6385">
-        <v>-0.004514518727657267</v>
+        <v>-0.004514518727657266</v>
       </c>
       <c r="B6385">
         <v>-0.002255461737920683</v>
@@ -51439,7 +51439,7 @@
     </row>
     <row r="6386" spans="1:2">
       <c r="A6386">
-        <v>-0.003871454849754119</v>
+        <v>-0.00387145484975412</v>
       </c>
       <c r="B6386">
         <v>-0.000326784302729699</v>
@@ -51503,7 +51503,7 @@
     </row>
     <row r="6394" spans="1:2">
       <c r="A6394">
-        <v>0.001090524139419307</v>
+        <v>0.001090524139419308</v>
       </c>
       <c r="B6394">
         <v>0.0116853160167123</v>
@@ -51511,7 +51511,7 @@
     </row>
     <row r="6395" spans="1:2">
       <c r="A6395">
-        <v>0.000900660495678771</v>
+        <v>0.0009006604956787711</v>
       </c>
       <c r="B6395">
         <v>0.01064707441726132</v>
@@ -51751,7 +51751,7 @@
     </row>
     <row r="6425" spans="1:2">
       <c r="A6425">
-        <v>0.003523023865705438</v>
+        <v>0.003523023865705437</v>
       </c>
       <c r="B6425">
         <v>0.002520650318866835</v>
@@ -51911,7 +51911,7 @@
     </row>
     <row r="6445" spans="1:2">
       <c r="A6445">
-        <v>0.004929332803582771</v>
+        <v>0.004929332803582772</v>
       </c>
       <c r="B6445">
         <v>0.008538087536070549</v>
@@ -51919,7 +51919,7 @@
     </row>
     <row r="6446" spans="1:2">
       <c r="A6446">
-        <v>0.005585841298610807</v>
+        <v>0.005585841298610806</v>
       </c>
       <c r="B6446">
         <v>0.01048383831852995</v>
@@ -51935,7 +51935,7 @@
     </row>
     <row r="6448" spans="1:2">
       <c r="A6448">
-        <v>0.006407373725414173</v>
+        <v>0.006407373725414174</v>
       </c>
       <c r="B6448">
         <v>0.01213173269344203</v>
@@ -51975,7 +51975,7 @@
     </row>
     <row r="6453" spans="1:2">
       <c r="A6453">
-        <v>0.006185673733789991</v>
+        <v>0.006185673733789992</v>
       </c>
       <c r="B6453">
         <v>0.007875837008407771</v>
@@ -52031,7 +52031,7 @@
     </row>
     <row r="6460" spans="1:2">
       <c r="A6460">
-        <v>0.002088827088312005</v>
+        <v>0.002088827088312004</v>
       </c>
       <c r="B6460">
         <v>-0.008719703399078682</v>
@@ -52047,7 +52047,7 @@
     </row>
     <row r="6462" spans="1:2">
       <c r="A6462">
-        <v>0.001024174522618358</v>
+        <v>0.001024174522618359</v>
       </c>
       <c r="B6462">
         <v>-0.01192842482386158</v>
@@ -52063,7 +52063,7 @@
     </row>
     <row r="6464" spans="1:2">
       <c r="A6464">
-        <v>0.0009246400978844353</v>
+        <v>0.0009246400978844354</v>
       </c>
       <c r="B6464">
         <v>-0.01214092919526166</v>
@@ -52111,7 +52111,7 @@
     </row>
     <row r="6470" spans="1:2">
       <c r="A6470">
-        <v>0.004458840938993947</v>
+        <v>0.004458840938993946</v>
       </c>
       <c r="B6470">
         <v>-0.002253992445588437</v>
@@ -52119,7 +52119,7 @@
     </row>
     <row r="6471" spans="1:2">
       <c r="A6471">
-        <v>0.005365177543691032</v>
+        <v>0.005365177543691033</v>
       </c>
       <c r="B6471">
         <v>0.0006533602472904576</v>
@@ -52191,7 +52191,7 @@
     </row>
     <row r="6480" spans="1:2">
       <c r="A6480">
-        <v>0.004582415800070612</v>
+        <v>0.004582415800070613</v>
       </c>
       <c r="B6480">
         <v>-0.003238957020787581</v>
@@ -52255,7 +52255,7 @@
     </row>
     <row r="6488" spans="1:2">
       <c r="A6488">
-        <v>-9.9621243218689E-05</v>
+        <v>-9.962124321868899E-05</v>
       </c>
       <c r="B6488">
         <v>-0.01312089486904</v>
@@ -52335,7 +52335,7 @@
     </row>
     <row r="6498" spans="1:2">
       <c r="A6498">
-        <v>0.006954792742586481</v>
+        <v>0.006954792742586482</v>
       </c>
       <c r="B6498">
         <v>0.008825078311959444</v>
@@ -52351,7 +52351,7 @@
     </row>
     <row r="6500" spans="1:2">
       <c r="A6500">
-        <v>0.007966011763978896</v>
+        <v>0.007966011763978894</v>
       </c>
       <c r="B6500">
         <v>0.009684356760069512</v>
@@ -52383,7 +52383,7 @@
     </row>
     <row r="6504" spans="1:2">
       <c r="A6504">
-        <v>0.00849183570838332</v>
+        <v>0.008491835708383319</v>
       </c>
       <c r="B6504">
         <v>0.008203118537027265</v>
@@ -52463,7 +52463,7 @@
     </row>
     <row r="6514" spans="1:2">
       <c r="A6514">
-        <v>0.004524749362947286</v>
+        <v>0.004524749362947287</v>
       </c>
       <c r="B6514">
         <v>-0.01165151151484967</v>
@@ -52503,7 +52503,7 @@
     </row>
     <row r="6519" spans="1:2">
       <c r="A6519">
-        <v>0.004146734160086665</v>
+        <v>0.004146734160086664</v>
       </c>
       <c r="B6519">
         <v>-0.01345093836197631</v>
@@ -52535,7 +52535,7 @@
     </row>
     <row r="6523" spans="1:2">
       <c r="A6523">
-        <v>0.00717815893558826</v>
+        <v>0.007178158935588259</v>
       </c>
       <c r="B6523">
         <v>-0.004536398222318994</v>
@@ -52551,7 +52551,7 @@
     </row>
     <row r="6525" spans="1:2">
       <c r="A6525">
-        <v>0.009427652470954324</v>
+        <v>0.009427652470954322</v>
       </c>
       <c r="B6525">
         <v>-2.72737456343819E-05</v>
@@ -52719,7 +52719,7 @@
     </row>
     <row r="6546" spans="1:2">
       <c r="A6546">
-        <v>0.005633006300902703</v>
+        <v>0.005633006300902702</v>
       </c>
       <c r="B6546">
         <v>-0.01653739160821655</v>
@@ -52759,7 +52759,7 @@
     </row>
     <row r="6551" spans="1:2">
       <c r="A6551">
-        <v>0.00860761208828429</v>
+        <v>0.008607612088284288</v>
       </c>
       <c r="B6551">
         <v>-0.006488257525216312</v>
@@ -52775,7 +52775,7 @@
     </row>
     <row r="6553" spans="1:2">
       <c r="A6553">
-        <v>0.009683024947930526</v>
+        <v>0.009683024947930528</v>
       </c>
       <c r="B6553">
         <v>-0.002576131633658996</v>
@@ -52871,7 +52871,7 @@
     </row>
     <row r="6565" spans="1:2">
       <c r="A6565">
-        <v>0.005690677679841962</v>
+        <v>0.005690677679841963</v>
       </c>
       <c r="B6565">
         <v>-0.01350887253212463</v>
@@ -52951,7 +52951,7 @@
     </row>
     <row r="6575" spans="1:2">
       <c r="A6575">
-        <v>0.004623232964341545</v>
+        <v>0.004623232964341544</v>
       </c>
       <c r="B6575">
         <v>-0.01011912878596988</v>
@@ -52975,7 +52975,7 @@
     </row>
     <row r="6578" spans="1:2">
       <c r="A6578">
-        <v>0.007653606643041356</v>
+        <v>0.007653606643041357</v>
       </c>
       <c r="B6578">
         <v>0.0007657335268236309</v>
@@ -53095,7 +53095,7 @@
     </row>
     <row r="6593" spans="1:2">
       <c r="A6593">
-        <v>0.008490838752841751</v>
+        <v>0.008490838752841753</v>
       </c>
       <c r="B6593">
         <v>-0.006279565292256706</v>
@@ -53103,7 +53103,7 @@
     </row>
     <row r="6594" spans="1:2">
       <c r="A6594">
-        <v>0.008193361333074986</v>
+        <v>0.008193361333074987</v>
       </c>
       <c r="B6594">
         <v>-0.008902858630916555</v>
@@ -53151,7 +53151,7 @@
     </row>
     <row r="6600" spans="1:2">
       <c r="A6600">
-        <v>0.006153866482703239</v>
+        <v>0.00615386648270324</v>
       </c>
       <c r="B6600">
         <v>-0.01750989437438655</v>
@@ -53167,7 +53167,7 @@
     </row>
     <row r="6602" spans="1:2">
       <c r="A6602">
-        <v>0.007195114775874344</v>
+        <v>0.007195114775874343</v>
       </c>
       <c r="B6602">
         <v>-0.01456782765832276</v>
@@ -53391,7 +53391,7 @@
     </row>
     <row r="6630" spans="1:2">
       <c r="A6630">
-        <v>0.007298212053224151</v>
+        <v>0.007298212053224152</v>
       </c>
       <c r="B6630">
         <v>-0.02517186403277627</v>
@@ -53479,7 +53479,7 @@
     </row>
     <row r="6641" spans="1:2">
       <c r="A6641">
-        <v>0.01412773700453975</v>
+        <v>0.01412773700453976</v>
       </c>
       <c r="B6641">
         <v>0.003086852499168735</v>
@@ -53639,7 +53639,7 @@
     </row>
     <row r="6661" spans="1:2">
       <c r="A6661">
-        <v>0.007062332398237702</v>
+        <v>0.007062332398237703</v>
       </c>
       <c r="B6661">
         <v>-0.01916294682883546</v>
@@ -53655,7 +53655,7 @@
     </row>
     <row r="6663" spans="1:2">
       <c r="A6663">
-        <v>0.007106213808889499</v>
+        <v>0.0071062138088895</v>
       </c>
       <c r="B6663">
         <v>-0.01729154496325425</v>
@@ -53679,7 +53679,7 @@
     </row>
     <row r="6666" spans="1:2">
       <c r="A6666">
-        <v>0.008289620511715046</v>
+        <v>0.008289620511715045</v>
       </c>
       <c r="B6666">
         <v>-0.01164330623102838</v>
@@ -53687,7 +53687,7 @@
     </row>
     <row r="6667" spans="1:2">
       <c r="A6667">
-        <v>0.008808767733738362</v>
+        <v>0.008808767733738364</v>
       </c>
       <c r="B6667">
         <v>-0.009681826115470749</v>
@@ -53695,7 +53695,7 @@
     </row>
     <row r="6668" spans="1:2">
       <c r="A6668">
-        <v>0.009570750828628497</v>
+        <v>0.009570750828628495</v>
       </c>
       <c r="B6668">
         <v>-0.006302780327891888</v>
@@ -53743,7 +53743,7 @@
     </row>
     <row r="6674" spans="1:2">
       <c r="A6674">
-        <v>0.009715140303092836</v>
+        <v>0.009715140303092838</v>
       </c>
       <c r="B6674">
         <v>-0.001985485911251139</v>
@@ -53751,7 +53751,7 @@
     </row>
     <row r="6675" spans="1:2">
       <c r="A6675">
-        <v>0.009190028367664943</v>
+        <v>0.009190028367664941</v>
       </c>
       <c r="B6675">
         <v>-0.003000134304442348</v>
@@ -53775,7 +53775,7 @@
     </row>
     <row r="6678" spans="1:2">
       <c r="A6678">
-        <v>0.006639879464142308</v>
+        <v>0.006639879464142309</v>
       </c>
       <c r="B6678">
         <v>-0.007320122101064364</v>
@@ -53919,7 +53919,7 @@
     </row>
     <row r="6696" spans="1:2">
       <c r="A6696">
-        <v>0.004016078700606372</v>
+        <v>0.004016078700606373</v>
       </c>
       <c r="B6696">
         <v>0.004201783546905702</v>
@@ -53959,7 +53959,7 @@
     </row>
     <row r="6701" spans="1:2">
       <c r="A6701">
-        <v>0.0007383140419433558</v>
+        <v>0.0007383140419433557</v>
       </c>
       <c r="B6701">
         <v>-0.001886271281372309</v>
@@ -53999,7 +53999,7 @@
     </row>
     <row r="6706" spans="1:2">
       <c r="A6706">
-        <v>-0.002777163115133517</v>
+        <v>-0.002777163115133518</v>
       </c>
       <c r="B6706">
         <v>-0.007886305242598368</v>
@@ -54023,7 +54023,7 @@
     </row>
     <row r="6709" spans="1:2">
       <c r="A6709">
-        <v>-0.002789519802049382</v>
+        <v>-0.002789519802049383</v>
       </c>
       <c r="B6709">
         <v>-0.005495354264467345</v>
@@ -54087,7 +54087,7 @@
     </row>
     <row r="6717" spans="1:2">
       <c r="A6717">
-        <v>0.0009233649792262536</v>
+        <v>0.0009233649792262534</v>
       </c>
       <c r="B6717">
         <v>0.008613255118774532</v>
@@ -54127,7 +54127,7 @@
     </row>
     <row r="6722" spans="1:2">
       <c r="A6722">
-        <v>-0.0009548266411599164</v>
+        <v>-0.0009548266411599163</v>
       </c>
       <c r="B6722">
         <v>0.004098807099029322</v>
@@ -54175,7 +54175,7 @@
     </row>
     <row r="6728" spans="1:2">
       <c r="A6728">
-        <v>-0.006392929944506701</v>
+        <v>-0.0063929299445067</v>
       </c>
       <c r="B6728">
         <v>-0.008799899718119342</v>
@@ -54191,7 +54191,7 @@
     </row>
     <row r="6730" spans="1:2">
       <c r="A6730">
-        <v>-0.007043470599904635</v>
+        <v>-0.007043470599904634</v>
       </c>
       <c r="B6730">
         <v>-0.008281055076446719</v>
@@ -54207,7 +54207,7 @@
     </row>
     <row r="6732" spans="1:2">
       <c r="A6732">
-        <v>-0.007231687063202324</v>
+        <v>-0.007231687063202323</v>
       </c>
       <c r="B6732">
         <v>-0.007194097432426716</v>
@@ -54215,7 +54215,7 @@
     </row>
     <row r="6733" spans="1:2">
       <c r="A6733">
-        <v>-0.007096707516845851</v>
+        <v>-0.00709670751684585</v>
       </c>
       <c r="B6733">
         <v>-0.006720695662042253</v>
@@ -54247,7 +54247,7 @@
     </row>
     <row r="6737" spans="1:2">
       <c r="A6737">
-        <v>-0.006200019464734339</v>
+        <v>-0.00620001946473434</v>
       </c>
       <c r="B6737">
         <v>0.0004592351067564948</v>
@@ -54255,7 +54255,7 @@
     </row>
     <row r="6738" spans="1:2">
       <c r="A6738">
-        <v>-0.005918641484638443</v>
+        <v>-0.005918641484638444</v>
       </c>
       <c r="B6738">
         <v>0.00058048458894433</v>
@@ -54279,7 +54279,7 @@
     </row>
     <row r="6741" spans="1:2">
       <c r="A6741">
-        <v>-0.004697590987511996</v>
+        <v>-0.004697590987511997</v>
       </c>
       <c r="B6741">
         <v>0.00625224815507508</v>
@@ -54479,7 +54479,7 @@
     </row>
     <row r="6766" spans="1:2">
       <c r="A6766">
-        <v>-0.0258510266354749</v>
+        <v>-0.02585102663547491</v>
       </c>
       <c r="B6766">
         <v>-0.003922116328061165</v>
@@ -54487,7 +54487,7 @@
     </row>
     <row r="6767" spans="1:2">
       <c r="A6767">
-        <v>-0.02644011061190926</v>
+        <v>-0.02644011061190925</v>
       </c>
       <c r="B6767">
         <v>0.007339489497636187</v>
@@ -54551,7 +54551,7 @@
     </row>
     <row r="6775" spans="1:2">
       <c r="A6775">
-        <v>-0.03401729054495342</v>
+        <v>-0.03401729054495343</v>
       </c>
       <c r="B6775">
         <v>0.0311687122224269</v>
@@ -54583,7 +54583,7 @@
     </row>
     <row r="6779" spans="1:2">
       <c r="A6779">
-        <v>-0.03988526641730823</v>
+        <v>-0.03988526641730822</v>
       </c>
       <c r="B6779">
         <v>0.04642690920970782</v>
@@ -54631,7 +54631,7 @@
     </row>
     <row r="6785" spans="1:2">
       <c r="A6785">
-        <v>-0.0513310638915166</v>
+        <v>-0.05133106389151661</v>
       </c>
       <c r="B6785">
         <v>0.02602250941393436</v>
@@ -54639,7 +54639,7 @@
     </row>
     <row r="6786" spans="1:2">
       <c r="A6786">
-        <v>-0.05356741699601135</v>
+        <v>-0.05356741699601136</v>
       </c>
       <c r="B6786">
         <v>0.03617575244401117</v>
@@ -54647,7 +54647,7 @@
     </row>
     <row r="6787" spans="1:2">
       <c r="A6787">
-        <v>-0.05456166330458416</v>
+        <v>-0.05456166330458415</v>
       </c>
       <c r="B6787">
         <v>0.04779673113960481</v>
@@ -54671,7 +54671,7 @@
     </row>
     <row r="6790" spans="1:2">
       <c r="A6790">
-        <v>-0.05641339319081373</v>
+        <v>-0.05641339319081374</v>
       </c>
       <c r="B6790">
         <v>0.05925524190156484</v>
@@ -54703,7 +54703,7 @@
     </row>
     <row r="6794" spans="1:2">
       <c r="A6794">
-        <v>-0.06012919645682588</v>
+        <v>-0.06012919645682589</v>
       </c>
       <c r="B6794">
         <v>0.04966502528345274</v>
@@ -54791,7 +54791,7 @@
     </row>
     <row r="6805" spans="1:2">
       <c r="A6805">
-        <v>-0.0767265225476087</v>
+        <v>-0.07672652254760871</v>
       </c>
       <c r="B6805">
         <v>0.07208140142296671</v>
@@ -54807,7 +54807,7 @@
     </row>
     <row r="6807" spans="1:2">
       <c r="A6807">
-        <v>-0.08184508407582017</v>
+        <v>-0.08184508407582018</v>
       </c>
       <c r="B6807">
         <v>0.05687491782550413</v>
@@ -54871,7 +54871,7 @@
     </row>
     <row r="6815" spans="1:2">
       <c r="A6815">
-        <v>-0.09062593134494773</v>
+        <v>-0.09062593134494772</v>
       </c>
       <c r="B6815">
         <v>0.05306017906195049</v>
@@ -54919,7 +54919,7 @@
     </row>
     <row r="6821" spans="1:2">
       <c r="A6821">
-        <v>-0.09398152970716306</v>
+        <v>-0.09398152970716307</v>
       </c>
       <c r="B6821">
         <v>0.06426106941730758</v>
@@ -54959,7 +54959,7 @@
     </row>
     <row r="6826" spans="1:2">
       <c r="A6826">
-        <v>-0.09611839404593156</v>
+        <v>-0.09611839404593157</v>
       </c>
       <c r="B6826">
         <v>0.1026872061961619</v>
@@ -55015,7 +55015,7 @@
     </row>
     <row r="6833" spans="1:2">
       <c r="A6833">
-        <v>-0.1012903144952527</v>
+        <v>-0.1012903144952528</v>
       </c>
       <c r="B6833">
         <v>0.06278656562732721</v>
@@ -55023,7 +55023,7 @@
     </row>
     <row r="6834" spans="1:2">
       <c r="A6834">
-        <v>-0.1030187264699375</v>
+        <v>-0.1030187264699374</v>
       </c>
       <c r="B6834">
         <v>0.08044906697175147</v>
@@ -55471,7 +55471,7 @@
     </row>
     <row r="6890" spans="1:2">
       <c r="A6890">
-        <v>-0.07576738349927561</v>
+        <v>-0.07576738349927563</v>
       </c>
       <c r="B6890">
         <v>0.0822367661859742</v>
@@ -55631,7 +55631,7 @@
     </row>
     <row r="6910" spans="1:2">
       <c r="A6910">
-        <v>-0.04864009059103827</v>
+        <v>-0.04864009059103826</v>
       </c>
       <c r="B6910">
         <v>0.07565156421208741</v>
@@ -55671,7 +55671,7 @@
     </row>
     <row r="6915" spans="1:2">
       <c r="A6915">
-        <v>-0.04257147614196798</v>
+        <v>-0.04257147614196797</v>
       </c>
       <c r="B6915">
         <v>0.04886169782683503</v>
@@ -55711,7 +55711,7 @@
     </row>
     <row r="6920" spans="1:2">
       <c r="A6920">
-        <v>-0.04050866536814789</v>
+        <v>-0.04050866536814788</v>
       </c>
       <c r="B6920">
         <v>0.04653031985174128</v>
@@ -55783,7 +55783,7 @@
     </row>
     <row r="6929" spans="1:2">
       <c r="A6929">
-        <v>-0.03899283408744297</v>
+        <v>-0.03899283408744298</v>
       </c>
       <c r="B6929">
         <v>0.01234380689613435</v>
@@ -55799,7 +55799,7 @@
     </row>
     <row r="6931" spans="1:2">
       <c r="A6931">
-        <v>-0.0391155080852935</v>
+        <v>-0.03911550808529349</v>
       </c>
       <c r="B6931">
         <v>0.02488773985831738</v>
@@ -55903,7 +55903,7 @@
     </row>
     <row r="6944" spans="1:2">
       <c r="A6944">
-        <v>-0.02353412213244319</v>
+        <v>-0.02353412213244318</v>
       </c>
       <c r="B6944">
         <v>0.03754348263085738</v>
@@ -55919,7 +55919,7 @@
     </row>
     <row r="6946" spans="1:2">
       <c r="A6946">
-        <v>-0.02153961656393311</v>
+        <v>-0.0215396165639331</v>
       </c>
       <c r="B6946">
         <v>0.05078256801317416</v>
@@ -55951,7 +55951,7 @@
     </row>
     <row r="6950" spans="1:2">
       <c r="A6950">
-        <v>-0.01849438306281848</v>
+        <v>-0.01849438306281849</v>
       </c>
       <c r="B6950">
         <v>0.0500892821208061</v>
@@ -56087,7 +56087,7 @@
     </row>
     <row r="6967" spans="1:2">
       <c r="A6967">
-        <v>-0.02943901786925515</v>
+        <v>-0.02943901786925516</v>
       </c>
       <c r="B6967">
         <v>-0.0007069660335710104</v>
@@ -56103,7 +56103,7 @@
     </row>
     <row r="6969" spans="1:2">
       <c r="A6969">
-        <v>-0.02959024916328563</v>
+        <v>-0.02959024916328564</v>
       </c>
       <c r="B6969">
         <v>-0.008745814629243842</v>
@@ -56175,7 +56175,7 @@
     </row>
     <row r="6978" spans="1:2">
       <c r="A6978">
-        <v>-0.02700133592972476</v>
+        <v>-0.02700133592972475</v>
       </c>
       <c r="B6978">
         <v>0.01928829593149484</v>
@@ -56591,7 +56591,7 @@
     </row>
     <row r="7030" spans="1:2">
       <c r="A7030">
-        <v>-0.02168025013323616</v>
+        <v>-0.02168025013323615</v>
       </c>
       <c r="B7030">
         <v>0.006627250273476992</v>
@@ -56703,7 +56703,7 @@
     </row>
     <row r="7044" spans="1:2">
       <c r="A7044">
-        <v>-0.02130842706588944</v>
+        <v>-0.02130842706588943</v>
       </c>
       <c r="B7044">
         <v>0.01817681222893608</v>
@@ -56879,7 +56879,7 @@
     </row>
     <row r="7066" spans="1:2">
       <c r="A7066">
-        <v>-0.02793332419778539</v>
+        <v>-0.02793332419778538</v>
       </c>
       <c r="B7066">
         <v>0.006938138122890347</v>
@@ -56911,7 +56911,7 @@
     </row>
     <row r="7070" spans="1:2">
       <c r="A7070">
-        <v>-0.02595923692714373</v>
+        <v>-0.02595923692714374</v>
       </c>
       <c r="B7070">
         <v>0.01820321438028838</v>
@@ -56983,7 +56983,7 @@
     </row>
     <row r="7079" spans="1:2">
       <c r="A7079">
-        <v>-0.02483625814118308</v>
+        <v>-0.02483625814118307</v>
       </c>
       <c r="B7079">
         <v>0.01938811709260646</v>
@@ -57063,7 +57063,7 @@
     </row>
     <row r="7089" spans="1:2">
       <c r="A7089">
-        <v>-0.02371688347663757</v>
+        <v>-0.02371688347663758</v>
       </c>
       <c r="B7089">
         <v>0.01962314247014474</v>
@@ -57135,7 +57135,7 @@
     </row>
     <row r="7098" spans="1:2">
       <c r="A7098">
-        <v>-0.02406669535248627</v>
+        <v>-0.02406669535248626</v>
       </c>
       <c r="B7098">
         <v>0.013148395039841</v>
@@ -57407,7 +57407,7 @@
     </row>
     <row r="7132" spans="1:2">
       <c r="A7132">
-        <v>-0.0254970303262342</v>
+        <v>-0.02549703032623421</v>
       </c>
       <c r="B7132">
         <v>0.01796974344414171</v>
@@ -57471,7 +57471,7 @@
     </row>
     <row r="7140" spans="1:2">
       <c r="A7140">
-        <v>-0.02671230567947618</v>
+        <v>-0.02671230567947619</v>
       </c>
       <c r="B7140">
         <v>0.01919336619850442</v>
@@ -57535,7 +57535,7 @@
     </row>
     <row r="7148" spans="1:2">
       <c r="A7148">
-        <v>-0.02522771358338023</v>
+        <v>-0.02522771358338024</v>
       </c>
       <c r="B7148">
         <v>0.02071208147896453</v>
@@ -57543,7 +57543,7 @@
     </row>
     <row r="7149" spans="1:2">
       <c r="A7149">
-        <v>-0.02496843771743112</v>
+        <v>-0.02496843771743113</v>
       </c>
       <c r="B7149">
         <v>0.01564216178190625</v>
@@ -57591,7 +57591,7 @@
     </row>
     <row r="7155" spans="1:2">
       <c r="A7155">
-        <v>-0.02496014803344238</v>
+        <v>-0.02496014803344237</v>
       </c>
       <c r="B7155">
         <v>0.01505973100390046</v>
@@ -57807,7 +57807,7 @@
     </row>
     <row r="7182" spans="1:2">
       <c r="A7182">
-        <v>-0.02164360868397869</v>
+        <v>-0.02164360868397868</v>
       </c>
       <c r="B7182">
         <v>0.02040508200586233</v>
@@ -57823,7 +57823,7 @@
     </row>
     <row r="7184" spans="1:2">
       <c r="A7184">
-        <v>-0.02108613884902165</v>
+        <v>-0.02108613884902164</v>
       </c>
       <c r="B7184">
         <v>0.01856781365406013</v>
@@ -57927,7 +57927,7 @@
     </row>
     <row r="7197" spans="1:2">
       <c r="A7197">
-        <v>-0.0162698861169561</v>
+        <v>-0.01626988611695609</v>
       </c>
       <c r="B7197">
         <v>0.02267310882721674</v>
@@ -57943,7 +57943,7 @@
     </row>
     <row r="7199" spans="1:2">
       <c r="A7199">
-        <v>-0.0152991730456325</v>
+        <v>-0.01529917304563249</v>
       </c>
       <c r="B7199">
         <v>0.02163064149602034</v>
@@ -58111,7 +58111,7 @@
     </row>
     <row r="7220" spans="1:2">
       <c r="A7220">
-        <v>-0.01566015214859396</v>
+        <v>-0.01566015214859397</v>
       </c>
       <c r="B7220">
         <v>0.0008813863956964596</v>
@@ -58471,7 +58471,7 @@
     </row>
     <row r="7265" spans="1:2">
       <c r="A7265">
-        <v>-0.007328174138005952</v>
+        <v>-0.007328174138005951</v>
       </c>
       <c r="B7265">
         <v>0.01041436736673251</v>
@@ -58503,7 +58503,7 @@
     </row>
     <row r="7269" spans="1:2">
       <c r="A7269">
-        <v>-0.00902083290702012</v>
+        <v>-0.009020832907020122</v>
       </c>
       <c r="B7269">
         <v>0.002365396504317552</v>
@@ -58527,7 +58527,7 @@
     </row>
     <row r="7272" spans="1:2">
       <c r="A7272">
-        <v>-0.008158476869675467</v>
+        <v>-0.008158476869675468</v>
       </c>
       <c r="B7272">
         <v>0.002595165187417425</v>
@@ -58543,7 +58543,7 @@
     </row>
     <row r="7274" spans="1:2">
       <c r="A7274">
-        <v>-0.006555641428191771</v>
+        <v>-0.00655564142819177</v>
       </c>
       <c r="B7274">
         <v>0.004635787559703619</v>
@@ -58567,7 +58567,7 @@
     </row>
     <row r="7277" spans="1:2">
       <c r="A7277">
-        <v>-0.0027706548341567</v>
+        <v>-0.002770654834156701</v>
       </c>
       <c r="B7277">
         <v>0.01250278623638179</v>
@@ -58591,7 +58591,7 @@
     </row>
     <row r="7280" spans="1:2">
       <c r="A7280">
-        <v>0.0008749491794024384</v>
+        <v>0.0008749491794024385</v>
       </c>
       <c r="B7280">
         <v>0.0174679568795657</v>
@@ -58607,7 +58607,7 @@
     </row>
     <row r="7282" spans="1:2">
       <c r="A7282">
-        <v>0.002554289112238694</v>
+        <v>0.002554289112238695</v>
       </c>
       <c r="B7282">
         <v>0.01885855887346599</v>
@@ -58679,7 +58679,7 @@
     </row>
     <row r="7291" spans="1:2">
       <c r="A7291">
-        <v>0.008640507240238288</v>
+        <v>0.008640507240238286</v>
       </c>
       <c r="B7291">
         <v>0.009718961394938219</v>
@@ -58807,7 +58807,7 @@
     </row>
     <row r="7307" spans="1:2">
       <c r="A7307">
-        <v>0.02116867791077317</v>
+        <v>0.02116867791077316</v>
       </c>
       <c r="B7307">
         <v>-0.01036969022279921</v>
@@ -58887,7 +58887,7 @@
     </row>
     <row r="7317" spans="1:2">
       <c r="A7317">
-        <v>0.02924020291585205</v>
+        <v>0.02924020291585204</v>
       </c>
       <c r="B7317">
         <v>-0.01833669075349675</v>
@@ -58959,7 +58959,7 @@
     </row>
     <row r="7326" spans="1:2">
       <c r="A7326">
-        <v>0.03585429970904273</v>
+        <v>0.03585429970904274</v>
       </c>
       <c r="B7326">
         <v>-0.02156981146787906</v>
@@ -58967,7 +58967,7 @@
     </row>
     <row r="7327" spans="1:2">
       <c r="A7327">
-        <v>0.03631908238644704</v>
+        <v>0.03631908238644705</v>
       </c>
       <c r="B7327">
         <v>-0.02636614513428048</v>
@@ -59031,7 +59031,7 @@
     </row>
     <row r="7335" spans="1:2">
       <c r="A7335">
-        <v>0.04284877818588933</v>
+        <v>0.04284877818588934</v>
       </c>
       <c r="B7335">
         <v>-0.02036569907056807</v>
@@ -59039,7 +59039,7 @@
     </row>
     <row r="7336" spans="1:2">
       <c r="A7336">
-        <v>0.04317593304373592</v>
+        <v>0.04317593304373591</v>
       </c>
       <c r="B7336">
         <v>-0.02701178789150216</v>
@@ -59047,7 +59047,7 @@
     </row>
     <row r="7337" spans="1:2">
       <c r="A7337">
-        <v>0.0431520393630823</v>
+        <v>0.04315203936308231</v>
       </c>
       <c r="B7337">
         <v>-0.03362017661487515</v>
@@ -59055,7 +59055,7 @@
     </row>
     <row r="7338" spans="1:2">
       <c r="A7338">
-        <v>0.04316178426798048</v>
+        <v>0.04316178426798049</v>
       </c>
       <c r="B7338">
         <v>-0.02900463672928311</v>
@@ -59111,7 +59111,7 @@
     </row>
     <row r="7345" spans="1:2">
       <c r="A7345">
-        <v>0.04052968653550819</v>
+        <v>0.0405296865355082</v>
       </c>
       <c r="B7345">
         <v>-0.04410760748165243</v>
@@ -59119,7 +59119,7 @@
     </row>
     <row r="7346" spans="1:2">
       <c r="A7346">
-        <v>0.04077151711686296</v>
+        <v>0.04077151711686297</v>
       </c>
       <c r="B7346">
         <v>-0.0504957829192616</v>
@@ -59127,7 +59127,7 @@
     </row>
     <row r="7347" spans="1:2">
       <c r="A7347">
-        <v>0.0406999866056707</v>
+        <v>0.04069998660567071</v>
       </c>
       <c r="B7347">
         <v>-0.0564968783258939</v>
@@ -59143,7 +59143,7 @@
     </row>
     <row r="7349" spans="1:2">
       <c r="A7349">
-        <v>0.04186505622647202</v>
+        <v>0.04186505622647203</v>
       </c>
       <c r="B7349">
         <v>-0.05271713608680972</v>
@@ -59199,7 +59199,7 @@
     </row>
     <row r="7356" spans="1:2">
       <c r="A7356">
-        <v>0.04920168161859409</v>
+        <v>0.04920168161859408</v>
       </c>
       <c r="B7356">
         <v>-0.03639654142096704</v>
@@ -59223,7 +59223,7 @@
     </row>
     <row r="7359" spans="1:2">
       <c r="A7359">
-        <v>0.05409073156927103</v>
+        <v>0.05409073156927102</v>
       </c>
       <c r="B7359">
         <v>-0.03119398147296248</v>
@@ -59271,7 +59271,7 @@
     </row>
     <row r="7365" spans="1:2">
       <c r="A7365">
-        <v>0.06203611286927697</v>
+        <v>0.06203611286927696</v>
       </c>
       <c r="B7365">
         <v>-0.01503317517556058</v>
@@ -59287,7 +59287,7 @@
     </row>
     <row r="7367" spans="1:2">
       <c r="A7367">
-        <v>0.06416632614904313</v>
+        <v>0.06416632614904315</v>
       </c>
       <c r="B7367">
         <v>-0.03073281182208465</v>
@@ -59343,7 +59343,7 @@
     </row>
     <row r="7374" spans="1:2">
       <c r="A7374">
-        <v>0.0672805048652442</v>
+        <v>0.06728050486524419</v>
       </c>
       <c r="B7374">
         <v>-0.04668433110505044</v>
@@ -59351,7 +59351,7 @@
     </row>
     <row r="7375" spans="1:2">
       <c r="A7375">
-        <v>0.06702508150424341</v>
+        <v>0.06702508150424343</v>
       </c>
       <c r="B7375">
         <v>-0.05739072702437875</v>
@@ -59359,7 +59359,7 @@
     </row>
     <row r="7376" spans="1:2">
       <c r="A7376">
-        <v>0.06752364354959836</v>
+        <v>0.06752364354959835</v>
       </c>
       <c r="B7376">
         <v>-0.04964270475820909</v>
@@ -59367,7 +59367,7 @@
     </row>
     <row r="7377" spans="1:2">
       <c r="A7377">
-        <v>0.06710157607108061</v>
+        <v>0.06710157607108062</v>
       </c>
       <c r="B7377">
         <v>-0.06140491168806372</v>
@@ -59407,7 +59407,7 @@
     </row>
     <row r="7382" spans="1:2">
       <c r="A7382">
-        <v>0.06738833385312529</v>
+        <v>0.06738833385312527</v>
       </c>
       <c r="B7382">
         <v>-0.0752512574740889</v>
@@ -59455,7 +59455,7 @@
     </row>
     <row r="7388" spans="1:2">
       <c r="A7388">
-        <v>0.07684383853735982</v>
+        <v>0.07684383853735981</v>
       </c>
       <c r="B7388">
         <v>-0.05107636081651545</v>
@@ -59463,7 +59463,7 @@
     </row>
     <row r="7389" spans="1:2">
       <c r="A7389">
-        <v>0.0797761378480655</v>
+        <v>0.07977613784806549</v>
       </c>
       <c r="B7389">
         <v>-0.05515922637022319</v>
@@ -59479,7 +59479,7 @@
     </row>
     <row r="7391" spans="1:2">
       <c r="A7391">
-        <v>0.0847021649346493</v>
+        <v>0.08470216493464928</v>
       </c>
       <c r="B7391">
         <v>-0.04316335624739276</v>
@@ -59559,7 +59559,7 @@
     </row>
     <row r="7401" spans="1:2">
       <c r="A7401">
-        <v>0.09586709502737217</v>
+        <v>0.09586709502737219</v>
       </c>
       <c r="B7401">
         <v>-0.05160674394063713</v>
@@ -59607,7 +59607,7 @@
     </row>
     <row r="7407" spans="1:2">
       <c r="A7407">
-        <v>0.09187474466303538</v>
+        <v>0.0918747446630354</v>
       </c>
       <c r="B7407">
         <v>-0.09359631638866706</v>
@@ -59671,7 +59671,7 @@
     </row>
     <row r="7415" spans="1:2">
       <c r="A7415">
-        <v>0.09673858396502688</v>
+        <v>0.09673858396502687</v>
       </c>
       <c r="B7415">
         <v>-0.10148727905593</v>
@@ -59687,7 +59687,7 @@
     </row>
     <row r="7417" spans="1:2">
       <c r="A7417">
-        <v>0.1008795861696518</v>
+        <v>0.1008795861696517</v>
       </c>
       <c r="B7417">
         <v>-0.08879382038712746</v>
@@ -59719,7 +59719,7 @@
     </row>
     <row r="7421" spans="1:2">
       <c r="A7421">
-        <v>0.1096052589535794</v>
+        <v>0.1096052589535795</v>
       </c>
       <c r="B7421">
         <v>-0.06097180565452343</v>
@@ -60823,7 +60823,7 @@
     </row>
     <row r="7559" spans="1:2">
       <c r="A7559">
-        <v>0.04224957141224335</v>
+        <v>0.04224957141224334</v>
       </c>
       <c r="B7559">
         <v>-0.03223154284736029</v>
@@ -60847,7 +60847,7 @@
     </row>
     <row r="7562" spans="1:2">
       <c r="A7562">
-        <v>0.04197518482191412</v>
+        <v>0.04197518482191413</v>
       </c>
       <c r="B7562">
         <v>-0.02918042258010445</v>
@@ -60919,7 +60919,7 @@
     </row>
     <row r="7571" spans="1:2">
       <c r="A7571">
-        <v>0.03659713895628532</v>
+        <v>0.03659713895628531</v>
       </c>
       <c r="B7571">
         <v>-0.03549709616058472</v>
@@ -61159,7 +61159,7 @@
     </row>
     <row r="7601" spans="1:2">
       <c r="A7601">
-        <v>0.02605753390641447</v>
+        <v>0.02605753390641446</v>
       </c>
       <c r="B7601">
         <v>-0.02868768440425917</v>
@@ -61295,7 +61295,7 @@
     </row>
     <row r="7618" spans="1:2">
       <c r="A7618">
-        <v>0.02060938132077397</v>
+        <v>0.02060938132077396</v>
       </c>
       <c r="B7618">
         <v>-0.01698529495066659</v>
@@ -61319,7 +61319,7 @@
     </row>
     <row r="7621" spans="1:2">
       <c r="A7621">
-        <v>0.02014101553488151</v>
+        <v>0.0201410155348815</v>
       </c>
       <c r="B7621">
         <v>-0.01498875707166558</v>
@@ -61583,7 +61583,7 @@
     </row>
     <row r="7654" spans="1:2">
       <c r="A7654">
-        <v>0.02320378254141221</v>
+        <v>0.0232037825414122</v>
       </c>
       <c r="B7654">
         <v>-0.0003282918655251876</v>
@@ -61775,7 +61775,7 @@
     </row>
     <row r="7678" spans="1:2">
       <c r="A7678">
-        <v>0.03352215086773543</v>
+        <v>0.03352215086773542</v>
       </c>
       <c r="B7678">
         <v>-0.0307285970995741</v>
@@ -61783,7 +61783,7 @@
     </row>
     <row r="7679" spans="1:2">
       <c r="A7679">
-        <v>0.03333304203718283</v>
+        <v>0.03333304203718284</v>
       </c>
       <c r="B7679">
         <v>-0.02403777994663603</v>
@@ -61791,7 +61791,7 @@
     </row>
     <row r="7680" spans="1:2">
       <c r="A7680">
-        <v>0.03329326590205842</v>
+        <v>0.03329326590205841</v>
       </c>
       <c r="B7680">
         <v>-0.03126100043939495</v>
@@ -61919,7 +61919,7 @@
     </row>
     <row r="7696" spans="1:2">
       <c r="A7696">
-        <v>0.04702921452338786</v>
+        <v>0.04702921452338785</v>
       </c>
       <c r="B7696">
         <v>-0.01741823593690572</v>
@@ -62007,7 +62007,7 @@
     </row>
     <row r="7707" spans="1:2">
       <c r="A7707">
-        <v>0.04898740455146984</v>
+        <v>0.04898740455146985</v>
       </c>
       <c r="B7707">
         <v>-0.03749997876985312</v>
@@ -62047,7 +62047,7 @@
     </row>
     <row r="7712" spans="1:2">
       <c r="A7712">
-        <v>0.049716287120494</v>
+        <v>0.04971628712049399</v>
       </c>
       <c r="B7712">
         <v>-0.04110385676821959</v>
@@ -62055,7 +62055,7 @@
     </row>
     <row r="7713" spans="1:2">
       <c r="A7713">
-        <v>0.0499558555009896</v>
+        <v>0.04995585550098961</v>
       </c>
       <c r="B7713">
         <v>-0.04948421232505407</v>
@@ -62079,7 +62079,7 @@
     </row>
     <row r="7716" spans="1:2">
       <c r="A7716">
-        <v>0.05177846488028361</v>
+        <v>0.05177846488028658</v>
       </c>
       <c r="B7716">
         <v>-0.05097091436456669</v>
@@ -62231,7 +62231,7 @@
     </row>
     <row r="7735" spans="1:2">
       <c r="A7735">
-        <v>0.06640472266528337</v>
+        <v>0.06640472266528336</v>
       </c>
       <c r="B7735">
         <v>-0.04964661454932173</v>
@@ -62335,7 +62335,7 @@
     </row>
     <row r="7748" spans="1:2">
       <c r="A7748">
-        <v>0.06509715325352594</v>
+        <v>0.06509715325352593</v>
       </c>
       <c r="B7748">
         <v>-0.06049414961649902</v>
@@ -62383,7 +62383,7 @@
     </row>
     <row r="7754" spans="1:2">
       <c r="A7754">
-        <v>0.06803665101702472</v>
+        <v>0.0680366510170247</v>
       </c>
       <c r="B7754">
         <v>-0.05706201518349108</v>
@@ -62391,7 +62391,7 @@
     </row>
     <row r="7755" spans="1:2">
       <c r="A7755">
-        <v>0.06891697144020087</v>
+        <v>0.06891697144020086</v>
       </c>
       <c r="B7755">
         <v>-0.06516118927896031</v>
@@ -62415,7 +62415,7 @@
     </row>
     <row r="7758" spans="1:2">
       <c r="A7758">
-        <v>0.07032664695438862</v>
+        <v>0.0703266469543886</v>
       </c>
       <c r="B7758">
         <v>-0.06344065755659756</v>
@@ -62423,7 +62423,7 @@
     </row>
     <row r="7759" spans="1:2">
       <c r="A7759">
-        <v>0.06983999283490244</v>
+        <v>0.06983999283490246</v>
       </c>
       <c r="B7759">
         <v>-0.07347064903303302</v>
@@ -62431,7 +62431,7 @@
     </row>
     <row r="7760" spans="1:2">
       <c r="A7760">
-        <v>0.07049889660002984</v>
+        <v>0.07049889660002982</v>
       </c>
       <c r="B7760">
         <v>-0.05448786104806302</v>
@@ -62503,7 +62503,7 @@
     </row>
     <row r="7769" spans="1:2">
       <c r="A7769">
-        <v>0.07396143699085432</v>
+        <v>0.07396143699085431</v>
       </c>
       <c r="B7769">
         <v>-0.05419988209823057</v>
@@ -62567,7 +62567,7 @@
     </row>
     <row r="7777" spans="1:2">
       <c r="A7777">
-        <v>0.07832404036413994</v>
+        <v>0.07832404036413995</v>
       </c>
       <c r="B7777">
         <v>-0.04233480953919067</v>
@@ -62583,7 +62583,7 @@
     </row>
     <row r="7779" spans="1:2">
       <c r="A7779">
-        <v>0.07924274063889042</v>
+        <v>0.07924274063889043</v>
       </c>
       <c r="B7779">
         <v>-0.0667734324790672</v>
@@ -62591,7 +62591,7 @@
     </row>
     <row r="7780" spans="1:2">
       <c r="A7780">
-        <v>0.07872828330385792</v>
+        <v>0.07872828330385791</v>
       </c>
       <c r="B7780">
         <v>-0.0469132841375739</v>
@@ -62631,7 +62631,7 @@
     </row>
     <row r="7785" spans="1:2">
       <c r="A7785">
-        <v>0.07453779622287611</v>
+        <v>0.07453779622287612</v>
       </c>
       <c r="B7785">
         <v>-0.08790962206219444</v>
@@ -62679,7 +62679,7 @@
     </row>
     <row r="7791" spans="1:2">
       <c r="A7791">
-        <v>0.07179638631855158</v>
+        <v>0.07179638631855156</v>
       </c>
       <c r="B7791">
         <v>-0.09748355790641261</v>
@@ -62687,7 +62687,7 @@
     </row>
     <row r="7792" spans="1:2">
       <c r="A7792">
-        <v>0.07094197206608736</v>
+        <v>0.07094197206608738</v>
       </c>
       <c r="B7792">
         <v>-0.07793148006159711</v>
@@ -62695,7 +62695,7 @@
     </row>
     <row r="7793" spans="1:2">
       <c r="A7793">
-        <v>0.07088924378537546</v>
+        <v>0.07088924378537548</v>
       </c>
       <c r="B7793">
         <v>-0.08893582757102392</v>
@@ -62711,7 +62711,7 @@
     </row>
     <row r="7795" spans="1:2">
       <c r="A7795">
-        <v>0.07025680886000958</v>
+        <v>0.07025680886000957</v>
       </c>
       <c r="B7795">
         <v>-0.07762954832268631</v>
@@ -62735,7 +62735,7 @@
     </row>
     <row r="7798" spans="1:2">
       <c r="A7798">
-        <v>0.07223885723113743</v>
+        <v>0.07223885723113742</v>
       </c>
       <c r="B7798">
         <v>-0.06921753098786576</v>
@@ -62775,7 +62775,7 @@
     </row>
     <row r="7803" spans="1:2">
       <c r="A7803">
-        <v>0.07255301714404334</v>
+        <v>0.07255301714404336</v>
       </c>
       <c r="B7803">
         <v>-0.08047535516631354</v>
@@ -62783,7 +62783,7 @@
     </row>
     <row r="7804" spans="1:2">
       <c r="A7804">
-        <v>0.07133770014956053</v>
+        <v>0.07133770014956052</v>
       </c>
       <c r="B7804">
         <v>-0.08919168499475871</v>
@@ -62791,7 +62791,7 @@
     </row>
     <row r="7805" spans="1:2">
       <c r="A7805">
-        <v>0.07119469743364612</v>
+        <v>0.07119469743364613</v>
       </c>
       <c r="B7805">
         <v>-0.07122502831571165</v>
@@ -62799,7 +62799,7 @@
     </row>
     <row r="7806" spans="1:2">
       <c r="A7806">
-        <v>0.07053867723233126</v>
+        <v>0.07053867723233127</v>
       </c>
       <c r="B7806">
         <v>-0.07971643677394269</v>
@@ -62831,7 +62831,7 @@
     </row>
     <row r="7810" spans="1:2">
       <c r="A7810">
-        <v>0.06669806962113951</v>
+        <v>0.06669806962113953</v>
       </c>
       <c r="B7810">
         <v>-0.0874898340499195</v>
@@ -63015,7 +63015,7 @@
     </row>
     <row r="7833" spans="1:2">
       <c r="A7833">
-        <v>0.0511295254418022</v>
+        <v>0.05112952544180219</v>
       </c>
       <c r="B7833">
         <v>-0.0585857965740666</v>
@@ -63039,7 +63039,7 @@
     </row>
     <row r="7836" spans="1:2">
       <c r="A7836">
-        <v>0.04851434291638887</v>
+        <v>0.04851434291638886</v>
       </c>
       <c r="B7836">
         <v>-0.05491602259962658</v>
@@ -63103,7 +63103,7 @@
     </row>
     <row r="7844" spans="1:2">
       <c r="A7844">
-        <v>0.04121870349805065</v>
+        <v>0.04121870349805066</v>
       </c>
       <c r="B7844">
         <v>-0.05604078309854055</v>
@@ -63127,7 +63127,7 @@
     </row>
     <row r="7847" spans="1:2">
       <c r="A7847">
-        <v>0.03919638572307689</v>
+        <v>0.0391963857230769</v>
       </c>
       <c r="B7847">
         <v>-0.05045710496042632</v>
@@ -63199,7 +63199,7 @@
     </row>
     <row r="7856" spans="1:2">
       <c r="A7856">
-        <v>0.03313431775460147</v>
+        <v>0.03313431775460148</v>
       </c>
       <c r="B7856">
         <v>-0.03677480499871866</v>
@@ -63303,7 +63303,7 @@
     </row>
     <row r="7869" spans="1:2">
       <c r="A7869">
-        <v>0.02525960164513662</v>
+        <v>0.02525960164513661</v>
       </c>
       <c r="B7869">
         <v>-0.03086141803455966</v>
@@ -63359,7 +63359,7 @@
     </row>
     <row r="7876" spans="1:2">
       <c r="A7876">
-        <v>0.02253572696494172</v>
+        <v>0.02253572696494171</v>
       </c>
       <c r="B7876">
         <v>-0.02812537327668707</v>
@@ -63631,7 +63631,7 @@
     </row>
     <row r="7910" spans="1:2">
       <c r="A7910">
-        <v>0.01311032289737305</v>
+        <v>0.01311032289737306</v>
       </c>
       <c r="B7910">
         <v>-0.006992760547343657</v>
@@ -63999,7 +63999,7 @@
     </row>
     <row r="7956" spans="1:2">
       <c r="A7956">
-        <v>-0.01921073819338646</v>
+        <v>-0.01921073819338645</v>
       </c>
       <c r="B7956">
         <v>-0.01308315865615484</v>
@@ -64127,7 +64127,7 @@
     </row>
     <row r="7972" spans="1:2">
       <c r="A7972">
-        <v>-0.02822108079032839</v>
+        <v>-0.0282210807903284</v>
       </c>
       <c r="B7972">
         <v>0.02493078554640427</v>
@@ -64239,7 +64239,7 @@
     </row>
     <row r="7986" spans="1:2">
       <c r="A7986">
-        <v>-0.04137441779988631</v>
+        <v>-0.0413744177998863</v>
       </c>
       <c r="B7986">
         <v>0.01770141792751279</v>
@@ -64271,7 +64271,7 @@
     </row>
     <row r="7990" spans="1:2">
       <c r="A7990">
-        <v>-0.04241705443971366</v>
+        <v>-0.04241705443971367</v>
       </c>
       <c r="B7990">
         <v>0.02857735627994895</v>
@@ -64311,7 +64311,7 @@
     </row>
     <row r="7995" spans="1:2">
       <c r="A7995">
-        <v>-0.04085792288045653</v>
+        <v>-0.04085792288045652</v>
       </c>
       <c r="B7995">
         <v>0.0379240829061831</v>
@@ -64327,7 +64327,7 @@
     </row>
     <row r="7997" spans="1:2">
       <c r="A7997">
-        <v>-0.04092505130615834</v>
+        <v>-0.04092505130615835</v>
       </c>
       <c r="B7997">
         <v>0.03648997106182028</v>
@@ -64391,7 +64391,7 @@
     </row>
     <row r="8005" spans="1:2">
       <c r="A8005">
-        <v>-0.04488525764994118</v>
+        <v>-0.04488525764994117</v>
       </c>
       <c r="B8005">
         <v>0.02827058372892166</v>
@@ -64471,7 +64471,7 @@
     </row>
     <row r="8015" spans="1:2">
       <c r="A8015">
-        <v>-0.04340990609367568</v>
+        <v>-0.04340990609367569</v>
       </c>
       <c r="B8015">
         <v>0.0313123267628419</v>
@@ -64503,7 +64503,7 @@
     </row>
     <row r="8019" spans="1:2">
       <c r="A8019">
-        <v>-0.03821822613333034</v>
+        <v>-0.03821822613333035</v>
       </c>
       <c r="B8019">
         <v>0.04796956190581403</v>
@@ -64511,7 +64511,7 @@
     </row>
     <row r="8020" spans="1:2">
       <c r="A8020">
-        <v>-0.03690157729713755</v>
+        <v>-0.03690157729713756</v>
       </c>
       <c r="B8020">
         <v>0.05338115185109915</v>
@@ -64559,7 +64559,7 @@
     </row>
     <row r="8026" spans="1:2">
       <c r="A8026">
-        <v>-0.03510031001611334</v>
+        <v>-0.03510031001611335</v>
       </c>
       <c r="B8026">
         <v>0.0419965211547173</v>
@@ -64663,7 +64663,7 @@
     </row>
     <row r="8039" spans="1:2">
       <c r="A8039">
-        <v>-0.03642088383194948</v>
+        <v>-0.03642088383194947</v>
       </c>
       <c r="B8039">
         <v>0.02074664715519026</v>
@@ -64775,7 +64775,7 @@
     </row>
     <row r="8053" spans="1:2">
       <c r="A8053">
-        <v>-0.03310486783733967</v>
+        <v>-0.03310486783733966</v>
       </c>
       <c r="B8053">
         <v>0.02731112395830859</v>
@@ -64863,7 +64863,7 @@
     </row>
     <row r="8064" spans="1:2">
       <c r="A8064">
-        <v>-0.03341020982986384</v>
+        <v>-0.03341020982986385</v>
       </c>
       <c r="B8064">
         <v>0.02475833929560434</v>
@@ -64871,7 +64871,7 @@
     </row>
     <row r="8065" spans="1:2">
       <c r="A8065">
-        <v>-0.03346899956742563</v>
+        <v>-0.03346899956742564</v>
       </c>
       <c r="B8065">
         <v>0.01982857648219349</v>
@@ -64895,7 +64895,7 @@
     </row>
     <row r="8068" spans="1:2">
       <c r="A8068">
-        <v>-0.03375489275383005</v>
+        <v>-0.03375489275383006</v>
       </c>
       <c r="B8068">
         <v>0.01998418426869408</v>
@@ -64927,7 +64927,7 @@
     </row>
     <row r="8072" spans="1:2">
       <c r="A8072">
-        <v>-0.03420571236947011</v>
+        <v>-0.0342057123694701</v>
       </c>
       <c r="B8072">
         <v>0.02240000820927035</v>
@@ -64959,7 +64959,7 @@
     </row>
     <row r="8076" spans="1:2">
       <c r="A8076">
-        <v>-0.03318431873266211</v>
+        <v>-0.0331843187326621</v>
       </c>
       <c r="B8076">
         <v>0.02205354624624967</v>
@@ -64975,7 +64975,7 @@
     </row>
     <row r="8078" spans="1:2">
       <c r="A8078">
-        <v>-0.03075499062182139</v>
+        <v>-0.03075499062182138</v>
       </c>
       <c r="B8078">
         <v>0.0261452474453594</v>
@@ -64983,7 +64983,7 @@
     </row>
     <row r="8079" spans="1:2">
       <c r="A8079">
-        <v>-0.02992711191125127</v>
+        <v>-0.02992711191125126</v>
       </c>
       <c r="B8079">
         <v>0.03069123060333556</v>
@@ -65055,7 +65055,7 @@
     </row>
     <row r="8088" spans="1:2">
       <c r="A8088">
-        <v>-0.02433353555412381</v>
+        <v>-0.0243335355541238</v>
       </c>
       <c r="B8088">
         <v>0.03771564738092703</v>
@@ -65063,7 +65063,7 @@
     </row>
     <row r="8089" spans="1:2">
       <c r="A8089">
-        <v>-0.02417913889411318</v>
+        <v>-0.02417913889411319</v>
       </c>
       <c r="B8089">
         <v>0.03293293511425954</v>
@@ -65127,7 +65127,7 @@
     </row>
     <row r="8097" spans="1:2">
       <c r="A8097">
-        <v>-0.02616657019764769</v>
+        <v>-0.0261665701976477</v>
       </c>
       <c r="B8097">
         <v>0.01571658218662231</v>
@@ -65135,7 +65135,7 @@
     </row>
     <row r="8098" spans="1:2">
       <c r="A8098">
-        <v>-0.02635005904171524</v>
+        <v>-0.02635005904171525</v>
       </c>
       <c r="B8098">
         <v>0.01621936140997837</v>
@@ -65239,7 +65239,7 @@
     </row>
     <row r="8111" spans="1:2">
       <c r="A8111">
-        <v>-0.02694621069822212</v>
+        <v>-0.02694621069822213</v>
       </c>
       <c r="B8111">
         <v>0.01308491792558097</v>
@@ -65335,7 +65335,7 @@
     </row>
     <row r="8123" spans="1:2">
       <c r="A8123">
-        <v>-0.02494995677452349</v>
+        <v>-0.0249499567745235</v>
       </c>
       <c r="B8123">
         <v>0.02109253758520202</v>
@@ -65439,7 +65439,7 @@
     </row>
     <row r="8136" spans="1:2">
       <c r="A8136">
-        <v>-0.01870067490771772</v>
+        <v>-0.01870067490771773</v>
       </c>
       <c r="B8136">
         <v>0.0280264049063792</v>
@@ -65487,7 +65487,7 @@
     </row>
     <row r="8142" spans="1:2">
       <c r="A8142">
-        <v>-0.01837896472487599</v>
+        <v>-0.018378964724876</v>
       </c>
       <c r="B8142">
         <v>0.02128538565450144</v>
@@ -65495,7 +65495,7 @@
     </row>
     <row r="8143" spans="1:2">
       <c r="A8143">
-        <v>-0.0178848101596145</v>
+        <v>-0.01788481015961451</v>
       </c>
       <c r="B8143">
         <v>0.01907304933428211</v>
@@ -65519,7 +65519,7 @@
     </row>
     <row r="8146" spans="1:2">
       <c r="A8146">
-        <v>-0.01599388458329384</v>
+        <v>-0.01599388458329383</v>
       </c>
       <c r="B8146">
         <v>0.02021533321717017</v>
@@ -65631,7 +65631,7 @@
     </row>
     <row r="8160" spans="1:2">
       <c r="A8160">
-        <v>-0.01275867781982126</v>
+        <v>-0.01275867781982125</v>
       </c>
       <c r="B8160">
         <v>0.007408987457607541</v>
@@ -65719,7 +65719,7 @@
     </row>
     <row r="8171" spans="1:2">
       <c r="A8171">
-        <v>-0.005704497133561848</v>
+        <v>-0.005704497133561849</v>
       </c>
       <c r="B8171">
         <v>0.01791820477979478</v>
@@ -65759,7 +65759,7 @@
     </row>
     <row r="8176" spans="1:2">
       <c r="A8176">
-        <v>-0.006598467828505968</v>
+        <v>-0.006598467828505969</v>
       </c>
       <c r="B8176">
         <v>0.01091294278936505</v>
@@ -65791,7 +65791,7 @@
     </row>
     <row r="8180" spans="1:2">
       <c r="A8180">
-        <v>-0.008705921268048403</v>
+        <v>-0.008705921268048401</v>
       </c>
       <c r="B8180">
         <v>0.002050685586610701</v>
@@ -65807,7 +65807,7 @@
     </row>
     <row r="8182" spans="1:2">
       <c r="A8182">
-        <v>-0.008710490318214801</v>
+        <v>-0.0087104903182148</v>
       </c>
       <c r="B8182">
         <v>0.002765362363241763</v>
@@ -65847,7 +65847,7 @@
     </row>
     <row r="8187" spans="1:2">
       <c r="A8187">
-        <v>-0.0065479604927688</v>
+        <v>-0.006547960492768799</v>
       </c>
       <c r="B8187">
         <v>0.007224129683465641</v>
@@ -65879,7 +65879,7 @@
     </row>
     <row r="8191" spans="1:2">
       <c r="A8191">
-        <v>-0.004055302397406618</v>
+        <v>-0.004055302397406619</v>
       </c>
       <c r="B8191">
         <v>0.0119327087359995</v>
@@ -66007,7 +66007,7 @@
     </row>
     <row r="8207" spans="1:2">
       <c r="A8207">
-        <v>-0.00952007691667504</v>
+        <v>-0.009520076916675042</v>
       </c>
       <c r="B8207">
         <v>-0.002234733443706727</v>
@@ -66031,7 +66031,7 @@
     </row>
     <row r="8210" spans="1:2">
       <c r="A8210">
-        <v>-0.008000277054802583</v>
+        <v>-0.008000277054802581</v>
       </c>
       <c r="B8210">
         <v>0.003186510341100846</v>
@@ -66095,7 +66095,7 @@
     </row>
     <row r="8218" spans="1:2">
       <c r="A8218">
-        <v>-0.0006951909152777509</v>
+        <v>-0.000695190915277751</v>
       </c>
       <c r="B8218">
         <v>0.02001482490493967</v>
@@ -66143,7 +66143,7 @@
     </row>
     <row r="8224" spans="1:2">
       <c r="A8224">
-        <v>8.455934991723812E-05</v>
+        <v>8.455934991723813E-05</v>
       </c>
       <c r="B8224">
         <v>0.0138354030066461</v>
@@ -66239,7 +66239,7 @@
     </row>
     <row r="8236" spans="1:2">
       <c r="A8236">
-        <v>-0.002938308187492641</v>
+        <v>-0.002938308187492642</v>
       </c>
       <c r="B8236">
         <v>-0.007969363878007396</v>
@@ -66247,7 +66247,7 @@
     </row>
     <row r="8237" spans="1:2">
       <c r="A8237">
-        <v>-0.002289609945321705</v>
+        <v>-0.002289609945321704</v>
       </c>
       <c r="B8237">
         <v>-0.006997413280691145</v>
@@ -66263,7 +66263,7 @@
     </row>
     <row r="8239" spans="1:2">
       <c r="A8239">
-        <v>-0.0007081901680060233</v>
+        <v>-0.0007081901680060232</v>
       </c>
       <c r="B8239">
         <v>-0.003587241313451006</v>
@@ -66351,7 +66351,7 @@
     </row>
     <row r="8250" spans="1:2">
       <c r="A8250">
-        <v>0.008131925850553161</v>
+        <v>0.008131925850553159</v>
       </c>
       <c r="B8250">
         <v>0.009735253675096978</v>
@@ -66367,7 +66367,7 @@
     </row>
     <row r="8252" spans="1:2">
       <c r="A8252">
-        <v>0.008065379230068245</v>
+        <v>0.008065379230068243</v>
       </c>
       <c r="B8252">
         <v>0.006942922652024119</v>
@@ -66415,7 +66415,7 @@
     </row>
     <row r="8258" spans="1:2">
       <c r="A8258">
-        <v>0.005614279121899762</v>
+        <v>0.005614279121899761</v>
       </c>
       <c r="B8258">
         <v>-0.00607126684489856</v>
@@ -66447,7 +66447,7 @@
     </row>
     <row r="8262" spans="1:2">
       <c r="A8262">
-        <v>0.002183510715874352</v>
+        <v>0.002183510715874353</v>
       </c>
       <c r="B8262">
         <v>-0.01688092175661149</v>
@@ -66471,7 +66471,7 @@
     </row>
     <row r="8265" spans="1:2">
       <c r="A8265">
-        <v>0.001188315778608507</v>
+        <v>0.001188315778608508</v>
       </c>
       <c r="B8265">
         <v>-0.0186320033605889</v>
@@ -66575,7 +66575,7 @@
     </row>
     <row r="8278" spans="1:2">
       <c r="A8278">
-        <v>0.007979321970832237</v>
+        <v>0.007979321970832239</v>
       </c>
       <c r="B8278">
         <v>0.008752219683449081</v>
@@ -66591,7 +66591,7 @@
     </row>
     <row r="8280" spans="1:2">
       <c r="A8280">
-        <v>0.008109007754861928</v>
+        <v>0.00810900775486193</v>
       </c>
       <c r="B8280">
         <v>0.008722726443997075</v>
@@ -66623,7 +66623,7 @@
     </row>
     <row r="8284" spans="1:2">
       <c r="A8284">
-        <v>0.006804624060884132</v>
+        <v>0.006804624060884133</v>
       </c>
       <c r="B8284">
         <v>0.004352654333575234</v>
@@ -66639,7 +66639,7 @@
     </row>
     <row r="8286" spans="1:2">
       <c r="A8286">
-        <v>0.005546716141280271</v>
+        <v>0.00554671614128027</v>
       </c>
       <c r="B8286">
         <v>0.0004441559615426804</v>
@@ -66695,7 +66695,7 @@
     </row>
     <row r="8293" spans="1:2">
       <c r="A8293">
-        <v>-0.0009622050453877393</v>
+        <v>-0.0009622050453877394</v>
       </c>
       <c r="B8293">
         <v>-0.01586253561574358</v>
@@ -66919,7 +66919,7 @@
     </row>
     <row r="8321" spans="1:2">
       <c r="A8321">
-        <v>-0.002426659192596936</v>
+        <v>-0.002426659192596937</v>
       </c>
       <c r="B8321">
         <v>-0.006955974997377989</v>
@@ -66935,7 +66935,7 @@
     </row>
     <row r="8323" spans="1:2">
       <c r="A8323">
-        <v>-0.002004552986109301</v>
+        <v>-0.0020045529861093</v>
       </c>
       <c r="B8323">
         <v>-0.005431758659696584</v>
@@ -67007,7 +67007,7 @@
     </row>
     <row r="8332" spans="1:2">
       <c r="A8332">
-        <v>0.004481569895364918</v>
+        <v>0.004481569895364917</v>
       </c>
       <c r="B8332">
         <v>0.01080116336983128</v>
@@ -67031,7 +67031,7 @@
     </row>
     <row r="8335" spans="1:2">
       <c r="A8335">
-        <v>0.004659466778132341</v>
+        <v>0.004659466778132342</v>
       </c>
       <c r="B8335">
         <v>0.009351352028910132</v>
@@ -67183,7 +67183,7 @@
     </row>
     <row r="8354" spans="1:2">
       <c r="A8354">
-        <v>0.0007096184114973007</v>
+        <v>0.0007096184114973008</v>
       </c>
       <c r="B8354">
         <v>-0.001834233488973602</v>
@@ -67231,7 +67231,7 @@
     </row>
     <row r="8360" spans="1:2">
       <c r="A8360">
-        <v>0.005206603063710322</v>
+        <v>0.005206603063710323</v>
       </c>
       <c r="B8360">
         <v>0.01098238116111094</v>
@@ -67255,7 +67255,7 @@
     </row>
     <row r="8363" spans="1:2">
       <c r="A8363">
-        <v>0.005081372860747904</v>
+        <v>0.005081372860747903</v>
       </c>
       <c r="B8363">
         <v>0.009616486863611495</v>
@@ -67463,7 +67463,7 @@
     </row>
     <row r="8389" spans="1:2">
       <c r="A8389">
-        <v>0.002272087873647035</v>
+        <v>0.002272087873647034</v>
       </c>
       <c r="B8389">
         <v>0.008823575533834394</v>
@@ -67503,7 +67503,7 @@
     </row>
     <row r="8394" spans="1:2">
       <c r="A8394">
-        <v>-0.0005473995120939251</v>
+        <v>-0.0005473995120939252</v>
       </c>
       <c r="B8394">
         <v>0.001238386263833213</v>
@@ -67655,7 +67655,7 @@
     </row>
     <row r="8413" spans="1:2">
       <c r="A8413">
-        <v>-0.002308697228184106</v>
+        <v>-0.002308697228184105</v>
       </c>
       <c r="B8413">
         <v>0.00836129213352077</v>
@@ -67735,7 +67735,7 @@
     </row>
     <row r="8423" spans="1:2">
       <c r="A8423">
-        <v>-0.007930250805040085</v>
+        <v>-0.007930250805040086</v>
       </c>
       <c r="B8423">
         <v>-0.001127705663023448</v>
@@ -67807,7 +67807,7 @@
     </row>
     <row r="8432" spans="1:2">
       <c r="A8432">
-        <v>-0.01739690871095903</v>
+        <v>-0.01739690871095902</v>
       </c>
       <c r="B8432">
         <v>-0.005658030924831969</v>
@@ -67991,7 +67991,7 @@
     </row>
     <row r="8455" spans="1:2">
       <c r="A8455">
-        <v>-0.02500661107184169</v>
+        <v>-0.0250066110718417</v>
       </c>
       <c r="B8455">
         <v>0.02264341542110859</v>
@@ -68031,7 +68031,7 @@
     </row>
     <row r="8460" spans="1:2">
       <c r="A8460">
-        <v>-0.02996953040882781</v>
+        <v>-0.0299695304088278</v>
       </c>
       <c r="B8460">
         <v>0.0182163852896613</v>
@@ -68071,7 +68071,7 @@
     </row>
     <row r="8465" spans="1:2">
       <c r="A8465">
-        <v>-0.03373440786649352</v>
+        <v>-0.03373440786649353</v>
       </c>
       <c r="B8465">
         <v>0.01894463223677345</v>
@@ -68143,7 +68143,7 @@
     </row>
     <row r="8474" spans="1:2">
       <c r="A8474">
-        <v>-0.03763444205411003</v>
+        <v>-0.03763444205411004</v>
       </c>
       <c r="B8474">
         <v>0.02765840242325357</v>
@@ -68159,7 +68159,7 @@
     </row>
     <row r="8476" spans="1:2">
       <c r="A8476">
-        <v>-0.03871647643370449</v>
+        <v>-0.0387164764337045</v>
       </c>
       <c r="B8476">
         <v>0.02730621275640388</v>
@@ -68191,7 +68191,7 @@
     </row>
     <row r="8480" spans="1:2">
       <c r="A8480">
-        <v>-0.04181724118313886</v>
+        <v>-0.04181724118313885</v>
       </c>
       <c r="B8480">
         <v>0.034229916748858</v>
@@ -68199,7 +68199,7 @@
     </row>
     <row r="8481" spans="1:2">
       <c r="A8481">
-        <v>-0.04250787175872168</v>
+        <v>-0.04250787175872167</v>
       </c>
       <c r="B8481">
         <v>0.0283521561403477</v>
@@ -68207,7 +68207,7 @@
     </row>
     <row r="8482" spans="1:2">
       <c r="A8482">
-        <v>-0.04264576371418919</v>
+        <v>-0.0426457637141892</v>
       </c>
       <c r="B8482">
         <v>0.03443306283945535</v>
@@ -68255,7 +68255,7 @@
     </row>
     <row r="8488" spans="1:2">
       <c r="A8488">
-        <v>-0.04718211847243248</v>
+        <v>-0.04718211847243249</v>
       </c>
       <c r="B8488">
         <v>0.02691912449120881</v>
@@ -68295,7 +68295,7 @@
     </row>
     <row r="8493" spans="1:2">
       <c r="A8493">
-        <v>-0.0509177353836166</v>
+        <v>-0.05091773538361661</v>
       </c>
       <c r="B8493">
         <v>0.02698582169697783</v>
@@ -68359,7 +68359,7 @@
     </row>
     <row r="8501" spans="1:2">
       <c r="A8501">
-        <v>-0.05063824475916747</v>
+        <v>-0.05063824475916746</v>
       </c>
       <c r="B8501">
         <v>0.04478816621066439</v>
@@ -68383,7 +68383,7 @@
     </row>
     <row r="8504" spans="1:2">
       <c r="A8504">
-        <v>-0.05002341375727488</v>
+        <v>-0.05002341375727489</v>
       </c>
       <c r="B8504">
         <v>0.0528074792798181</v>
@@ -68415,7 +68415,7 @@
     </row>
     <row r="8508" spans="1:2">
       <c r="A8508">
-        <v>-0.05240337200123571</v>
+        <v>-0.0524033720012357</v>
       </c>
       <c r="B8508">
         <v>0.0437477619811002</v>
@@ -68431,7 +68431,7 @@
     </row>
     <row r="8510" spans="1:2">
       <c r="A8510">
-        <v>-0.05410464874190909</v>
+        <v>-0.05410464874190908</v>
       </c>
       <c r="B8510">
         <v>0.05280554614974164</v>
@@ -68455,7 +68455,7 @@
     </row>
     <row r="8513" spans="1:2">
       <c r="A8513">
-        <v>-0.05561600651785757</v>
+        <v>-0.05561600651785758</v>
       </c>
       <c r="B8513">
         <v>0.03930092556869624</v>
@@ -68527,7 +68527,7 @@
     </row>
     <row r="8522" spans="1:2">
       <c r="A8522">
-        <v>-0.06578447713568653</v>
+        <v>-0.06578447713568654</v>
       </c>
       <c r="B8522">
         <v>0.03710112496105467</v>
@@ -68551,7 +68551,7 @@
     </row>
     <row r="8525" spans="1:2">
       <c r="A8525">
-        <v>-0.0675437133298443</v>
+        <v>-0.06754371332984428</v>
       </c>
       <c r="B8525">
         <v>0.04291638122727814</v>
@@ -68719,7 +68719,7 @@
     </row>
     <row r="8546" spans="1:2">
       <c r="A8546">
-        <v>-0.08078346745753659</v>
+        <v>-0.08078346745753658</v>
       </c>
       <c r="B8546">
         <v>0.04105989001003429</v>
@@ -68839,7 +68839,7 @@
     </row>
     <row r="8561" spans="1:2">
       <c r="A8561">
-        <v>-0.08938985356537488</v>
+        <v>-0.08938985356537489</v>
       </c>
       <c r="B8561">
         <v>0.06206898300888497</v>
@@ -68871,7 +68871,7 @@
     </row>
     <row r="8565" spans="1:2">
       <c r="A8565">
-        <v>-0.08952762625125452</v>
+        <v>-0.08952762625125453</v>
       </c>
       <c r="B8565">
         <v>0.08226717812524953</v>
@@ -68895,7 +68895,7 @@
     </row>
     <row r="8568" spans="1:2">
       <c r="A8568">
-        <v>-0.08946681480997778</v>
+        <v>-0.08946681480997777</v>
       </c>
       <c r="B8568">
         <v>0.0894718078339185</v>
@@ -68903,7 +68903,7 @@
     </row>
     <row r="8569" spans="1:2">
       <c r="A8569">
-        <v>-0.08959352560577227</v>
+        <v>-0.08959352560577226</v>
       </c>
       <c r="B8569">
         <v>0.07948474421423501</v>
@@ -68911,7 +68911,7 @@
     </row>
     <row r="8570" spans="1:2">
       <c r="A8570">
-        <v>-0.08956482599370932</v>
+        <v>-0.08956482599370931</v>
       </c>
       <c r="B8570">
         <v>0.08740662882968575</v>
@@ -68919,7 +68919,7 @@
     </row>
     <row r="8571" spans="1:2">
       <c r="A8571">
-        <v>-0.08911123869852722</v>
+        <v>-0.0891112386985272</v>
       </c>
       <c r="B8571">
         <v>0.07738186552891779</v>
@@ -68927,7 +68927,7 @@
     </row>
     <row r="8572" spans="1:2">
       <c r="A8572">
-        <v>-0.08924724308427384</v>
+        <v>-0.08924724308427386</v>
       </c>
       <c r="B8572">
         <v>0.08503862422640562</v>
@@ -68935,7 +68935,7 @@
     </row>
     <row r="8573" spans="1:2">
       <c r="A8573">
-        <v>-0.0885939712883434</v>
+        <v>-0.08859397128834341</v>
       </c>
       <c r="B8573">
         <v>0.09294257930284822</v>
@@ -68951,7 +68951,7 @@
     </row>
     <row r="8575" spans="1:2">
       <c r="A8575">
-        <v>-0.08794263569101993</v>
+        <v>-0.08794263569101991</v>
       </c>
       <c r="B8575">
         <v>0.09026860185898489</v>
@@ -68959,7 +68959,7 @@
     </row>
     <row r="8576" spans="1:2">
       <c r="A8576">
-        <v>-0.08726175951597032</v>
+        <v>-0.0872617595159703</v>
       </c>
       <c r="B8576">
         <v>0.07980966951197832</v>
@@ -69079,7 +69079,7 @@
     </row>
     <row r="8591" spans="1:2">
       <c r="A8591">
-        <v>-0.08222205577106859</v>
+        <v>-0.08222205577106857</v>
       </c>
       <c r="B8591">
         <v>0.08367954302170411</v>
@@ -69087,7 +69087,7 @@
     </row>
     <row r="8592" spans="1:2">
       <c r="A8592">
-        <v>-0.08158092023496852</v>
+        <v>-0.0815809202349685</v>
       </c>
       <c r="B8592">
         <v>0.0744873826305632</v>
@@ -69167,7 +69167,7 @@
     </row>
     <row r="8602" spans="1:2">
       <c r="A8602">
-        <v>-0.07683056540837663</v>
+        <v>-0.07683056540837664</v>
       </c>
       <c r="B8602">
         <v>0.06293961906766299</v>
@@ -69191,7 +69191,7 @@
     </row>
     <row r="8605" spans="1:2">
       <c r="A8605">
-        <v>-0.07538403442868266</v>
+        <v>-0.07538403442868268</v>
       </c>
       <c r="B8605">
         <v>0.06318781255904682</v>
@@ -69215,7 +69215,7 @@
     </row>
     <row r="8608" spans="1:2">
       <c r="A8608">
-        <v>-0.07402517448577239</v>
+        <v>-0.07402517448577238</v>
       </c>
       <c r="B8608">
         <v>0.06357877425344149</v>
@@ -69223,7 +69223,7 @@
     </row>
     <row r="8609" spans="1:2">
       <c r="A8609">
-        <v>-0.07313935396585297</v>
+        <v>-0.07313935396585299</v>
       </c>
       <c r="B8609">
         <v>0.05498745482976108</v>
@@ -69247,7 +69247,7 @@
     </row>
     <row r="8612" spans="1:2">
       <c r="A8612">
-        <v>-0.07043216890788973</v>
+        <v>-0.07043216890788974</v>
       </c>
       <c r="B8612">
         <v>0.05991079167910218</v>
@@ -69271,7 +69271,7 @@
     </row>
     <row r="8615" spans="1:2">
       <c r="A8615">
-        <v>-0.06736563276866586</v>
+        <v>-0.06736563276866588</v>
       </c>
       <c r="B8615">
         <v>0.06528873802517499</v>
@@ -69327,7 +69327,7 @@
     </row>
     <row r="8622" spans="1:2">
       <c r="A8622">
-        <v>-0.06557209012402201</v>
+        <v>-0.065572090124022</v>
       </c>
       <c r="B8622">
         <v>0.05483599253499527</v>
@@ -69679,7 +69679,7 @@
     </row>
     <row r="8666" spans="1:2">
       <c r="A8666">
-        <v>-0.04802721493016876</v>
+        <v>-0.04802721493016799</v>
       </c>
       <c r="B8666">
         <v>0.04303477974323133</v>
@@ -69703,7 +69703,7 @@
     </row>
     <row r="8669" spans="1:2">
       <c r="A8669">
-        <v>-0.04847754935527114</v>
+        <v>-0.04847754935527113</v>
       </c>
       <c r="B8669">
         <v>0.03014691961869786</v>
@@ -70503,7 +70503,7 @@
     </row>
     <row r="8769" spans="1:2">
       <c r="A8769">
-        <v>-0.1170322151580597</v>
+        <v>-0.1170322151580586</v>
       </c>
       <c r="B8769">
         <v>0.1000554149773354</v>
@@ -70655,7 +70655,7 @@
     </row>
     <row r="8788" spans="1:2">
       <c r="A8788">
-        <v>-0.1048368715971517</v>
+        <v>-0.1048368715971516</v>
       </c>
       <c r="B8788">
         <v>0.08632267439149199</v>
@@ -70679,7 +70679,7 @@
     </row>
     <row r="8791" spans="1:2">
       <c r="A8791">
-        <v>-0.105723607454816</v>
+        <v>-0.1057236074548161</v>
       </c>
       <c r="B8791">
         <v>0.0785986349043184</v>
@@ -70759,7 +70759,7 @@
     </row>
     <row r="8801" spans="1:2">
       <c r="A8801">
-        <v>-0.09569283054461614</v>
+        <v>-0.09569283054461612</v>
       </c>
       <c r="B8801">
         <v>0.07709857464089076</v>
@@ -70775,7 +70775,7 @@
     </row>
     <row r="8803" spans="1:2">
       <c r="A8803">
-        <v>-0.09076889237255176</v>
+        <v>-0.09076889237255177</v>
       </c>
       <c r="B8803">
         <v>0.09801493223771773</v>
@@ -70783,7 +70783,7 @@
     </row>
     <row r="8804" spans="1:2">
       <c r="A8804">
-        <v>-0.08907850103379522</v>
+        <v>-0.08907850103379521</v>
       </c>
       <c r="B8804">
         <v>0.08974395037854777</v>
@@ -70791,7 +70791,7 @@
     </row>
     <row r="8805" spans="1:2">
       <c r="A8805">
-        <v>-0.08666683915075166</v>
+        <v>-0.08666683915075167</v>
       </c>
       <c r="B8805">
         <v>0.09952463608588458</v>
@@ -70823,7 +70823,7 @@
     </row>
     <row r="8809" spans="1:2">
       <c r="A8809">
-        <v>-0.0811234088003554</v>
+        <v>-0.08112340880035539</v>
       </c>
       <c r="B8809">
         <v>0.09347216075492648</v>
@@ -70831,7 +70831,7 @@
     </row>
     <row r="8810" spans="1:2">
       <c r="A8810">
-        <v>-0.08015020523787619</v>
+        <v>-0.08015020523787621</v>
       </c>
       <c r="B8810">
         <v>0.09867887781623663</v>
@@ -70839,7 +70839,7 @@
     </row>
     <row r="8811" spans="1:2">
       <c r="A8811">
-        <v>-0.07966788625866478</v>
+        <v>-0.07966788625866479</v>
       </c>
       <c r="B8811">
         <v>0.08603386798482893</v>
@@ -70871,7 +70871,7 @@
     </row>
     <row r="8815" spans="1:2">
       <c r="A8815">
-        <v>-0.07605607261286418</v>
+        <v>-0.07605607261286419</v>
       </c>
       <c r="B8815">
         <v>0.08940324482603001</v>
@@ -70887,7 +70887,7 @@
     </row>
     <row r="8817" spans="1:2">
       <c r="A8817">
-        <v>-0.07413150681143485</v>
+        <v>-0.07413150681143486</v>
       </c>
       <c r="B8817">
         <v>0.08327428892234989</v>
@@ -70975,7 +70975,7 @@
     </row>
     <row r="8828" spans="1:2">
       <c r="A8828">
-        <v>-0.06750763741966864</v>
+        <v>-0.06750763741966866</v>
       </c>
       <c r="B8828">
         <v>0.0670780192254874</v>
@@ -71087,7 +71087,7 @@
     </row>
     <row r="8842" spans="1:2">
       <c r="A8842">
-        <v>-0.05818549865398291</v>
+        <v>-0.0581854986539829</v>
       </c>
       <c r="B8842">
         <v>0.06063372333293815</v>
@@ -71183,7 +71183,7 @@
     </row>
     <row r="8854" spans="1:2">
       <c r="A8854">
-        <v>-0.04351446946093316</v>
+        <v>-0.04351446946093317</v>
       </c>
       <c r="B8854">
         <v>0.0631301572252152</v>
@@ -71215,7 +71215,7 @@
     </row>
     <row r="8858" spans="1:2">
       <c r="A8858">
-        <v>-0.04629579138443103</v>
+        <v>-0.04629579138443102</v>
       </c>
       <c r="B8858">
         <v>0.04880325905952798</v>
@@ -71247,7 +71247,7 @@
     </row>
     <row r="8862" spans="1:2">
       <c r="A8862">
-        <v>-0.04868381009745003</v>
+        <v>-0.04868381009745004</v>
       </c>
       <c r="B8862">
         <v>0.02914829713115452</v>
@@ -71295,7 +71295,7 @@
     </row>
     <row r="8868" spans="1:2">
       <c r="A8868">
-        <v>-0.04415290227836389</v>
+        <v>-0.04415290227836388</v>
       </c>
       <c r="B8868">
         <v>0.03590821116750709</v>
@@ -71327,7 +71327,7 @@
     </row>
     <row r="8872" spans="1:2">
       <c r="A8872">
-        <v>-0.03862387819005037</v>
+        <v>-0.03862387819005036</v>
       </c>
       <c r="B8872">
         <v>0.04277295526123748</v>
@@ -71591,7 +71591,7 @@
     </row>
     <row r="8905" spans="1:2">
       <c r="A8905">
-        <v>-0.02577714699985773</v>
+        <v>-0.02577714699985774</v>
       </c>
       <c r="B8905">
         <v>0.03081121067115022</v>
@@ -71631,7 +71631,7 @@
     </row>
     <row r="8910" spans="1:2">
       <c r="A8910">
-        <v>-0.01992372720107802</v>
+        <v>-0.01992372720107801</v>
       </c>
       <c r="B8910">
         <v>0.03782648270277322</v>
@@ -71647,7 +71647,7 @@
     </row>
     <row r="8912" spans="1:2">
       <c r="A8912">
-        <v>-0.01778388960598667</v>
+        <v>-0.01778388960598668</v>
       </c>
       <c r="B8912">
         <v>0.03826485028469895</v>
@@ -71679,7 +71679,7 @@
     </row>
     <row r="8916" spans="1:2">
       <c r="A8916">
-        <v>-0.01592002848211451</v>
+        <v>-0.0159200284821145</v>
       </c>
       <c r="B8916">
         <v>0.03155529425379422</v>
@@ -71791,7 +71791,7 @@
     </row>
     <row r="8930" spans="1:2">
       <c r="A8930">
-        <v>-0.01306935134118242</v>
+        <v>-0.01306935134118241</v>
       </c>
       <c r="B8930">
         <v>0.008263294682703037</v>
@@ -71823,7 +71823,7 @@
     </row>
     <row r="8934" spans="1:2">
       <c r="A8934">
-        <v>-0.007532235790354519</v>
+        <v>-0.007532235790354518</v>
       </c>
       <c r="B8934">
         <v>0.01567303771687278</v>
@@ -71855,7 +71855,7 @@
     </row>
     <row r="8938" spans="1:2">
       <c r="A8938">
-        <v>-0.003047698546505539</v>
+        <v>-0.00304769854650554</v>
       </c>
       <c r="B8938">
         <v>0.01909187709400584</v>
@@ -71911,7 +71911,7 @@
     </row>
     <row r="8945" spans="1:2">
       <c r="A8945">
-        <v>-0.0009666439145766435</v>
+        <v>-0.0009666439145766436</v>
       </c>
       <c r="B8945">
         <v>0.008065002962104106</v>
@@ -71967,7 +71967,7 @@
     </row>
     <row r="8952" spans="1:2">
       <c r="A8952">
-        <v>-0.003325622881260181</v>
+        <v>-0.003325622881260182</v>
       </c>
       <c r="B8952">
         <v>-0.009715521742910571</v>
@@ -72015,7 +72015,7 @@
     </row>
     <row r="8958" spans="1:2">
       <c r="A8958">
-        <v>-0.0008944826860832669</v>
+        <v>-0.0008944826860832667</v>
       </c>
       <c r="B8958">
         <v>-0.006505973536357956</v>
@@ -72039,7 +72039,7 @@
     </row>
     <row r="8961" spans="1:2">
       <c r="A8961">
-        <v>0.001731227337804541</v>
+        <v>0.001731227337804542</v>
       </c>
       <c r="B8961">
         <v>-0.0001371705989217098</v>
@@ -72063,7 +72063,7 @@
     </row>
     <row r="8964" spans="1:2">
       <c r="A8964">
-        <v>0.004483063270716167</v>
+        <v>0.004483063270716166</v>
       </c>
       <c r="B8964">
         <v>0.006198855406728043</v>
@@ -72071,7 +72071,7 @@
     </row>
     <row r="8965" spans="1:2">
       <c r="A8965">
-        <v>0.004976958257123801</v>
+        <v>0.004976958257123802</v>
       </c>
       <c r="B8965">
         <v>0.007102574431915532</v>
@@ -72263,7 +72263,7 @@
     </row>
     <row r="8989" spans="1:2">
       <c r="A8989">
-        <v>0.004544310723863125</v>
+        <v>0.004544310723863124</v>
       </c>
       <c r="B8989">
         <v>0.007653616589451406</v>
@@ -72271,7 +72271,7 @@
     </row>
     <row r="8990" spans="1:2">
       <c r="A8990">
-        <v>0.004878114271033962</v>
+        <v>0.004878114271033961</v>
       </c>
       <c r="B8990">
         <v>0.008526366585683398</v>
@@ -72335,7 +72335,7 @@
     </row>
     <row r="8998" spans="1:2">
       <c r="A8998">
-        <v>0.001516029692602707</v>
+        <v>0.001516029692602706</v>
       </c>
       <c r="B8998">
         <v>-0.001847672815976864</v>
@@ -72359,7 +72359,7 @@
     </row>
     <row r="9001" spans="1:2">
       <c r="A9001">
-        <v>-0.000850862368957569</v>
+        <v>-0.0008508623689575689</v>
       </c>
       <c r="B9001">
         <v>-0.007903409194922606</v>
@@ -72479,7 +72479,7 @@
     </row>
     <row r="9016" spans="1:2">
       <c r="A9016">
-        <v>0.004321110724042187</v>
+        <v>0.004321110724042186</v>
       </c>
       <c r="B9016">
         <v>0.008304110640362516</v>
@@ -72495,7 +72495,7 @@
     </row>
     <row r="9018" spans="1:2">
       <c r="A9018">
-        <v>0.003731078103732488</v>
+        <v>0.003731078103732487</v>
       </c>
       <c r="B9018">
         <v>0.006089393098608564</v>
@@ -72615,7 +72615,7 @@
     </row>
     <row r="9033" spans="1:2">
       <c r="A9033">
-        <v>0.0007966533130390795</v>
+        <v>0.0007966533130390861</v>
       </c>
       <c r="B9033">
         <v>-0.00035060232861861</v>
@@ -72647,7 +72647,7 @@
     </row>
     <row r="9037" spans="1:2">
       <c r="A9037">
-        <v>0.003791064500530044</v>
+        <v>0.003791064500530043</v>
       </c>
       <c r="B9037">
         <v>0.007874239276414396</v>
@@ -72671,7 +72671,7 @@
     </row>
     <row r="9040" spans="1:2">
       <c r="A9040">
-        <v>0.004177894587113987</v>
+        <v>0.004177894587113988</v>
       </c>
       <c r="B9040">
         <v>0.008270105879939482</v>
@@ -72687,7 +72687,7 @@
     </row>
     <row r="9042" spans="1:2">
       <c r="A9042">
-        <v>0.003597332963154082</v>
+        <v>0.003597332963154081</v>
       </c>
       <c r="B9042">
         <v>0.006064911944978491</v>
@@ -72815,7 +72815,7 @@
     </row>
     <row r="9058" spans="1:2">
       <c r="A9058">
-        <v>0.001424635905459378</v>
+        <v>0.001424635905459377</v>
       </c>
       <c r="B9058">
         <v>0.00181124888728279</v>
@@ -72879,7 +72879,7 @@
     </row>
     <row r="9066" spans="1:2">
       <c r="A9066">
-        <v>0.003519627300429781</v>
+        <v>0.003519627300429782</v>
       </c>
       <c r="B9066">
         <v>0.006097337411542725</v>
@@ -72895,7 +72895,7 @@
     </row>
     <row r="9068" spans="1:2">
       <c r="A9068">
-        <v>0.002453739245570073</v>
+        <v>0.002453739245570072</v>
       </c>
       <c r="B9068">
         <v>0.002580080854509781</v>
